--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
   <si>
     <t>League</t>
   </si>
@@ -211,6 +211,9 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Armenian Premier League</t>
+  </si>
+  <si>
     <t>Egyptian Premier</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>2024-04-11</t>
   </si>
   <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -280,6 +286,9 @@
     <t>23:00:00</t>
   </si>
   <si>
+    <t>FC Van Yerevan</t>
+  </si>
+  <si>
     <t>Al-Masry</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
     <t>Zamalek</t>
   </si>
   <si>
+    <t>AFC Fylde</t>
+  </si>
+  <si>
     <t>Wealdstone</t>
   </si>
   <si>
@@ -319,15 +331,15 @@
     <t>Liverpool</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
     <t>AC Milan</t>
   </si>
   <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
     <t>Bolivar</t>
   </si>
   <si>
@@ -340,6 +352,9 @@
     <t>Lanus</t>
   </si>
   <si>
+    <t>Cruzeiro MG</t>
+  </si>
+  <si>
     <t>River Plate</t>
   </si>
   <si>
@@ -349,12 +364,12 @@
     <t>Coquimbo Unido</t>
   </si>
   <si>
-    <t>Cruzeiro MG</t>
-  </si>
-  <si>
     <t>Delfin</t>
   </si>
   <si>
+    <t>FC Noah</t>
+  </si>
+  <si>
     <t>Future FC</t>
   </si>
   <si>
@@ -382,6 +397,9 @@
     <t>Al Ittihad (EGY)</t>
   </si>
   <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
     <t>Dorking Wanderers</t>
   </si>
   <si>
@@ -394,15 +412,15 @@
     <t>Atalanta</t>
   </si>
   <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Millonarios</t>
   </si>
   <si>
@@ -415,6 +433,9 @@
     <t>Deportivo Garcilaso</t>
   </si>
   <si>
+    <t>Alianza Petrolera</t>
+  </si>
+  <si>
     <t>Nacional (Uru)</t>
   </si>
   <si>
@@ -424,127 +445,7 @@
     <t>Sportivo Luqueno</t>
   </si>
   <si>
-    <t>Alianza Petrolera</t>
-  </si>
-  <si>
     <t>Belgrano</t>
-  </si>
-  <si>
-    <t>33171632</t>
-  </si>
-  <si>
-    <t>33171564</t>
-  </si>
-  <si>
-    <t>33178319</t>
-  </si>
-  <si>
-    <t>33177315</t>
-  </si>
-  <si>
-    <t>33169767</t>
-  </si>
-  <si>
-    <t>33167481</t>
-  </si>
-  <si>
-    <t>33167029</t>
-  </si>
-  <si>
-    <t>33174682</t>
-  </si>
-  <si>
-    <t>33174323</t>
-  </si>
-  <si>
-    <t>33174684</t>
-  </si>
-  <si>
-    <t>1.227234613</t>
-  </si>
-  <si>
-    <t>1.227373396</t>
-  </si>
-  <si>
-    <t>1.227352398</t>
-  </si>
-  <si>
-    <t>1.227192784</t>
-  </si>
-  <si>
-    <t>1.227164936</t>
-  </si>
-  <si>
-    <t>1.227153412</t>
-  </si>
-  <si>
-    <t>1.227305990</t>
-  </si>
-  <si>
-    <t>1.227300806</t>
-  </si>
-  <si>
-    <t>1.227306098</t>
-  </si>
-  <si>
-    <t>1.227239867</t>
-  </si>
-  <si>
-    <t>1.227234658</t>
-  </si>
-  <si>
-    <t>1.227373441</t>
-  </si>
-  <si>
-    <t>1.227352443</t>
-  </si>
-  <si>
-    <t>1.227192829</t>
-  </si>
-  <si>
-    <t>1.227164946</t>
-  </si>
-  <si>
-    <t>1.227153422</t>
-  </si>
-  <si>
-    <t>1.227306000</t>
-  </si>
-  <si>
-    <t>1.227300816</t>
-  </si>
-  <si>
-    <t>1.227306108</t>
-  </si>
-  <si>
-    <t>1.227164935</t>
-  </si>
-  <si>
-    <t>1.227153411</t>
-  </si>
-  <si>
-    <t>1.227305989</t>
-  </si>
-  <si>
-    <t>1.227300805</t>
-  </si>
-  <si>
-    <t>1.227306097</t>
-  </si>
-  <si>
-    <t>1.227164945</t>
-  </si>
-  <si>
-    <t>1.227153421</t>
-  </si>
-  <si>
-    <t>1.227305999</t>
-  </si>
-  <si>
-    <t>1.227300815</t>
-  </si>
-  <si>
-    <t>1.227306107</t>
   </si>
 </sst>
 </file>
@@ -902,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM26"/>
+  <dimension ref="A1:BM28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,196 +1011,196 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F2">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="G2">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I2">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="K2">
         <v>950</v>
       </c>
       <c r="L2">
-        <v>1.62</v>
+        <v>1.07</v>
       </c>
       <c r="M2">
-        <v>1.79</v>
+        <v>110</v>
       </c>
       <c r="N2">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="O2">
-        <v>4.6</v>
+        <v>15.5</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2">
-        <v>33166486</v>
+        <v>33179950</v>
       </c>
       <c r="BG2">
-        <v>11162123</v>
+        <v>25541480</v>
       </c>
       <c r="BH2">
-        <v>41860831</v>
+        <v>25068897</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
       <c r="BJ2">
-        <v>1.227143073</v>
+        <v>1.227395719</v>
       </c>
       <c r="BK2">
-        <v>1.227143118</v>
+        <v>1.227395764</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1.227395803</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1.227395728</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1307,190 +1208,190 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>1.76</v>
       </c>
       <c r="N3">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="O3">
+        <v>2.68</v>
+      </c>
+      <c r="P3">
+        <v>2.02</v>
+      </c>
+      <c r="Q3">
+        <v>2.18</v>
+      </c>
+      <c r="R3">
+        <v>1.84</v>
+      </c>
+      <c r="S3">
+        <v>1.99</v>
+      </c>
+      <c r="T3">
+        <v>4.2</v>
+      </c>
+      <c r="U3">
+        <v>980</v>
+      </c>
+      <c r="V3">
+        <v>2.46</v>
+      </c>
+      <c r="W3">
+        <v>980</v>
+      </c>
+      <c r="X3">
+        <v>2.44</v>
+      </c>
+      <c r="Y3">
+        <v>980</v>
+      </c>
+      <c r="Z3">
+        <v>2.28</v>
+      </c>
+      <c r="AA3">
+        <v>1000</v>
+      </c>
+      <c r="AB3">
+        <v>3.95</v>
+      </c>
+      <c r="AC3">
+        <v>980</v>
+      </c>
+      <c r="AD3">
+        <v>3.7</v>
+      </c>
+      <c r="AE3">
+        <v>980</v>
+      </c>
+      <c r="AF3">
+        <v>2.22</v>
+      </c>
+      <c r="AG3">
+        <v>980</v>
+      </c>
+      <c r="AH3">
+        <v>2.28</v>
+      </c>
+      <c r="AI3">
+        <v>1000</v>
+      </c>
+      <c r="AJ3">
+        <v>2.56</v>
+      </c>
+      <c r="AK3">
+        <v>980</v>
+      </c>
+      <c r="AL3">
         <v>4.6</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
       <c r="AM3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>138</v>
+        <v>1000</v>
+      </c>
+      <c r="BF3">
+        <v>33166486</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>11162123</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>41860831</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>157</v>
+        <v>1.227143073</v>
+      </c>
+      <c r="BK3">
+        <v>1.227143118</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -1504,196 +1405,196 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F4">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="G4">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="H4">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="L4">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M4">
+        <v>2.42</v>
+      </c>
+      <c r="N4">
+        <v>1.7</v>
+      </c>
+      <c r="O4">
         <v>2.5</v>
       </c>
-      <c r="N4">
-        <v>1.67</v>
-      </c>
-      <c r="O4">
-        <v>1.77</v>
-      </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>139</v>
+        <v>1000</v>
+      </c>
+      <c r="BF4">
+        <v>33171632</v>
       </c>
       <c r="BG4">
-        <v>6390</v>
+        <v>166903</v>
       </c>
       <c r="BH4">
-        <v>139506</v>
+        <v>5664283</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>158</v>
+      <c r="BJ4">
+        <v>1.227239822</v>
+      </c>
+      <c r="BK4">
+        <v>1.227239867</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>1.227239906</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>1.227239831</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1701,196 +1602,196 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1.41</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>1.45</v>
       </c>
       <c r="H5">
-        <v>1.42</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>1.63</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="K5">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="L5">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="N5">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5">
-        <v>33174307</v>
+        <v>33171564</v>
       </c>
       <c r="BG5">
-        <v>20732043</v>
+        <v>6390</v>
       </c>
       <c r="BH5">
-        <v>5112599</v>
+        <v>139506</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5">
-        <v>1.227294947</v>
+        <v>1.227234613</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1.227234658</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1.227234697</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1.227234622</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -1898,190 +1799,190 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F6">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H6">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>1.52</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L6">
-        <v>1.2</v>
+        <v>1.96</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="O6">
-        <v>6.4</v>
+        <v>2.04</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>140</v>
+        <v>1000</v>
+      </c>
+      <c r="BF6">
+        <v>33174307</v>
       </c>
       <c r="BG6">
-        <v>2487031</v>
+        <v>20732043</v>
       </c>
       <c r="BH6">
-        <v>48459989</v>
+        <v>5112599</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>159</v>
+      <c r="BJ6">
+        <v>1.227294947</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2095,984 +1996,984 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F7">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G7">
-        <v>2.58</v>
+        <v>520</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="I7">
-        <v>3.15</v>
+        <v>990</v>
       </c>
       <c r="J7">
+        <v>1.21</v>
+      </c>
+      <c r="K7">
+        <v>950</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>1.06</v>
+      </c>
+      <c r="O7">
+        <v>6.4</v>
+      </c>
+      <c r="P7">
+        <v>1.14</v>
+      </c>
+      <c r="Q7">
+        <v>1000</v>
+      </c>
+      <c r="R7">
+        <v>1.14</v>
+      </c>
+      <c r="S7">
+        <v>9.4</v>
+      </c>
+      <c r="T7">
+        <v>1.47</v>
+      </c>
+      <c r="U7">
+        <v>980</v>
+      </c>
+      <c r="V7">
+        <v>1.1</v>
+      </c>
+      <c r="W7">
+        <v>980</v>
+      </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>1000</v>
+      </c>
+      <c r="Z7">
         <v>3.6</v>
       </c>
-      <c r="K7">
-        <v>3.7</v>
-      </c>
-      <c r="L7">
-        <v>2.14</v>
-      </c>
-      <c r="M7">
-        <v>2.2</v>
-      </c>
-      <c r="N7">
-        <v>1.83</v>
-      </c>
-      <c r="O7">
-        <v>1.87</v>
-      </c>
-      <c r="P7">
-        <v>1.65</v>
-      </c>
-      <c r="Q7">
-        <v>1.87</v>
-      </c>
-      <c r="R7">
-        <v>2.14</v>
-      </c>
-      <c r="S7">
-        <v>2.56</v>
-      </c>
-      <c r="T7">
-        <v>12.5</v>
-      </c>
-      <c r="U7">
-        <v>19.5</v>
-      </c>
-      <c r="V7">
-        <v>11</v>
-      </c>
-      <c r="W7">
-        <v>16.5</v>
-      </c>
-      <c r="X7">
-        <v>17</v>
-      </c>
-      <c r="Y7">
-        <v>26</v>
-      </c>
-      <c r="Z7">
+      <c r="AA7">
+        <v>1000</v>
+      </c>
+      <c r="AB7">
+        <v>1.1</v>
+      </c>
+      <c r="AC7">
+        <v>980</v>
+      </c>
+      <c r="AD7">
+        <v>1.1</v>
+      </c>
+      <c r="AE7">
+        <v>980</v>
+      </c>
+      <c r="AF7">
+        <v>4.4</v>
+      </c>
+      <c r="AG7">
+        <v>980</v>
+      </c>
+      <c r="AH7">
         <v>4.3</v>
       </c>
-      <c r="AA7">
-        <v>980</v>
-      </c>
-      <c r="AB7">
-        <v>9.6</v>
-      </c>
-      <c r="AC7">
-        <v>14.5</v>
-      </c>
-      <c r="AD7">
-        <v>7</v>
-      </c>
-      <c r="AE7">
-        <v>9.4</v>
-      </c>
-      <c r="AF7">
-        <v>11</v>
-      </c>
-      <c r="AG7">
-        <v>16.5</v>
-      </c>
-      <c r="AH7">
-        <v>4.4</v>
-      </c>
       <c r="AI7">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>13.5</v>
+        <v>1.1</v>
       </c>
       <c r="AK7">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL7">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="AM7">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AN7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AO7">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AP7">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="AQ7">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AR7">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="AS7">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AT7">
-        <v>20</v>
+        <v>5.2</v>
       </c>
       <c r="AU7">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AV7">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="AW7">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AX7">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="AY7">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="BB7">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="BD7">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
       <c r="BF7">
-        <v>33111892</v>
+        <v>33178319</v>
       </c>
       <c r="BG7">
-        <v>55243</v>
+        <v>2487031</v>
       </c>
       <c r="BH7">
-        <v>46726</v>
+        <v>48459989</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
       <c r="BJ7">
-        <v>1.226204079</v>
+        <v>1.227373396</v>
       </c>
       <c r="BK7">
-        <v>1.226204063</v>
+        <v>1.227373441</v>
       </c>
       <c r="BL7">
-        <v>1.226204078</v>
+        <v>1.22737348</v>
       </c>
       <c r="BM7">
-        <v>1.226204088</v>
+        <v>1.227373405</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8">
+        <v>2.46</v>
+      </c>
+      <c r="G8">
+        <v>2.54</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3.15</v>
+      </c>
+      <c r="J8">
+        <v>3.6</v>
+      </c>
+      <c r="K8">
+        <v>3.7</v>
+      </c>
+      <c r="L8">
+        <v>2.12</v>
+      </c>
+      <c r="M8">
+        <v>2.18</v>
+      </c>
+      <c r="N8">
+        <v>1.85</v>
+      </c>
+      <c r="O8">
+        <v>1.88</v>
+      </c>
+      <c r="P8">
+        <v>1.64</v>
+      </c>
+      <c r="Q8">
+        <v>1.79</v>
+      </c>
+      <c r="R8">
+        <v>2.28</v>
+      </c>
+      <c r="S8">
+        <v>2.56</v>
+      </c>
+      <c r="T8">
+        <v>13.5</v>
+      </c>
+      <c r="U8">
+        <v>16</v>
+      </c>
+      <c r="V8">
+        <v>12.5</v>
+      </c>
+      <c r="W8">
+        <v>14</v>
+      </c>
+      <c r="X8">
+        <v>19.5</v>
+      </c>
+      <c r="Y8">
+        <v>22</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>10.5</v>
+      </c>
+      <c r="AC8">
+        <v>12</v>
+      </c>
+      <c r="AD8">
+        <v>7.6</v>
+      </c>
+      <c r="AE8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>12</v>
+      </c>
+      <c r="AG8">
+        <v>13</v>
+      </c>
+      <c r="AH8">
+        <v>25</v>
+      </c>
+      <c r="AI8">
+        <v>32</v>
+      </c>
+      <c r="AJ8">
+        <v>15</v>
+      </c>
+      <c r="AK8">
+        <v>16.5</v>
+      </c>
+      <c r="AL8">
+        <v>10.5</v>
+      </c>
+      <c r="AM8">
+        <v>11.5</v>
+      </c>
+      <c r="AN8">
+        <v>15</v>
+      </c>
+      <c r="AO8">
+        <v>17</v>
+      </c>
+      <c r="AP8">
+        <v>36</v>
+      </c>
+      <c r="AQ8">
+        <v>40</v>
+      </c>
+      <c r="AR8">
+        <v>30</v>
+      </c>
+      <c r="AS8">
+        <v>34</v>
+      </c>
+      <c r="AT8">
+        <v>22</v>
+      </c>
+      <c r="AU8">
+        <v>25</v>
+      </c>
+      <c r="AV8">
+        <v>29</v>
+      </c>
+      <c r="AW8">
+        <v>34</v>
+      </c>
+      <c r="AX8">
+        <v>16.5</v>
+      </c>
+      <c r="AY8">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8">
-        <v>4.1</v>
-      </c>
-      <c r="G8">
-        <v>4.3</v>
-      </c>
-      <c r="H8">
-        <v>2.08</v>
-      </c>
-      <c r="I8">
-        <v>2.1</v>
-      </c>
-      <c r="J8">
-        <v>3.45</v>
-      </c>
-      <c r="K8">
-        <v>3.6</v>
-      </c>
-      <c r="L8">
-        <v>1.81</v>
-      </c>
-      <c r="M8">
-        <v>1.9</v>
-      </c>
-      <c r="N8">
-        <v>2.12</v>
-      </c>
-      <c r="O8">
-        <v>2.24</v>
-      </c>
-      <c r="P8">
-        <v>1.89</v>
-      </c>
-      <c r="Q8">
-        <v>2.02</v>
-      </c>
-      <c r="R8">
-        <v>1.98</v>
-      </c>
-      <c r="S8">
-        <v>2.12</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="U8">
-        <v>13.5</v>
-      </c>
-      <c r="V8">
-        <v>7.2</v>
-      </c>
-      <c r="W8">
-        <v>9.6</v>
-      </c>
-      <c r="X8">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y8">
-        <v>13</v>
-      </c>
-      <c r="Z8">
-        <v>19</v>
-      </c>
-      <c r="AA8">
+      <c r="AZ8">
+        <v>15.5</v>
+      </c>
+      <c r="BA8">
+        <v>18</v>
+      </c>
+      <c r="BB8">
+        <v>21</v>
+      </c>
+      <c r="BC8">
         <v>26</v>
       </c>
-      <c r="AB8">
-        <v>11.5</v>
-      </c>
-      <c r="AC8">
-        <v>16</v>
-      </c>
-      <c r="AD8">
-        <v>6.6</v>
-      </c>
-      <c r="AE8">
-        <v>9</v>
-      </c>
-      <c r="AF8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG8">
-        <v>12</v>
-      </c>
-      <c r="AH8">
-        <v>18</v>
-      </c>
-      <c r="AI8">
-        <v>25</v>
-      </c>
-      <c r="AJ8">
-        <v>6</v>
-      </c>
-      <c r="AK8">
-        <v>980</v>
-      </c>
-      <c r="AL8">
-        <v>14</v>
-      </c>
-      <c r="AM8">
+      <c r="BD8">
         <v>19.5</v>
       </c>
-      <c r="AN8">
-        <v>16.5</v>
-      </c>
-      <c r="AO8">
-        <v>22</v>
-      </c>
-      <c r="AP8">
-        <v>6</v>
-      </c>
-      <c r="AQ8">
-        <v>980</v>
-      </c>
-      <c r="AR8">
-        <v>6.4</v>
-      </c>
-      <c r="AS8">
-        <v>980</v>
-      </c>
-      <c r="AT8">
-        <v>6.2</v>
-      </c>
-      <c r="AU8">
-        <v>980</v>
-      </c>
-      <c r="AV8">
-        <v>6.2</v>
-      </c>
-      <c r="AW8">
-        <v>980</v>
-      </c>
-      <c r="AX8">
-        <v>6.4</v>
-      </c>
-      <c r="AY8">
-        <v>980</v>
-      </c>
-      <c r="AZ8">
-        <v>6.2</v>
-      </c>
-      <c r="BA8">
-        <v>980</v>
-      </c>
-      <c r="BB8">
-        <v>4.9</v>
-      </c>
-      <c r="BC8">
-        <v>18</v>
-      </c>
-      <c r="BD8">
-        <v>6.8</v>
-      </c>
       <c r="BE8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF8">
-        <v>33111910</v>
+        <v>33111892</v>
       </c>
       <c r="BG8">
-        <v>52613879</v>
+        <v>55243</v>
       </c>
       <c r="BH8">
-        <v>676467</v>
+        <v>46726</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8">
-        <v>1.226203579</v>
+        <v>1.226204079</v>
       </c>
       <c r="BK8">
-        <v>1.226203563</v>
+        <v>1.226204063</v>
       </c>
       <c r="BL8">
-        <v>1.226203578</v>
+        <v>1.226204078</v>
       </c>
       <c r="BM8">
-        <v>1.226203588</v>
+        <v>1.226204088</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9">
+        <v>4.2</v>
+      </c>
+      <c r="G9">
+        <v>4.5</v>
+      </c>
+      <c r="H9">
+        <v>2.02</v>
+      </c>
+      <c r="I9">
+        <v>2.08</v>
+      </c>
+      <c r="J9">
+        <v>3.5</v>
+      </c>
+      <c r="K9">
+        <v>3.65</v>
+      </c>
+      <c r="L9">
+        <v>1.83</v>
+      </c>
+      <c r="M9">
+        <v>1.9</v>
+      </c>
+      <c r="N9">
+        <v>2.12</v>
+      </c>
+      <c r="O9">
+        <v>2.22</v>
+      </c>
+      <c r="P9">
+        <v>1.89</v>
+      </c>
+      <c r="Q9">
+        <v>2.02</v>
+      </c>
+      <c r="R9">
+        <v>1.99</v>
+      </c>
+      <c r="S9">
+        <v>2.12</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="U9">
+        <v>12.5</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>8.6</v>
+      </c>
+      <c r="X9">
+        <v>11</v>
+      </c>
+      <c r="Y9">
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <v>21</v>
+      </c>
+      <c r="AA9">
+        <v>24</v>
+      </c>
+      <c r="AB9">
+        <v>13</v>
+      </c>
+      <c r="AC9">
+        <v>14.5</v>
+      </c>
+      <c r="AD9">
+        <v>7.4</v>
+      </c>
+      <c r="AE9">
+        <v>7.8</v>
+      </c>
+      <c r="AF9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>11</v>
+      </c>
+      <c r="AH9">
+        <v>20</v>
+      </c>
+      <c r="AI9">
+        <v>23</v>
+      </c>
+      <c r="AJ9">
+        <v>26</v>
+      </c>
+      <c r="AK9">
+        <v>30</v>
+      </c>
+      <c r="AL9">
+        <v>15.5</v>
+      </c>
+      <c r="AM9">
+        <v>17.5</v>
+      </c>
+      <c r="AN9">
+        <v>18.5</v>
+      </c>
+      <c r="AO9">
+        <v>20</v>
+      </c>
+      <c r="AP9">
+        <v>13</v>
+      </c>
+      <c r="AQ9">
+        <v>42</v>
+      </c>
+      <c r="AR9">
+        <v>16</v>
+      </c>
+      <c r="AS9">
+        <v>95</v>
+      </c>
+      <c r="AT9">
+        <v>15</v>
+      </c>
+      <c r="AU9">
+        <v>60</v>
+      </c>
+      <c r="AV9">
+        <v>15</v>
+      </c>
+      <c r="AW9">
+        <v>70</v>
+      </c>
+      <c r="AX9">
+        <v>16.5</v>
+      </c>
+      <c r="AY9">
+        <v>980</v>
+      </c>
+      <c r="AZ9">
+        <v>15</v>
+      </c>
+      <c r="BA9">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>1.04</v>
-      </c>
-      <c r="G9">
-        <v>480</v>
-      </c>
-      <c r="H9">
-        <v>1.05</v>
-      </c>
-      <c r="I9">
-        <v>870</v>
-      </c>
-      <c r="J9">
-        <v>1.2</v>
-      </c>
-      <c r="K9">
-        <v>950</v>
-      </c>
-      <c r="L9">
-        <v>1.58</v>
-      </c>
-      <c r="M9">
-        <v>2.62</v>
-      </c>
-      <c r="N9">
-        <v>1.61</v>
-      </c>
-      <c r="O9">
-        <v>2.7</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
       <c r="BB9">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>141</v>
+        <v>1000</v>
+      </c>
+      <c r="BF9">
+        <v>33111910</v>
       </c>
       <c r="BG9">
-        <v>38208152</v>
+        <v>52613879</v>
       </c>
       <c r="BH9">
-        <v>4768314</v>
+        <v>676467</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>160</v>
+      <c r="BJ9">
+        <v>1.226203579</v>
+      </c>
+      <c r="BK9">
+        <v>1.226203563</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>1.226203578</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>1.226203588</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>2.08</v>
+        <v>9.6</v>
       </c>
       <c r="H10">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="I10">
-        <v>870</v>
+        <v>1.72</v>
       </c>
       <c r="J10">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="K10">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L10">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="M10">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="N10">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="O10">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>142</v>
+        <v>1000</v>
+      </c>
+      <c r="BF10">
+        <v>33177315</v>
       </c>
       <c r="BG10">
-        <v>5174134</v>
+        <v>38208152</v>
       </c>
       <c r="BH10">
-        <v>7023879</v>
+        <v>4768314</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>161</v>
+      <c r="BJ10">
+        <v>1.227352398</v>
+      </c>
+      <c r="BK10">
+        <v>1.227352443</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>1.227352482</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>1.227352407</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F11">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>1.82</v>
       </c>
       <c r="H11">
-        <v>2.76</v>
+        <v>4.9</v>
       </c>
       <c r="I11">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
+        <v>3.6</v>
+      </c>
+      <c r="K11">
+        <v>4.8</v>
+      </c>
+      <c r="L11">
+        <v>1.86</v>
+      </c>
+      <c r="M11">
+        <v>2.18</v>
+      </c>
+      <c r="N11">
+        <v>1.84</v>
+      </c>
+      <c r="O11">
+        <v>2.16</v>
+      </c>
+      <c r="P11">
+        <v>1.91</v>
+      </c>
+      <c r="Q11">
+        <v>2.06</v>
+      </c>
+      <c r="R11">
+        <v>1.94</v>
+      </c>
+      <c r="S11">
+        <v>2.1</v>
+      </c>
+      <c r="T11">
+        <v>10.5</v>
+      </c>
+      <c r="U11">
+        <v>980</v>
+      </c>
+      <c r="V11">
+        <v>5.2</v>
+      </c>
+      <c r="W11">
+        <v>980</v>
+      </c>
+      <c r="X11">
+        <v>5.9</v>
+      </c>
+      <c r="Y11">
+        <v>980</v>
+      </c>
+      <c r="Z11">
+        <v>2.4</v>
+      </c>
+      <c r="AA11">
+        <v>1000</v>
+      </c>
+      <c r="AB11">
+        <v>6.8</v>
+      </c>
+      <c r="AC11">
+        <v>980</v>
+      </c>
+      <c r="AD11">
+        <v>7.6</v>
+      </c>
+      <c r="AE11">
+        <v>980</v>
+      </c>
+      <c r="AF11">
+        <v>5.4</v>
+      </c>
+      <c r="AG11">
+        <v>980</v>
+      </c>
+      <c r="AH11">
+        <v>3</v>
+      </c>
+      <c r="AI11">
+        <v>1000</v>
+      </c>
+      <c r="AJ11">
+        <v>8.4</v>
+      </c>
+      <c r="AK11">
+        <v>980</v>
+      </c>
+      <c r="AL11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>980</v>
+      </c>
+      <c r="AN11">
+        <v>5.4</v>
+      </c>
+      <c r="AO11">
+        <v>980</v>
+      </c>
+      <c r="AP11">
+        <v>2.38</v>
+      </c>
+      <c r="AQ11">
+        <v>1000</v>
+      </c>
+      <c r="AR11">
+        <v>5.4</v>
+      </c>
+      <c r="AS11">
+        <v>980</v>
+      </c>
+      <c r="AT11">
+        <v>5.1</v>
+      </c>
+      <c r="AU11">
+        <v>980</v>
+      </c>
+      <c r="AV11">
+        <v>5.8</v>
+      </c>
+      <c r="AW11">
+        <v>980</v>
+      </c>
+      <c r="AX11">
+        <v>2.44</v>
+      </c>
+      <c r="AY11">
+        <v>1000</v>
+      </c>
+      <c r="AZ11">
+        <v>4.3</v>
+      </c>
+      <c r="BA11">
+        <v>980</v>
+      </c>
+      <c r="BB11">
+        <v>1.68</v>
+      </c>
+      <c r="BC11">
+        <v>1000</v>
+      </c>
+      <c r="BD11">
         <v>3.1</v>
       </c>
-      <c r="K11">
-        <v>7.8</v>
-      </c>
-      <c r="L11">
-        <v>1.2</v>
-      </c>
-      <c r="M11">
-        <v>110</v>
-      </c>
-      <c r="N11">
-        <v>1.03</v>
-      </c>
-      <c r="O11">
-        <v>6.4</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF11">
-        <v>33171651</v>
+        <v>33169767</v>
       </c>
       <c r="BG11">
-        <v>2608900</v>
+        <v>5174134</v>
       </c>
       <c r="BH11">
-        <v>13959120</v>
+        <v>7023879</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11">
-        <v>1.227239912</v>
+        <v>1.227192784</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1.227192829</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>1.227192868</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>1.227192793</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3080,196 +2981,196 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F12">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="G12">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="H12">
+        <v>1.94</v>
+      </c>
+      <c r="I12">
         <v>4.6</v>
       </c>
-      <c r="I12">
-        <v>4.7</v>
-      </c>
       <c r="J12">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K12">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L12">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
       <c r="M12">
-        <v>2.3</v>
+        <v>29</v>
       </c>
       <c r="N12">
-        <v>1.77</v>
+        <v>1.08</v>
       </c>
       <c r="O12">
-        <v>1.87</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="Q12">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="R12">
-        <v>2.22</v>
+        <v>1.14</v>
       </c>
       <c r="S12">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="T12">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="V12">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="W12">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="X12">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z12">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="AA12">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AC12">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AE12">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF12">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="AG12">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH12">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="AI12">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AK12">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="AM12">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AN12">
-        <v>15</v>
+        <v>1.03</v>
       </c>
       <c r="AO12">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AP12">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="AQ12">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AR12">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS12">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="AU12">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AV12">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="AW12">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="AY12">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BA12">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="BB12">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="BC12">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="BE12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF12">
-        <v>33111923</v>
+        <v>33149958</v>
       </c>
       <c r="BG12">
-        <v>48783</v>
+        <v>4317866</v>
       </c>
       <c r="BH12">
-        <v>52457652</v>
+        <v>18571</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12">
-        <v>1.226203339</v>
+        <v>1.226850483</v>
       </c>
       <c r="BK12">
-        <v>1.226203323</v>
+        <v>1.226850528</v>
       </c>
       <c r="BL12">
-        <v>1.226203338</v>
+        <v>0</v>
       </c>
       <c r="BM12">
-        <v>1.226203348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3277,1181 +3178,1181 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F13">
-        <v>1.49</v>
+        <v>1.99</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>2.78</v>
       </c>
       <c r="H13">
-        <v>7.6</v>
+        <v>2.92</v>
       </c>
       <c r="I13">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>2.98</v>
       </c>
       <c r="K13">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="L13">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="M13">
-        <v>2.54</v>
+        <v>26</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="O13">
-        <v>1.72</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>1.87</v>
+        <v>1.14</v>
       </c>
       <c r="Q13">
-        <v>1.96</v>
+        <v>1000</v>
       </c>
       <c r="R13">
-        <v>2.04</v>
+        <v>1.14</v>
       </c>
       <c r="S13">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="T13">
-        <v>18.5</v>
+        <v>1.48</v>
       </c>
       <c r="U13">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="V13">
-        <v>18.5</v>
+        <v>1.1</v>
       </c>
       <c r="W13">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="X13">
-        <v>32</v>
+        <v>1.1</v>
       </c>
       <c r="Y13">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z13">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB13">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="AC13">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="AE13">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AF13">
-        <v>18.5</v>
+        <v>1.1</v>
       </c>
       <c r="AG13">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="AI13">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>8.6</v>
+        <v>1.1</v>
       </c>
       <c r="AK13">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="AM13">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>20</v>
+        <v>1.1</v>
       </c>
       <c r="AO13">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR13">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS13">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AT13">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="AU13">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AV13">
-        <v>26</v>
+        <v>1.1</v>
       </c>
       <c r="AW13">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX13">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AY13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA13">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="BB13">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="BC13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD13">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="BE13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF13">
-        <v>33111920</v>
+        <v>33171651</v>
       </c>
       <c r="BG13">
-        <v>44787</v>
+        <v>2608900</v>
       </c>
       <c r="BH13">
-        <v>48756</v>
+        <v>13959120</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13">
-        <v>1.226203459</v>
+        <v>1.227239912</v>
       </c>
       <c r="BK13">
-        <v>1.226203443</v>
+        <v>0</v>
       </c>
       <c r="BL13">
-        <v>1.226203458</v>
+        <v>0</v>
       </c>
       <c r="BM13">
-        <v>1.226203468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14">
+        <v>1.88</v>
+      </c>
+      <c r="G14">
+        <v>1.89</v>
+      </c>
+      <c r="H14">
+        <v>4.6</v>
+      </c>
+      <c r="I14">
+        <v>4.7</v>
+      </c>
+      <c r="J14">
+        <v>3.9</v>
+      </c>
+      <c r="K14">
+        <v>3.95</v>
+      </c>
+      <c r="L14">
+        <v>2.12</v>
+      </c>
+      <c r="M14">
+        <v>2.3</v>
+      </c>
+      <c r="N14">
+        <v>1.77</v>
+      </c>
+      <c r="O14">
+        <v>1.89</v>
+      </c>
+      <c r="P14">
+        <v>1.75</v>
+      </c>
+      <c r="Q14">
+        <v>1.81</v>
+      </c>
+      <c r="R14">
+        <v>2.24</v>
+      </c>
+      <c r="S14">
+        <v>2.34</v>
+      </c>
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>17</v>
+      </c>
+      <c r="V14">
+        <v>17.5</v>
+      </c>
+      <c r="W14">
+        <v>19</v>
+      </c>
+      <c r="X14">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>36</v>
+      </c>
+      <c r="Z14">
+        <v>38</v>
+      </c>
+      <c r="AA14">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14">
-        <v>1.34</v>
-      </c>
-      <c r="G14">
-        <v>1.36</v>
-      </c>
-      <c r="H14">
+      <c r="AB14">
         <v>9.4</v>
       </c>
-      <c r="I14">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J14">
-        <v>6.2</v>
-      </c>
-      <c r="K14">
-        <v>6.6</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>3.1</v>
-      </c>
-      <c r="N14">
-        <v>1.48</v>
-      </c>
-      <c r="O14">
-        <v>1.5</v>
-      </c>
-      <c r="P14">
-        <v>1.77</v>
-      </c>
-      <c r="Q14">
-        <v>1.84</v>
-      </c>
-      <c r="R14">
-        <v>2.18</v>
-      </c>
-      <c r="S14">
-        <v>2.3</v>
-      </c>
-      <c r="T14">
-        <v>22</v>
-      </c>
-      <c r="U14">
-        <v>40</v>
-      </c>
-      <c r="V14">
-        <v>24</v>
-      </c>
-      <c r="W14">
+      <c r="AC14">
+        <v>10.5</v>
+      </c>
+      <c r="AD14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF14">
+        <v>16.5</v>
+      </c>
+      <c r="AG14">
+        <v>18</v>
+      </c>
+      <c r="AH14">
+        <v>46</v>
+      </c>
+      <c r="AI14">
+        <v>55</v>
+      </c>
+      <c r="AJ14">
+        <v>11</v>
+      </c>
+      <c r="AK14">
+        <v>12</v>
+      </c>
+      <c r="AL14">
+        <v>9.4</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+      <c r="AN14">
+        <v>16.5</v>
+      </c>
+      <c r="AO14">
+        <v>18.5</v>
+      </c>
+      <c r="AP14">
         <v>50</v>
       </c>
-      <c r="X14">
-        <v>36</v>
-      </c>
-      <c r="Y14">
-        <v>120</v>
-      </c>
-      <c r="Z14">
-        <v>9.4</v>
-      </c>
-      <c r="AA14">
-        <v>980</v>
-      </c>
-      <c r="AB14">
+      <c r="AQ14">
+        <v>60</v>
+      </c>
+      <c r="AR14">
+        <v>18.5</v>
+      </c>
+      <c r="AS14">
+        <v>21</v>
+      </c>
+      <c r="AT14">
+        <v>16.5</v>
+      </c>
+      <c r="AU14">
+        <v>18</v>
+      </c>
+      <c r="AV14">
+        <v>28</v>
+      </c>
+      <c r="AW14">
+        <v>30</v>
+      </c>
+      <c r="AX14">
+        <v>70</v>
+      </c>
+      <c r="AY14">
+        <v>90</v>
+      </c>
+      <c r="AZ14">
+        <v>9.6</v>
+      </c>
+      <c r="BA14">
         <v>11</v>
       </c>
-      <c r="AC14">
-        <v>13</v>
-      </c>
-      <c r="AD14">
-        <v>13</v>
-      </c>
-      <c r="AE14">
-        <v>18</v>
-      </c>
-      <c r="AF14">
-        <v>21</v>
-      </c>
-      <c r="AG14">
-        <v>42</v>
-      </c>
-      <c r="AH14">
-        <v>40</v>
-      </c>
-      <c r="AI14">
-        <v>140</v>
-      </c>
-      <c r="AJ14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK14">
-        <v>10.5</v>
-      </c>
-      <c r="AL14">
-        <v>9.6</v>
-      </c>
-      <c r="AM14">
-        <v>10.5</v>
-      </c>
-      <c r="AN14">
-        <v>21</v>
-      </c>
-      <c r="AO14">
-        <v>30</v>
-      </c>
-      <c r="AP14">
-        <v>36</v>
-      </c>
-      <c r="AQ14">
-        <v>110</v>
-      </c>
-      <c r="AR14">
-        <v>11</v>
-      </c>
-      <c r="AS14">
-        <v>12.5</v>
-      </c>
-      <c r="AT14">
-        <v>11.5</v>
-      </c>
-      <c r="AU14">
-        <v>12</v>
-      </c>
-      <c r="AV14">
-        <v>18.5</v>
-      </c>
-      <c r="AW14">
-        <v>34</v>
-      </c>
-      <c r="AX14">
+      <c r="BB14">
         <v>38</v>
       </c>
-      <c r="AY14">
-        <v>130</v>
-      </c>
-      <c r="AZ14">
-        <v>3.85</v>
-      </c>
-      <c r="BA14">
-        <v>4.3</v>
-      </c>
-      <c r="BB14">
-        <v>40</v>
-      </c>
       <c r="BC14">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="BD14">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="BE14">
         <v>980</v>
       </c>
       <c r="BF14">
-        <v>33111902</v>
+        <v>33111923</v>
       </c>
       <c r="BG14">
-        <v>56323</v>
+        <v>48783</v>
       </c>
       <c r="BH14">
-        <v>215817</v>
+        <v>52457652</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14">
-        <v>1.226203699</v>
+        <v>1.226203339</v>
       </c>
       <c r="BK14">
-        <v>1.226203683</v>
+        <v>1.226203323</v>
       </c>
       <c r="BL14">
-        <v>1.226203698</v>
+        <v>1.226203338</v>
       </c>
       <c r="BM14">
-        <v>1.226203708</v>
+        <v>1.226203348</v>
       </c>
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F15">
-        <v>1.86</v>
+        <v>1.46</v>
       </c>
       <c r="G15">
+        <v>1.47</v>
+      </c>
+      <c r="H15">
+        <v>7.8</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>5.1</v>
+      </c>
+      <c r="K15">
+        <v>5.3</v>
+      </c>
+      <c r="L15">
+        <v>2.38</v>
+      </c>
+      <c r="M15">
+        <v>2.52</v>
+      </c>
+      <c r="N15">
+        <v>1.66</v>
+      </c>
+      <c r="O15">
+        <v>1.72</v>
+      </c>
+      <c r="P15">
         <v>1.87</v>
       </c>
-      <c r="H15">
-        <v>5.1</v>
-      </c>
-      <c r="I15">
-        <v>5.2</v>
-      </c>
-      <c r="J15">
-        <v>3.65</v>
-      </c>
-      <c r="K15">
-        <v>3.7</v>
-      </c>
-      <c r="L15">
-        <v>1.78</v>
-      </c>
-      <c r="M15">
-        <v>1.8</v>
-      </c>
-      <c r="N15">
-        <v>2.26</v>
-      </c>
-      <c r="O15">
-        <v>2.3</v>
-      </c>
-      <c r="P15">
-        <v>2.02</v>
-      </c>
       <c r="Q15">
+        <v>1.93</v>
+      </c>
+      <c r="R15">
+        <v>2.08</v>
+      </c>
+      <c r="S15">
         <v>2.16</v>
       </c>
-      <c r="R15">
-        <v>1.87</v>
-      </c>
-      <c r="S15">
-        <v>1.97</v>
-      </c>
       <c r="T15">
+        <v>18.5</v>
+      </c>
+      <c r="U15">
+        <v>21</v>
+      </c>
+      <c r="V15">
+        <v>27</v>
+      </c>
+      <c r="W15">
+        <v>32</v>
+      </c>
+      <c r="X15">
+        <v>60</v>
+      </c>
+      <c r="Y15">
+        <v>70</v>
+      </c>
+      <c r="Z15">
+        <v>48</v>
+      </c>
+      <c r="AA15">
+        <v>250</v>
+      </c>
+      <c r="AB15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC15">
         <v>10</v>
       </c>
-      <c r="U15">
-        <v>13</v>
-      </c>
-      <c r="V15">
-        <v>13</v>
-      </c>
-      <c r="W15">
-        <v>16.5</v>
-      </c>
-      <c r="X15">
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>11.5</v>
+      </c>
+      <c r="AF15">
+        <v>26</v>
+      </c>
+      <c r="AG15">
+        <v>29</v>
+      </c>
+      <c r="AH15">
+        <v>38</v>
+      </c>
+      <c r="AI15">
+        <v>980</v>
+      </c>
+      <c r="AJ15">
+        <v>8.6</v>
+      </c>
+      <c r="AK15">
+        <v>9.4</v>
+      </c>
+      <c r="AL15">
+        <v>9.4</v>
+      </c>
+      <c r="AM15">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AN15">
         <v>21</v>
       </c>
-      <c r="Y15">
-        <v>40</v>
-      </c>
-      <c r="Z15">
-        <v>40</v>
-      </c>
-      <c r="AA15">
-        <v>980</v>
-      </c>
-      <c r="AB15">
-        <v>6.8</v>
-      </c>
-      <c r="AC15">
-        <v>7.8</v>
-      </c>
-      <c r="AD15">
-        <v>7.4</v>
-      </c>
-      <c r="AE15">
-        <v>8.4</v>
-      </c>
-      <c r="AF15">
-        <v>18</v>
-      </c>
-      <c r="AG15">
+      <c r="AO15">
         <v>23</v>
-      </c>
-      <c r="AH15">
-        <v>34</v>
-      </c>
-      <c r="AI15">
-        <v>85</v>
-      </c>
-      <c r="AJ15">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK15">
-        <v>10.5</v>
-      </c>
-      <c r="AL15">
-        <v>9.6</v>
-      </c>
-      <c r="AM15">
-        <v>11</v>
-      </c>
-      <c r="AN15">
-        <v>20</v>
-      </c>
-      <c r="AO15">
-        <v>25</v>
       </c>
       <c r="AP15">
         <v>36</v>
       </c>
       <c r="AQ15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AR15">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AS15">
+        <v>13</v>
+      </c>
+      <c r="AT15">
+        <v>13</v>
+      </c>
+      <c r="AU15">
+        <v>14</v>
+      </c>
+      <c r="AV15">
+        <v>27</v>
+      </c>
+      <c r="AW15">
+        <v>30</v>
+      </c>
+      <c r="AX15">
+        <v>40</v>
+      </c>
+      <c r="AY15">
+        <v>120</v>
+      </c>
+      <c r="AZ15">
+        <v>5.7</v>
+      </c>
+      <c r="BA15">
+        <v>6.2</v>
+      </c>
+      <c r="BB15">
+        <v>40</v>
+      </c>
+      <c r="BC15">
+        <v>120</v>
+      </c>
+      <c r="BD15">
         <v>23</v>
       </c>
-      <c r="AT15">
-        <v>19</v>
-      </c>
-      <c r="AU15">
-        <v>24</v>
-      </c>
-      <c r="AV15">
-        <v>26</v>
-      </c>
-      <c r="AW15">
-        <v>50</v>
-      </c>
-      <c r="AX15">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AY15">
-        <v>980</v>
-      </c>
-      <c r="AZ15">
-        <v>6.4</v>
-      </c>
-      <c r="BA15">
-        <v>17</v>
-      </c>
-      <c r="BB15">
-        <v>10</v>
-      </c>
-      <c r="BC15">
-        <v>980</v>
-      </c>
-      <c r="BD15">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BE15">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="BF15">
-        <v>33111898</v>
+        <v>33111920</v>
       </c>
       <c r="BG15">
-        <v>127991</v>
+        <v>44787</v>
       </c>
       <c r="BH15">
-        <v>56967</v>
+        <v>48756</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15">
-        <v>1.226203939</v>
+        <v>1.226203459</v>
       </c>
       <c r="BK15">
-        <v>1.226203923</v>
+        <v>1.226203443</v>
       </c>
       <c r="BL15">
-        <v>1.226203938</v>
+        <v>1.226203458</v>
       </c>
       <c r="BM15">
-        <v>1.226203948</v>
+        <v>1.226203468</v>
       </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16">
+        <v>1.34</v>
+      </c>
+      <c r="G16">
+        <v>1.35</v>
+      </c>
+      <c r="H16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I16">
+        <v>10.5</v>
+      </c>
+      <c r="J16">
+        <v>6.4</v>
+      </c>
+      <c r="K16">
+        <v>6.6</v>
+      </c>
+      <c r="L16">
+        <v>3.05</v>
+      </c>
+      <c r="M16">
+        <v>3.15</v>
+      </c>
+      <c r="N16">
+        <v>1.46</v>
+      </c>
+      <c r="O16">
+        <v>1.48</v>
+      </c>
+      <c r="P16">
+        <v>1.79</v>
+      </c>
+      <c r="Q16">
+        <v>1.85</v>
+      </c>
+      <c r="R16">
+        <v>2.18</v>
+      </c>
+      <c r="S16">
+        <v>2.28</v>
+      </c>
+      <c r="T16">
+        <v>29</v>
+      </c>
+      <c r="U16">
+        <v>34</v>
+      </c>
+      <c r="V16">
+        <v>36</v>
+      </c>
+      <c r="W16">
+        <v>44</v>
+      </c>
+      <c r="X16">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>1.74</v>
-      </c>
-      <c r="G16">
-        <v>1.78</v>
-      </c>
-      <c r="H16">
-        <v>5.4</v>
-      </c>
-      <c r="I16">
-        <v>5.8</v>
-      </c>
-      <c r="J16">
-        <v>3.95</v>
-      </c>
-      <c r="K16">
-        <v>4.1</v>
-      </c>
-      <c r="L16">
-        <v>2.14</v>
-      </c>
-      <c r="M16">
-        <v>2.3</v>
-      </c>
-      <c r="N16">
-        <v>1.77</v>
-      </c>
-      <c r="O16">
-        <v>1.87</v>
-      </c>
-      <c r="P16">
-        <v>1.87</v>
-      </c>
-      <c r="Q16">
-        <v>1.99</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>2.16</v>
-      </c>
-      <c r="T16">
-        <v>11.5</v>
-      </c>
-      <c r="U16">
-        <v>19</v>
-      </c>
-      <c r="V16">
-        <v>15</v>
-      </c>
-      <c r="W16">
-        <v>25</v>
-      </c>
-      <c r="X16">
-        <v>4.4</v>
-      </c>
       <c r="Y16">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="Z16">
-        <v>4.7</v>
+        <v>55</v>
       </c>
       <c r="AA16">
-        <v>980</v>
+        <v>350</v>
       </c>
       <c r="AB16">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AC16">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD16">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AE16">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF16">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AG16">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AH16">
-        <v>4.6</v>
+        <v>40</v>
       </c>
       <c r="AI16">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ16">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK16">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AL16">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM16">
         <v>10.5</v>
       </c>
       <c r="AN16">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AO16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP16">
-        <v>4.6</v>
+        <v>36</v>
       </c>
       <c r="AQ16">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AR16">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AS16">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AT16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU16">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AV16">
-        <v>4.4</v>
+        <v>24</v>
       </c>
       <c r="AW16">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AX16">
-        <v>4.7</v>
+        <v>38</v>
       </c>
       <c r="AY16">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AZ16">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="BA16">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="BB16">
-        <v>4.6</v>
+        <v>40</v>
       </c>
       <c r="BC16">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD16">
-        <v>4.9</v>
+        <v>26</v>
       </c>
       <c r="BE16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF16">
-        <v>33111891</v>
+        <v>33111902</v>
       </c>
       <c r="BG16">
-        <v>10762</v>
+        <v>56323</v>
       </c>
       <c r="BH16">
-        <v>232095</v>
+        <v>215817</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16">
-        <v>1.226204199</v>
+        <v>1.226203699</v>
       </c>
       <c r="BK16">
-        <v>1.226204183</v>
+        <v>1.226203683</v>
       </c>
       <c r="BL16">
-        <v>1.226204198</v>
+        <v>1.226203698</v>
       </c>
       <c r="BM16">
-        <v>1.226204208</v>
+        <v>1.226203708</v>
       </c>
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F17">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="G17">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="H17">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I17">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J17">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K17">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="M17">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="N17">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="O17">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="P17">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q17">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U17">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="V17">
-        <v>4.9</v>
+        <v>16.5</v>
       </c>
       <c r="W17">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="X17">
-        <v>5.4</v>
+        <v>32</v>
       </c>
       <c r="Y17">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Z17">
-        <v>5.7</v>
+        <v>15.5</v>
       </c>
       <c r="AA17">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB17">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC17">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE17">
+        <v>9</v>
+      </c>
+      <c r="AF17">
+        <v>18.5</v>
+      </c>
+      <c r="AG17">
+        <v>20</v>
+      </c>
+      <c r="AH17">
+        <v>14</v>
+      </c>
+      <c r="AI17">
+        <v>65</v>
+      </c>
+      <c r="AJ17">
         <v>9.800000000000001</v>
       </c>
-      <c r="AF17">
-        <v>5.1</v>
-      </c>
-      <c r="AG17">
-        <v>27</v>
-      </c>
-      <c r="AH17">
-        <v>5.5</v>
-      </c>
-      <c r="AI17">
-        <v>980</v>
-      </c>
-      <c r="AJ17">
-        <v>4.5</v>
-      </c>
       <c r="AK17">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AL17">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM17">
         <v>10</v>
       </c>
       <c r="AN17">
-        <v>4.8</v>
+        <v>17.5</v>
       </c>
       <c r="AO17">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AP17">
-        <v>5.6</v>
+        <v>13.5</v>
       </c>
       <c r="AQ17">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AR17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AS17">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AT17">
-        <v>4.7</v>
+        <v>16.5</v>
       </c>
       <c r="AU17">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AV17">
-        <v>5.9</v>
+        <v>30</v>
       </c>
       <c r="AW17">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AX17">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="AY17">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AZ17">
-        <v>3.85</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA17">
         <v>11</v>
       </c>
       <c r="BB17">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="BC17">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="BD17">
-        <v>5.9</v>
+        <v>16.5</v>
       </c>
       <c r="BE17">
         <v>1000</v>
       </c>
       <c r="BF17">
-        <v>33111899</v>
+        <v>33111891</v>
       </c>
       <c r="BG17">
-        <v>63908</v>
+        <v>10762</v>
       </c>
       <c r="BH17">
-        <v>44790</v>
+        <v>232095</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17">
-        <v>1.226203819</v>
+        <v>1.226204199</v>
       </c>
       <c r="BK17">
-        <v>1.226203803</v>
+        <v>1.226204183</v>
       </c>
       <c r="BL17">
-        <v>1.226203818</v>
+        <v>1.226204198</v>
       </c>
       <c r="BM17">
-        <v>1.226203828</v>
+        <v>1.226204208</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18">
+        <v>1.66</v>
+      </c>
+      <c r="G18">
+        <v>1.68</v>
+      </c>
+      <c r="H18">
+        <v>5.7</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>4.3</v>
+      </c>
+      <c r="K18">
+        <v>4.4</v>
+      </c>
+      <c r="L18">
+        <v>2.2</v>
+      </c>
+      <c r="M18">
+        <v>2.26</v>
+      </c>
+      <c r="N18">
+        <v>1.79</v>
+      </c>
+      <c r="O18">
+        <v>1.82</v>
+      </c>
+      <c r="P18">
+        <v>1.84</v>
+      </c>
+      <c r="Q18">
+        <v>1.93</v>
+      </c>
+      <c r="R18">
+        <v>2.08</v>
+      </c>
+      <c r="S18">
+        <v>2.18</v>
+      </c>
+      <c r="T18">
+        <v>15.5</v>
+      </c>
+      <c r="U18">
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <v>19</v>
+      </c>
+      <c r="W18">
+        <v>21</v>
+      </c>
+      <c r="X18">
+        <v>40</v>
+      </c>
+      <c r="Y18">
+        <v>46</v>
+      </c>
+      <c r="Z18">
+        <v>6.2</v>
+      </c>
+      <c r="AA18">
+        <v>160</v>
+      </c>
+      <c r="AB18">
+        <v>8.6</v>
+      </c>
+      <c r="AC18">
+        <v>9.4</v>
+      </c>
+      <c r="AD18">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE18">
+        <v>9.6</v>
+      </c>
+      <c r="AF18">
+        <v>20</v>
+      </c>
+      <c r="AG18">
+        <v>22</v>
+      </c>
+      <c r="AH18">
+        <v>17.5</v>
+      </c>
+      <c r="AI18">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18">
-        <v>1.58</v>
-      </c>
-      <c r="G18">
-        <v>1.66</v>
-      </c>
-      <c r="H18">
-        <v>5.4</v>
-      </c>
-      <c r="I18">
-        <v>6.6</v>
-      </c>
-      <c r="J18">
-        <v>4.4</v>
-      </c>
-      <c r="K18">
-        <v>5.4</v>
-      </c>
-      <c r="L18">
-        <v>2.26</v>
-      </c>
-      <c r="M18">
-        <v>2.48</v>
-      </c>
-      <c r="N18">
-        <v>1.68</v>
-      </c>
-      <c r="O18">
-        <v>1.8</v>
-      </c>
-      <c r="P18">
-        <v>1.76</v>
-      </c>
-      <c r="Q18">
-        <v>1.9</v>
-      </c>
-      <c r="R18">
-        <v>2.1</v>
-      </c>
-      <c r="S18">
-        <v>2.3</v>
-      </c>
-      <c r="T18">
-        <v>14</v>
-      </c>
-      <c r="U18">
-        <v>980</v>
-      </c>
-      <c r="V18">
-        <v>4.1</v>
-      </c>
-      <c r="W18">
-        <v>980</v>
-      </c>
-      <c r="X18">
-        <v>4.4</v>
-      </c>
-      <c r="Y18">
-        <v>980</v>
-      </c>
-      <c r="Z18">
-        <v>4.6</v>
-      </c>
-      <c r="AA18">
-        <v>980</v>
-      </c>
-      <c r="AB18">
-        <v>3.45</v>
-      </c>
-      <c r="AC18">
-        <v>12.5</v>
-      </c>
-      <c r="AD18">
-        <v>3.45</v>
-      </c>
-      <c r="AE18">
-        <v>12.5</v>
-      </c>
-      <c r="AF18">
-        <v>4</v>
-      </c>
-      <c r="AG18">
-        <v>980</v>
-      </c>
-      <c r="AH18">
-        <v>4.5</v>
-      </c>
-      <c r="AI18">
-        <v>980</v>
-      </c>
       <c r="AJ18">
-        <v>3.45</v>
+        <v>9.4</v>
       </c>
       <c r="AK18">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AL18">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM18">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN18">
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="AO18">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AP18">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ18">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AR18">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="AS18">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AT18">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="AU18">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AV18">
-        <v>4.2</v>
+        <v>29</v>
       </c>
       <c r="AW18">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AX18">
-        <v>4.6</v>
+        <v>17.5</v>
       </c>
       <c r="AY18">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AZ18">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="BA18">
         <v>9</v>
       </c>
       <c r="BB18">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="BC18">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="BD18">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="BE18">
         <v>1000</v>
       </c>
       <c r="BF18">
-        <v>33167034</v>
+        <v>33111899</v>
       </c>
       <c r="BG18">
-        <v>329419</v>
+        <v>63908</v>
       </c>
       <c r="BH18">
-        <v>900849</v>
+        <v>44790</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18">
-        <v>1.227153256</v>
+        <v>1.226203819</v>
       </c>
       <c r="BK18">
-        <v>1.227153266</v>
+        <v>1.226203803</v>
       </c>
       <c r="BL18">
-        <v>1.227153255</v>
+        <v>1.226203818</v>
       </c>
       <c r="BM18">
-        <v>1.227153265</v>
+        <v>1.226203828</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4459,196 +4360,196 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F19">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="G19">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="H19">
         <v>5.2</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J19">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K19">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L19">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="M19">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="O19">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="P19">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="Q19">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S19">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="U19">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="V19">
-        <v>6.2</v>
+        <v>15.5</v>
       </c>
       <c r="W19">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="X19">
+        <v>34</v>
+      </c>
+      <c r="Y19">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>40</v>
+      </c>
+      <c r="AA19">
+        <v>130</v>
+      </c>
+      <c r="AB19">
         <v>7.2</v>
       </c>
-      <c r="Y19">
-        <v>980</v>
-      </c>
-      <c r="Z19">
-        <v>2.38</v>
-      </c>
-      <c r="AA19">
-        <v>980</v>
-      </c>
-      <c r="AB19">
-        <v>4.5</v>
-      </c>
       <c r="AC19">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD19">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AE19">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF19">
-        <v>6.2</v>
+        <v>18.5</v>
       </c>
       <c r="AG19">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH19">
-        <v>2.96</v>
+        <v>65</v>
       </c>
       <c r="AI19">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ19">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="AK19">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL19">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM19">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AN19">
-        <v>6.2</v>
+        <v>21</v>
       </c>
       <c r="AO19">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP19">
-        <v>2.98</v>
+        <v>36</v>
       </c>
       <c r="AQ19">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AR19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AS19">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AT19">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="AU19">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AV19">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AW19">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AX19">
-        <v>2.36</v>
+        <v>44</v>
       </c>
       <c r="AY19">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AZ19">
-        <v>4.8</v>
+        <v>14</v>
       </c>
       <c r="BA19">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="BB19">
-        <v>2.34</v>
+        <v>38</v>
       </c>
       <c r="BC19">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD19">
-        <v>2.42</v>
+        <v>26</v>
       </c>
       <c r="BE19">
         <v>1000</v>
       </c>
       <c r="BF19">
-        <v>33167025</v>
+        <v>33111898</v>
       </c>
       <c r="BG19">
-        <v>474678</v>
+        <v>127991</v>
       </c>
       <c r="BH19">
-        <v>198128</v>
+        <v>56967</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19">
-        <v>1.227153736</v>
+        <v>1.226203939</v>
       </c>
       <c r="BK19">
-        <v>1.227153746</v>
+        <v>1.226203923</v>
       </c>
       <c r="BL19">
-        <v>1.227153735</v>
+        <v>1.226203938</v>
       </c>
       <c r="BM19">
-        <v>1.227153745</v>
+        <v>1.226203948</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4656,196 +4557,196 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F20">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="G20">
+        <v>1.67</v>
+      </c>
+      <c r="H20">
+        <v>5.6</v>
+      </c>
+      <c r="I20">
         <v>6.8</v>
       </c>
-      <c r="H20">
-        <v>1.76</v>
-      </c>
-      <c r="I20">
-        <v>2.58</v>
-      </c>
       <c r="J20">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="K20">
         <v>4.7</v>
       </c>
       <c r="L20">
-        <v>1.27</v>
+        <v>2.16</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>2.32</v>
       </c>
       <c r="N20">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="O20">
-        <v>4.6</v>
+        <v>1.87</v>
       </c>
       <c r="P20">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="Q20">
-        <v>8.199999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="R20">
-        <v>1.15</v>
+        <v>2.08</v>
       </c>
       <c r="S20">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="T20">
-        <v>1.49</v>
+        <v>14.5</v>
       </c>
       <c r="U20">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="V20">
-        <v>2.82</v>
+        <v>17</v>
       </c>
       <c r="W20">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="X20">
-        <v>2.28</v>
+        <v>4.9</v>
       </c>
       <c r="Y20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z20">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="AA20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20">
-        <v>1.03</v>
+        <v>8.4</v>
       </c>
       <c r="AC20">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD20">
-        <v>1.03</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE20">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AF20">
-        <v>3.45</v>
+        <v>16</v>
       </c>
       <c r="AG20">
         <v>980</v>
       </c>
       <c r="AH20">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AI20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ20">
-        <v>1.03</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK20">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AL20">
-        <v>1.03</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM20">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AN20">
-        <v>1.03</v>
+        <v>15</v>
       </c>
       <c r="AO20">
         <v>980</v>
       </c>
       <c r="AP20">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AQ20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR20">
-        <v>1.03</v>
+        <v>14</v>
       </c>
       <c r="AS20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT20">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AU20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV20">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="AW20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX20">
-        <v>1.03</v>
+        <v>5.1</v>
       </c>
       <c r="AY20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ20">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="BA20">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB20">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BC20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD20">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20">
-        <v>33174680</v>
+        <v>33167034</v>
       </c>
       <c r="BG20">
-        <v>8761113</v>
+        <v>329419</v>
       </c>
       <c r="BH20">
-        <v>5327095</v>
+        <v>900849</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20">
-        <v>1.227305774</v>
+        <v>1.227153256</v>
       </c>
       <c r="BK20">
-        <v>1.227305784</v>
+        <v>1.227153266</v>
       </c>
       <c r="BL20">
-        <v>1.227305773</v>
+        <v>1.227153255</v>
       </c>
       <c r="BM20">
-        <v>1.227305783</v>
+        <v>1.227153265</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -4853,676 +4754,676 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F21">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
       <c r="G21">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="H21">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="I21">
-        <v>24</v>
+        <v>5.7</v>
       </c>
       <c r="J21">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="K21">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>2.22</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="O21">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="P21">
-        <v>1.15</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>8.199999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="R21">
-        <v>1.16</v>
+        <v>2.04</v>
       </c>
       <c r="S21">
+        <v>2.18</v>
+      </c>
+      <c r="T21">
+        <v>13.5</v>
+      </c>
+      <c r="U21">
+        <v>16.5</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>21</v>
+      </c>
+      <c r="X21">
+        <v>7</v>
+      </c>
+      <c r="Y21">
+        <v>44</v>
+      </c>
+      <c r="Z21">
+        <v>8</v>
+      </c>
+      <c r="AA21">
+        <v>980</v>
+      </c>
+      <c r="AB21">
         <v>7.8</v>
       </c>
-      <c r="T21">
-        <v>1.49</v>
-      </c>
-      <c r="U21">
-        <v>1000</v>
-      </c>
-      <c r="V21">
-        <v>2.34</v>
-      </c>
-      <c r="W21">
-        <v>1000</v>
-      </c>
-      <c r="X21">
-        <v>1.01</v>
-      </c>
-      <c r="Y21">
-        <v>1000</v>
-      </c>
-      <c r="Z21">
-        <v>1.01</v>
-      </c>
-      <c r="AA21">
-        <v>1000</v>
-      </c>
-      <c r="AB21">
-        <v>1.01</v>
-      </c>
       <c r="AC21">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21">
-        <v>3.35</v>
+        <v>8</v>
       </c>
       <c r="AE21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF21">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="AG21">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH21">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AI21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ21">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AK21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN21">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AO21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP21">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AQ21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR21">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AS21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT21">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="AU21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV21">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="AW21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX21">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AY21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ21">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BA21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB21">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BC21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD21">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21">
-        <v>33174670</v>
+        <v>33167025</v>
       </c>
       <c r="BG21">
-        <v>194513</v>
+        <v>474678</v>
       </c>
       <c r="BH21">
-        <v>12104874</v>
+        <v>198128</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21">
-        <v>1.227305882</v>
+        <v>1.227153736</v>
       </c>
       <c r="BK21">
-        <v>1.227305892</v>
+        <v>1.227153746</v>
       </c>
       <c r="BL21">
-        <v>1.227305881</v>
+        <v>1.227153735</v>
       </c>
       <c r="BM21">
-        <v>1.227305891</v>
+        <v>1.227153745</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F22">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="G22">
-        <v>1.49</v>
+        <v>5.3</v>
       </c>
       <c r="H22">
-        <v>7.2</v>
+        <v>1.85</v>
       </c>
       <c r="I22">
+        <v>2.16</v>
+      </c>
+      <c r="J22">
+        <v>3.3</v>
+      </c>
+      <c r="K22">
+        <v>3.95</v>
+      </c>
+      <c r="L22">
+        <v>1.72</v>
+      </c>
+      <c r="M22">
+        <v>1.88</v>
+      </c>
+      <c r="N22">
+        <v>2.14</v>
+      </c>
+      <c r="O22">
+        <v>2.4</v>
+      </c>
+      <c r="P22">
+        <v>1.95</v>
+      </c>
+      <c r="Q22">
+        <v>2.22</v>
+      </c>
+      <c r="R22">
+        <v>1.83</v>
+      </c>
+      <c r="S22">
+        <v>2.06</v>
+      </c>
+      <c r="T22">
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <v>980</v>
+      </c>
+      <c r="V22">
+        <v>6.4</v>
+      </c>
+      <c r="W22">
+        <v>8.6</v>
+      </c>
+      <c r="X22">
+        <v>9</v>
+      </c>
+      <c r="Y22">
+        <v>980</v>
+      </c>
+      <c r="Z22">
+        <v>18.5</v>
+      </c>
+      <c r="AA22">
+        <v>1000</v>
+      </c>
+      <c r="AB22">
+        <v>11.5</v>
+      </c>
+      <c r="AC22">
+        <v>980</v>
+      </c>
+      <c r="AD22">
+        <v>6.6</v>
+      </c>
+      <c r="AE22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG22">
+        <v>980</v>
+      </c>
+      <c r="AH22">
         <v>19</v>
       </c>
-      <c r="J22">
-        <v>4.4</v>
-      </c>
-      <c r="K22">
-        <v>6.2</v>
-      </c>
-      <c r="L22">
-        <v>1.89</v>
-      </c>
-      <c r="M22">
-        <v>2.18</v>
-      </c>
-      <c r="N22">
-        <v>1.84</v>
-      </c>
-      <c r="O22">
-        <v>2.14</v>
-      </c>
-      <c r="P22">
-        <v>2.12</v>
-      </c>
-      <c r="Q22">
-        <v>2.54</v>
-      </c>
-      <c r="R22">
-        <v>1.64</v>
-      </c>
-      <c r="S22">
-        <v>1.9</v>
-      </c>
-      <c r="T22">
-        <v>1.1</v>
-      </c>
-      <c r="U22">
-        <v>980</v>
-      </c>
-      <c r="V22">
-        <v>1.1</v>
-      </c>
-      <c r="W22">
-        <v>980</v>
-      </c>
-      <c r="X22">
-        <v>1.1</v>
-      </c>
-      <c r="Y22">
-        <v>1000</v>
-      </c>
-      <c r="Z22">
-        <v>4.4</v>
-      </c>
-      <c r="AA22">
-        <v>1000</v>
-      </c>
-      <c r="AB22">
-        <v>1.1</v>
-      </c>
-      <c r="AC22">
-        <v>980</v>
-      </c>
-      <c r="AD22">
-        <v>1.1</v>
-      </c>
-      <c r="AE22">
-        <v>980</v>
-      </c>
-      <c r="AF22">
-        <v>1.1</v>
-      </c>
-      <c r="AG22">
-        <v>980</v>
-      </c>
-      <c r="AH22">
-        <v>5</v>
-      </c>
       <c r="AI22">
         <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>1.1</v>
+        <v>23</v>
       </c>
       <c r="AK22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22">
-        <v>1.1</v>
+        <v>15.5</v>
       </c>
       <c r="AM22">
         <v>980</v>
       </c>
       <c r="AN22">
-        <v>1.1</v>
+        <v>16</v>
       </c>
       <c r="AO22">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AP22">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="AQ22">
         <v>1000</v>
       </c>
       <c r="AR22">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT22">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="AU22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV22">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="AW22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX22">
-        <v>18.5</v>
+        <v>1.43</v>
       </c>
       <c r="AY22">
         <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="BA22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB22">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="BC22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD22">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>143</v>
+      <c r="BF22">
+        <v>33174680</v>
       </c>
       <c r="BG22">
-        <v>194515</v>
+        <v>8761113</v>
       </c>
       <c r="BH22">
-        <v>504780</v>
+        <v>5327095</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>172</v>
+      <c r="BJ22">
+        <v>1.227305774</v>
+      </c>
+      <c r="BK22">
+        <v>1.227305784</v>
+      </c>
+      <c r="BL22">
+        <v>1.227305773</v>
+      </c>
+      <c r="BM22">
+        <v>1.227305783</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F23">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="G23">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="H23">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J23">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="L23">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="M23">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="N23">
+        <v>1.74</v>
+      </c>
+      <c r="O23">
+        <v>1.92</v>
+      </c>
+      <c r="P23">
+        <v>2.56</v>
+      </c>
+      <c r="Q23">
+        <v>2.8</v>
+      </c>
+      <c r="R23">
+        <v>1.56</v>
+      </c>
+      <c r="S23">
+        <v>1.64</v>
+      </c>
+      <c r="T23">
+        <v>13.5</v>
+      </c>
+      <c r="U23">
+        <v>980</v>
+      </c>
+      <c r="V23">
+        <v>1.69</v>
+      </c>
+      <c r="W23">
+        <v>50</v>
+      </c>
+      <c r="X23">
+        <v>1.73</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>1.75</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>6</v>
+      </c>
+      <c r="AC23">
+        <v>7.6</v>
+      </c>
+      <c r="AD23">
+        <v>5.2</v>
+      </c>
+      <c r="AE23">
+        <v>980</v>
+      </c>
+      <c r="AF23">
+        <v>1.72</v>
+      </c>
+      <c r="AG23">
+        <v>980</v>
+      </c>
+      <c r="AH23">
+        <v>1.74</v>
+      </c>
+      <c r="AI23">
+        <v>980</v>
+      </c>
+      <c r="AJ23">
+        <v>5.5</v>
+      </c>
+      <c r="AK23">
+        <v>980</v>
+      </c>
+      <c r="AL23">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM23">
+        <v>980</v>
+      </c>
+      <c r="AN23">
         <v>1.71</v>
       </c>
-      <c r="O23">
-        <v>1.94</v>
-      </c>
-      <c r="P23">
-        <v>2.7</v>
-      </c>
-      <c r="Q23">
-        <v>3.35</v>
-      </c>
-      <c r="R23">
-        <v>1.43</v>
-      </c>
-      <c r="S23">
-        <v>1.59</v>
-      </c>
-      <c r="T23">
-        <v>4.5</v>
-      </c>
-      <c r="U23">
-        <v>980</v>
-      </c>
-      <c r="V23">
-        <v>5.1</v>
-      </c>
-      <c r="W23">
-        <v>980</v>
-      </c>
-      <c r="X23">
-        <v>5.4</v>
-      </c>
-      <c r="Y23">
-        <v>1000</v>
-      </c>
-      <c r="Z23">
-        <v>5.4</v>
-      </c>
-      <c r="AA23">
-        <v>1000</v>
-      </c>
-      <c r="AB23">
-        <v>6.2</v>
-      </c>
-      <c r="AC23">
-        <v>980</v>
-      </c>
-      <c r="AD23">
-        <v>4.4</v>
-      </c>
-      <c r="AE23">
-        <v>980</v>
-      </c>
-      <c r="AF23">
+      <c r="AO23">
+        <v>980</v>
+      </c>
+      <c r="AP23">
+        <v>1.74</v>
+      </c>
+      <c r="AQ23">
+        <v>980</v>
+      </c>
+      <c r="AR23">
+        <v>7.2</v>
+      </c>
+      <c r="AS23">
+        <v>980</v>
+      </c>
+      <c r="AT23">
         <v>5.3</v>
       </c>
-      <c r="AG23">
-        <v>980</v>
-      </c>
-      <c r="AH23">
-        <v>5.4</v>
-      </c>
-      <c r="AI23">
-        <v>1000</v>
-      </c>
-      <c r="AJ23">
-        <v>5.2</v>
-      </c>
-      <c r="AK23">
-        <v>6.8</v>
-      </c>
-      <c r="AL23">
-        <v>4.1</v>
-      </c>
-      <c r="AM23">
-        <v>980</v>
-      </c>
-      <c r="AN23">
-        <v>5.1</v>
-      </c>
-      <c r="AO23">
-        <v>980</v>
-      </c>
-      <c r="AP23">
-        <v>5.4</v>
-      </c>
-      <c r="AQ23">
-        <v>1000</v>
-      </c>
-      <c r="AR23">
-        <v>6.4</v>
-      </c>
-      <c r="AS23">
-        <v>980</v>
-      </c>
-      <c r="AT23">
-        <v>4.3</v>
-      </c>
       <c r="AU23">
         <v>980</v>
       </c>
       <c r="AV23">
-        <v>5.2</v>
+        <v>1.72</v>
       </c>
       <c r="AW23">
         <v>980</v>
       </c>
       <c r="AX23">
-        <v>5.4</v>
+        <v>1.74</v>
       </c>
       <c r="AY23">
         <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="BA23">
-        <v>5.5</v>
+        <v>980</v>
       </c>
       <c r="BB23">
-        <v>5.4</v>
+        <v>1.75</v>
       </c>
       <c r="BC23">
         <v>1000</v>
       </c>
       <c r="BD23">
-        <v>5.4</v>
+        <v>1.75</v>
       </c>
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>144</v>
+      <c r="BF23">
+        <v>33174670</v>
       </c>
       <c r="BG23">
-        <v>22498185</v>
+        <v>194513</v>
       </c>
       <c r="BH23">
-        <v>5789820</v>
+        <v>12104874</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>173</v>
+      <c r="BJ23">
+        <v>1.227305882</v>
+      </c>
+      <c r="BK23">
+        <v>1.227305892</v>
+      </c>
+      <c r="BL23">
+        <v>1.227305881</v>
+      </c>
+      <c r="BM23">
+        <v>1.227305891</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F24">
-        <v>1.66</v>
+        <v>1.28</v>
       </c>
       <c r="G24">
-        <v>2.66</v>
+        <v>1.36</v>
       </c>
       <c r="H24">
-        <v>2.82</v>
+        <v>12</v>
       </c>
       <c r="I24">
-        <v>5.8</v>
+        <v>20</v>
       </c>
       <c r="J24">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="K24">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="M24">
-        <v>110</v>
+        <v>2.14</v>
       </c>
       <c r="N24">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="O24">
         <v>4.6</v>
       </c>
       <c r="P24">
-        <v>1.15</v>
+        <v>2.66</v>
       </c>
       <c r="Q24">
-        <v>8.199999999999999</v>
+        <v>3.25</v>
       </c>
       <c r="R24">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="S24">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="T24">
-        <v>1.47</v>
+        <v>3.85</v>
       </c>
       <c r="U24">
         <v>980</v>
       </c>
       <c r="V24">
-        <v>2.96</v>
+        <v>4.5</v>
       </c>
       <c r="W24">
         <v>980</v>
       </c>
       <c r="X24">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="Y24">
         <v>1000</v>
       </c>
       <c r="Z24">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="AA24">
         <v>1000</v>
       </c>
       <c r="AB24">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="AC24">
         <v>980</v>
@@ -5534,106 +5435,106 @@
         <v>980</v>
       </c>
       <c r="AF24">
-        <v>4.7</v>
+        <v>2.14</v>
       </c>
       <c r="AG24">
         <v>980</v>
       </c>
       <c r="AH24">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="AI24">
         <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="AK24">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AL24">
-        <v>1.03</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM24">
         <v>980</v>
       </c>
       <c r="AN24">
-        <v>4.5</v>
+        <v>2.18</v>
       </c>
       <c r="AO24">
         <v>980</v>
       </c>
       <c r="AP24">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="AQ24">
         <v>1000</v>
       </c>
       <c r="AR24">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="AS24">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT24">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AU24">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV24">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="AW24">
         <v>1000</v>
       </c>
       <c r="AX24">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="AY24">
         <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="BA24">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB24">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="BC24">
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>1.1</v>
+        <v>2.18</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>145</v>
+      <c r="BF24">
+        <v>33174323</v>
       </c>
       <c r="BG24">
-        <v>5800422</v>
+        <v>10901767</v>
       </c>
       <c r="BH24">
-        <v>2844791</v>
+        <v>5615116</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>174</v>
+      <c r="BJ24">
+        <v>1.227300806</v>
+      </c>
+      <c r="BK24">
+        <v>1.227300816</v>
+      </c>
+      <c r="BL24">
+        <v>1.227300805</v>
+      </c>
+      <c r="BM24">
+        <v>1.227300815</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5641,196 +5542,196 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F25">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="G25">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="H25">
-        <v>3.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I25">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J25">
+        <v>4.5</v>
+      </c>
+      <c r="K25">
+        <v>5.5</v>
+      </c>
+      <c r="L25">
+        <v>1.97</v>
+      </c>
+      <c r="M25">
+        <v>2.22</v>
+      </c>
+      <c r="N25">
+        <v>1.82</v>
+      </c>
+      <c r="O25">
+        <v>2.04</v>
+      </c>
+      <c r="P25">
+        <v>2.22</v>
+      </c>
+      <c r="Q25">
+        <v>2.46</v>
+      </c>
+      <c r="R25">
+        <v>1.69</v>
+      </c>
+      <c r="S25">
+        <v>1.82</v>
+      </c>
+      <c r="T25">
+        <v>12.5</v>
+      </c>
+      <c r="U25">
+        <v>980</v>
+      </c>
+      <c r="V25">
+        <v>6.2</v>
+      </c>
+      <c r="W25">
+        <v>980</v>
+      </c>
+      <c r="X25">
+        <v>1.5</v>
+      </c>
+      <c r="Y25">
+        <v>1000</v>
+      </c>
+      <c r="Z25">
+        <v>1.44</v>
+      </c>
+      <c r="AA25">
+        <v>980</v>
+      </c>
+      <c r="AB25">
+        <v>6</v>
+      </c>
+      <c r="AC25">
+        <v>980</v>
+      </c>
+      <c r="AD25">
+        <v>9.4</v>
+      </c>
+      <c r="AE25">
+        <v>980</v>
+      </c>
+      <c r="AF25">
         <v>3.55</v>
       </c>
-      <c r="K25">
-        <v>950</v>
-      </c>
-      <c r="L25">
-        <v>1.27</v>
-      </c>
-      <c r="M25">
-        <v>110</v>
-      </c>
-      <c r="N25">
-        <v>1.03</v>
-      </c>
-      <c r="O25">
-        <v>4.6</v>
-      </c>
-      <c r="P25">
-        <v>1.15</v>
-      </c>
-      <c r="Q25">
+      <c r="AG25">
+        <v>980</v>
+      </c>
+      <c r="AH25">
+        <v>4.9</v>
+      </c>
+      <c r="AI25">
+        <v>980</v>
+      </c>
+      <c r="AJ25">
+        <v>6.2</v>
+      </c>
+      <c r="AK25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL25">
+        <v>9</v>
+      </c>
+      <c r="AM25">
+        <v>980</v>
+      </c>
+      <c r="AN25">
+        <v>6.4</v>
+      </c>
+      <c r="AO25">
+        <v>980</v>
+      </c>
+      <c r="AP25">
+        <v>7.2</v>
+      </c>
+      <c r="AQ25">
+        <v>980</v>
+      </c>
+      <c r="AR25">
         <v>9.4</v>
       </c>
-      <c r="R25">
-        <v>1.16</v>
-      </c>
-      <c r="S25">
+      <c r="AS25">
+        <v>980</v>
+      </c>
+      <c r="AT25">
+        <v>14</v>
+      </c>
+      <c r="AU25">
+        <v>980</v>
+      </c>
+      <c r="AV25">
+        <v>6.6</v>
+      </c>
+      <c r="AW25">
+        <v>1000</v>
+      </c>
+      <c r="AX25">
+        <v>7.4</v>
+      </c>
+      <c r="AY25">
+        <v>1000</v>
+      </c>
+      <c r="AZ25">
+        <v>1.23</v>
+      </c>
+      <c r="BA25">
         <v>7.8</v>
       </c>
-      <c r="T25">
-        <v>1.48</v>
-      </c>
-      <c r="U25">
-        <v>980</v>
-      </c>
-      <c r="V25">
-        <v>1.03</v>
-      </c>
-      <c r="W25">
-        <v>980</v>
-      </c>
-      <c r="X25">
-        <v>1.03</v>
-      </c>
-      <c r="Y25">
-        <v>1000</v>
-      </c>
-      <c r="Z25">
-        <v>1.03</v>
-      </c>
-      <c r="AA25">
-        <v>1000</v>
-      </c>
-      <c r="AB25">
-        <v>1.03</v>
-      </c>
-      <c r="AC25">
-        <v>980</v>
-      </c>
-      <c r="AD25">
-        <v>3.5</v>
-      </c>
-      <c r="AE25">
-        <v>980</v>
-      </c>
-      <c r="AF25">
-        <v>1.03</v>
-      </c>
-      <c r="AG25">
-        <v>980</v>
-      </c>
-      <c r="AH25">
-        <v>1.03</v>
-      </c>
-      <c r="AI25">
-        <v>1000</v>
-      </c>
-      <c r="AJ25">
-        <v>1.03</v>
-      </c>
-      <c r="AK25">
-        <v>1000</v>
-      </c>
-      <c r="AL25">
-        <v>3.1</v>
-      </c>
-      <c r="AM25">
-        <v>980</v>
-      </c>
-      <c r="AN25">
-        <v>1.03</v>
-      </c>
-      <c r="AO25">
-        <v>980</v>
-      </c>
-      <c r="AP25">
-        <v>1.03</v>
-      </c>
-      <c r="AQ25">
-        <v>1000</v>
-      </c>
-      <c r="AR25">
-        <v>3.1</v>
-      </c>
-      <c r="AS25">
-        <v>1000</v>
-      </c>
-      <c r="AT25">
-        <v>4</v>
-      </c>
-      <c r="AU25">
-        <v>1000</v>
-      </c>
-      <c r="AV25">
-        <v>1.03</v>
-      </c>
-      <c r="AW25">
-        <v>1000</v>
-      </c>
-      <c r="AX25">
-        <v>1.03</v>
-      </c>
-      <c r="AY25">
-        <v>1000</v>
-      </c>
-      <c r="AZ25">
-        <v>1.01</v>
-      </c>
-      <c r="BA25">
-        <v>1000</v>
-      </c>
       <c r="BB25">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="BC25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD25">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>146</v>
+      <c r="BF25">
+        <v>33167481</v>
       </c>
       <c r="BG25">
-        <v>10901767</v>
+        <v>194515</v>
       </c>
       <c r="BH25">
-        <v>5615116</v>
+        <v>504780</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>175</v>
+      <c r="BJ25">
+        <v>1.227164936</v>
+      </c>
+      <c r="BK25">
+        <v>1.227164946</v>
+      </c>
+      <c r="BL25">
+        <v>1.227164935</v>
+      </c>
+      <c r="BM25">
+        <v>1.227164945</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -5838,196 +5739,590 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26">
+        <v>1.17</v>
+      </c>
+      <c r="G26">
+        <v>1.2</v>
+      </c>
+      <c r="H26">
+        <v>21</v>
+      </c>
+      <c r="I26">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>7.4</v>
+      </c>
+      <c r="K26">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L26">
+        <v>2.2</v>
+      </c>
+      <c r="M26">
+        <v>2.5</v>
+      </c>
+      <c r="N26">
+        <v>1.67</v>
+      </c>
+      <c r="O26">
+        <v>1.84</v>
+      </c>
+      <c r="P26">
+        <v>2.94</v>
+      </c>
+      <c r="Q26">
+        <v>3.4</v>
+      </c>
+      <c r="R26">
+        <v>1.41</v>
+      </c>
+      <c r="S26">
+        <v>1.52</v>
+      </c>
+      <c r="T26">
+        <v>16</v>
+      </c>
+      <c r="U26">
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26">
-        <v>2.46</v>
-      </c>
-      <c r="G26">
+      <c r="X26">
+        <v>5.2</v>
+      </c>
+      <c r="Y26">
+        <v>980</v>
+      </c>
+      <c r="Z26">
+        <v>5.3</v>
+      </c>
+      <c r="AA26">
+        <v>1000</v>
+      </c>
+      <c r="AB26">
+        <v>6.2</v>
+      </c>
+      <c r="AC26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>15.5</v>
+      </c>
+      <c r="AE26">
+        <v>24</v>
+      </c>
+      <c r="AF26">
+        <v>5.1</v>
+      </c>
+      <c r="AG26">
+        <v>980</v>
+      </c>
+      <c r="AH26">
+        <v>5.3</v>
+      </c>
+      <c r="AI26">
+        <v>1000</v>
+      </c>
+      <c r="AJ26">
+        <v>4.8</v>
+      </c>
+      <c r="AK26">
+        <v>7.4</v>
+      </c>
+      <c r="AL26">
+        <v>11</v>
+      </c>
+      <c r="AM26">
+        <v>16.5</v>
+      </c>
+      <c r="AN26">
         <v>5</v>
       </c>
-      <c r="H26">
-        <v>2.24</v>
-      </c>
-      <c r="I26">
-        <v>4.2</v>
-      </c>
-      <c r="J26">
-        <v>2.82</v>
-      </c>
-      <c r="K26">
-        <v>160</v>
-      </c>
-      <c r="L26">
-        <v>1.27</v>
-      </c>
-      <c r="M26">
-        <v>110</v>
-      </c>
-      <c r="N26">
-        <v>1.05</v>
-      </c>
-      <c r="O26">
-        <v>4.6</v>
-      </c>
-      <c r="P26">
-        <v>1.16</v>
-      </c>
-      <c r="Q26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R26">
-        <v>1.15</v>
-      </c>
-      <c r="S26">
-        <v>7.8</v>
-      </c>
-      <c r="T26">
-        <v>1.49</v>
-      </c>
-      <c r="U26">
-        <v>14.5</v>
-      </c>
-      <c r="V26">
-        <v>1.07</v>
-      </c>
-      <c r="W26">
-        <v>1000</v>
-      </c>
-      <c r="X26">
-        <v>1.07</v>
-      </c>
-      <c r="Y26">
-        <v>1000</v>
-      </c>
-      <c r="Z26">
-        <v>1.07</v>
-      </c>
-      <c r="AA26">
-        <v>1000</v>
-      </c>
-      <c r="AB26">
-        <v>1.07</v>
-      </c>
-      <c r="AC26">
-        <v>1000</v>
-      </c>
-      <c r="AD26">
-        <v>1.07</v>
-      </c>
-      <c r="AE26">
-        <v>1000</v>
-      </c>
-      <c r="AF26">
-        <v>1.07</v>
-      </c>
-      <c r="AG26">
-        <v>1000</v>
-      </c>
-      <c r="AH26">
-        <v>1.07</v>
-      </c>
-      <c r="AI26">
-        <v>1000</v>
-      </c>
-      <c r="AJ26">
-        <v>1.07</v>
-      </c>
-      <c r="AK26">
-        <v>1000</v>
-      </c>
-      <c r="AL26">
-        <v>1.07</v>
-      </c>
-      <c r="AM26">
-        <v>1000</v>
-      </c>
-      <c r="AN26">
-        <v>1.07</v>
-      </c>
       <c r="AO26">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AP26">
-        <v>1.07</v>
+        <v>5.3</v>
       </c>
       <c r="AQ26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR26">
-        <v>1.07</v>
+        <v>6.8</v>
       </c>
       <c r="AS26">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AT26">
-        <v>1.07</v>
+        <v>14</v>
       </c>
       <c r="AU26">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV26">
-        <v>1.07</v>
+        <v>5</v>
       </c>
       <c r="AW26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX26">
-        <v>1.07</v>
+        <v>5.3</v>
       </c>
       <c r="AY26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ26">
-        <v>1.07</v>
+        <v>2.5</v>
       </c>
       <c r="BA26">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="BB26">
-        <v>1.07</v>
+        <v>5.3</v>
       </c>
       <c r="BC26">
         <v>1000</v>
       </c>
       <c r="BD26">
-        <v>1.07</v>
+        <v>5.3</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>147</v>
+      <c r="BF26">
+        <v>33167029</v>
       </c>
       <c r="BG26">
-        <v>10778437</v>
+        <v>22498185</v>
       </c>
       <c r="BH26">
-        <v>1496989</v>
+        <v>5789820</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>171</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>176</v>
+      <c r="BJ26">
+        <v>1.227153412</v>
+      </c>
+      <c r="BK26">
+        <v>1.227153422</v>
+      </c>
+      <c r="BL26">
+        <v>1.227153411</v>
+      </c>
+      <c r="BM26">
+        <v>1.227153421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27">
+        <v>1.99</v>
+      </c>
+      <c r="G27">
+        <v>2.32</v>
+      </c>
+      <c r="H27">
+        <v>3.7</v>
+      </c>
+      <c r="I27">
+        <v>5.1</v>
+      </c>
+      <c r="J27">
+        <v>3.1</v>
+      </c>
+      <c r="K27">
+        <v>3.8</v>
+      </c>
+      <c r="L27">
+        <v>1.62</v>
+      </c>
+      <c r="M27">
+        <v>1.95</v>
+      </c>
+      <c r="N27">
+        <v>2.04</v>
+      </c>
+      <c r="O27">
+        <v>2.6</v>
+      </c>
+      <c r="P27">
+        <v>1.91</v>
+      </c>
+      <c r="Q27">
+        <v>2.26</v>
+      </c>
+      <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>2.1</v>
+      </c>
+      <c r="T27">
+        <v>7.6</v>
+      </c>
+      <c r="U27">
+        <v>980</v>
+      </c>
+      <c r="V27">
+        <v>3.35</v>
+      </c>
+      <c r="W27">
+        <v>980</v>
+      </c>
+      <c r="X27">
+        <v>3.8</v>
+      </c>
+      <c r="Y27">
+        <v>980</v>
+      </c>
+      <c r="Z27">
+        <v>2.54</v>
+      </c>
+      <c r="AA27">
+        <v>980</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>980</v>
+      </c>
+      <c r="AD27">
+        <v>5.8</v>
+      </c>
+      <c r="AE27">
+        <v>980</v>
+      </c>
+      <c r="AF27">
+        <v>3.55</v>
+      </c>
+      <c r="AG27">
+        <v>980</v>
+      </c>
+      <c r="AH27">
+        <v>2.5</v>
+      </c>
+      <c r="AI27">
+        <v>980</v>
+      </c>
+      <c r="AJ27">
+        <v>3.3</v>
+      </c>
+      <c r="AK27">
+        <v>980</v>
+      </c>
+      <c r="AL27">
+        <v>3.25</v>
+      </c>
+      <c r="AM27">
+        <v>980</v>
+      </c>
+      <c r="AN27">
+        <v>3.7</v>
+      </c>
+      <c r="AO27">
+        <v>980</v>
+      </c>
+      <c r="AP27">
+        <v>2.52</v>
+      </c>
+      <c r="AQ27">
+        <v>980</v>
+      </c>
+      <c r="AR27">
+        <v>2.72</v>
+      </c>
+      <c r="AS27">
+        <v>980</v>
+      </c>
+      <c r="AT27">
+        <v>2.7</v>
+      </c>
+      <c r="AU27">
+        <v>1000</v>
+      </c>
+      <c r="AV27">
+        <v>2.58</v>
+      </c>
+      <c r="AW27">
+        <v>1000</v>
+      </c>
+      <c r="AX27">
+        <v>2.56</v>
+      </c>
+      <c r="AY27">
+        <v>1000</v>
+      </c>
+      <c r="AZ27">
+        <v>2.36</v>
+      </c>
+      <c r="BA27">
+        <v>980</v>
+      </c>
+      <c r="BB27">
+        <v>2.52</v>
+      </c>
+      <c r="BC27">
+        <v>980</v>
+      </c>
+      <c r="BD27">
+        <v>2.58</v>
+      </c>
+      <c r="BE27">
+        <v>1000</v>
+      </c>
+      <c r="BF27">
+        <v>33174682</v>
+      </c>
+      <c r="BG27">
+        <v>5800422</v>
+      </c>
+      <c r="BH27">
+        <v>2844791</v>
+      </c>
+      <c r="BI27">
+        <v>58805</v>
+      </c>
+      <c r="BJ27">
+        <v>1.22730599</v>
+      </c>
+      <c r="BK27">
+        <v>1.227306</v>
+      </c>
+      <c r="BL27">
+        <v>1.227305989</v>
+      </c>
+      <c r="BM27">
+        <v>1.227305999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28">
+        <v>3.05</v>
+      </c>
+      <c r="G28">
+        <v>3.4</v>
+      </c>
+      <c r="H28">
+        <v>2.58</v>
+      </c>
+      <c r="I28">
+        <v>2.82</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3.3</v>
+      </c>
+      <c r="L28">
+        <v>1.56</v>
+      </c>
+      <c r="M28">
+        <v>1.82</v>
+      </c>
+      <c r="N28">
+        <v>2.22</v>
+      </c>
+      <c r="O28">
+        <v>2.78</v>
+      </c>
+      <c r="P28">
+        <v>2.04</v>
+      </c>
+      <c r="Q28">
+        <v>2.2</v>
+      </c>
+      <c r="R28">
+        <v>1.83</v>
+      </c>
+      <c r="S28">
+        <v>1.96</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>11</v>
+      </c>
+      <c r="V28">
+        <v>7.6</v>
+      </c>
+      <c r="W28">
+        <v>10.5</v>
+      </c>
+      <c r="X28">
+        <v>13</v>
+      </c>
+      <c r="Y28">
+        <v>19.5</v>
+      </c>
+      <c r="Z28">
+        <v>3.95</v>
+      </c>
+      <c r="AA28">
+        <v>55</v>
+      </c>
+      <c r="AB28">
+        <v>8.6</v>
+      </c>
+      <c r="AC28">
+        <v>12</v>
+      </c>
+      <c r="AD28">
+        <v>6.4</v>
+      </c>
+      <c r="AE28">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF28">
+        <v>11.5</v>
+      </c>
+      <c r="AG28">
+        <v>16</v>
+      </c>
+      <c r="AH28">
+        <v>3.9</v>
+      </c>
+      <c r="AI28">
+        <v>46</v>
+      </c>
+      <c r="AJ28">
+        <v>15</v>
+      </c>
+      <c r="AK28">
+        <v>25</v>
+      </c>
+      <c r="AL28">
+        <v>11.5</v>
+      </c>
+      <c r="AM28">
+        <v>18</v>
+      </c>
+      <c r="AN28">
+        <v>3.7</v>
+      </c>
+      <c r="AO28">
+        <v>27</v>
+      </c>
+      <c r="AP28">
+        <v>4</v>
+      </c>
+      <c r="AQ28">
+        <v>980</v>
+      </c>
+      <c r="AR28">
+        <v>4</v>
+      </c>
+      <c r="AS28">
+        <v>980</v>
+      </c>
+      <c r="AT28">
+        <v>4</v>
+      </c>
+      <c r="AU28">
+        <v>60</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>980</v>
+      </c>
+      <c r="AX28">
+        <v>4.2</v>
+      </c>
+      <c r="AY28">
+        <v>980</v>
+      </c>
+      <c r="AZ28">
+        <v>4</v>
+      </c>
+      <c r="BA28">
+        <v>980</v>
+      </c>
+      <c r="BB28">
+        <v>3.9</v>
+      </c>
+      <c r="BC28">
+        <v>46</v>
+      </c>
+      <c r="BD28">
+        <v>4.2</v>
+      </c>
+      <c r="BE28">
+        <v>1000</v>
+      </c>
+      <c r="BF28">
+        <v>33174684</v>
+      </c>
+      <c r="BG28">
+        <v>10778437</v>
+      </c>
+      <c r="BH28">
+        <v>1496989</v>
+      </c>
+      <c r="BI28">
+        <v>58805</v>
+      </c>
+      <c r="BJ28">
+        <v>1.227306098</v>
+      </c>
+      <c r="BK28">
+        <v>1.227306108</v>
+      </c>
+      <c r="BL28">
+        <v>1.227306097</v>
+      </c>
+      <c r="BM28">
+        <v>1.227306107</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
@@ -1023,34 +1023,34 @@
         <v>117</v>
       </c>
       <c r="F2">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="H2">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="J2">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="K2">
         <v>950</v>
       </c>
       <c r="L2">
-        <v>1.07</v>
+        <v>1.85</v>
       </c>
       <c r="M2">
-        <v>110</v>
+        <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>15.5</v>
+        <v>2.18</v>
       </c>
       <c r="P2">
         <v>1.14</v>
@@ -1065,7 +1065,7 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="U2">
         <v>1000</v>
@@ -1220,133 +1220,133 @@
         <v>118</v>
       </c>
       <c r="F3">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="G3">
-        <v>2.54</v>
+        <v>3.45</v>
       </c>
       <c r="H3">
-        <v>3.35</v>
+        <v>2.28</v>
       </c>
       <c r="I3">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J3">
-        <v>2.92</v>
+        <v>1.93</v>
       </c>
       <c r="K3">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L3">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="M3">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="N3">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="O3">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="P3">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="Q3">
-        <v>2.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R3">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="S3">
-        <v>1.99</v>
+        <v>2.44</v>
       </c>
       <c r="T3">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="U3">
         <v>980</v>
       </c>
       <c r="V3">
-        <v>2.46</v>
+        <v>1.1</v>
       </c>
       <c r="W3">
         <v>980</v>
       </c>
       <c r="X3">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="Y3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="AA3">
         <v>1000</v>
       </c>
       <c r="AB3">
-        <v>3.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC3">
         <v>980</v>
       </c>
       <c r="AD3">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="AE3">
         <v>980</v>
       </c>
       <c r="AF3">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="AG3">
         <v>980</v>
       </c>
       <c r="AH3">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>2.56</v>
+        <v>1.1</v>
       </c>
       <c r="AK3">
         <v>980</v>
       </c>
       <c r="AL3">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
         <v>980</v>
       </c>
       <c r="AN3">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="AO3">
         <v>980</v>
       </c>
       <c r="AP3">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
       </c>
       <c r="AR3">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="AS3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="AU3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="AW3">
         <v>1000</v>
@@ -1358,19 +1358,19 @@
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>2.34</v>
+        <v>1.1</v>
       </c>
       <c r="BA3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="BC3">
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1417,139 +1417,139 @@
         <v>119</v>
       </c>
       <c r="F4">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="G4">
+        <v>1.81</v>
+      </c>
+      <c r="H4">
+        <v>4.6</v>
+      </c>
+      <c r="I4">
+        <v>5.9</v>
+      </c>
+      <c r="J4">
+        <v>3.6</v>
+      </c>
+      <c r="K4">
+        <v>4.9</v>
+      </c>
+      <c r="L4">
+        <v>1.98</v>
+      </c>
+      <c r="M4">
+        <v>2.2</v>
+      </c>
+      <c r="N4">
+        <v>1.84</v>
+      </c>
+      <c r="O4">
         <v>2.02</v>
       </c>
-      <c r="H4">
+      <c r="P4">
+        <v>1.85</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2.18</v>
+      </c>
+      <c r="T4">
+        <v>3.7</v>
+      </c>
+      <c r="U4">
+        <v>980</v>
+      </c>
+      <c r="V4">
+        <v>3.85</v>
+      </c>
+      <c r="W4">
+        <v>980</v>
+      </c>
+      <c r="X4">
+        <v>4.1</v>
+      </c>
+      <c r="Y4">
+        <v>980</v>
+      </c>
+      <c r="Z4">
+        <v>4.3</v>
+      </c>
+      <c r="AA4">
+        <v>980</v>
+      </c>
+      <c r="AB4">
+        <v>7.8</v>
+      </c>
+      <c r="AC4">
+        <v>11</v>
+      </c>
+      <c r="AD4">
+        <v>7.8</v>
+      </c>
+      <c r="AE4">
+        <v>11.5</v>
+      </c>
+      <c r="AF4">
+        <v>3.85</v>
+      </c>
+      <c r="AG4">
+        <v>980</v>
+      </c>
+      <c r="AH4">
         <v>4.2</v>
       </c>
-      <c r="I4">
-        <v>6.6</v>
-      </c>
-      <c r="J4">
-        <v>3.35</v>
-      </c>
-      <c r="K4">
-        <v>5.2</v>
-      </c>
-      <c r="L4">
-        <v>1.67</v>
-      </c>
-      <c r="M4">
-        <v>2.42</v>
-      </c>
-      <c r="N4">
-        <v>1.7</v>
-      </c>
-      <c r="O4">
-        <v>2.5</v>
-      </c>
-      <c r="P4">
-        <v>1.81</v>
-      </c>
-      <c r="Q4">
-        <v>2.48</v>
-      </c>
-      <c r="R4">
-        <v>1.68</v>
-      </c>
-      <c r="S4">
-        <v>2.94</v>
-      </c>
-      <c r="T4">
-        <v>13</v>
-      </c>
-      <c r="U4">
-        <v>980</v>
-      </c>
-      <c r="V4">
-        <v>3.6</v>
-      </c>
-      <c r="W4">
-        <v>980</v>
-      </c>
-      <c r="X4">
+      <c r="AI4">
+        <v>980</v>
+      </c>
+      <c r="AJ4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK4">
+        <v>980</v>
+      </c>
+      <c r="AL4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM4">
+        <v>980</v>
+      </c>
+      <c r="AN4">
+        <v>3.9</v>
+      </c>
+      <c r="AO4">
+        <v>980</v>
+      </c>
+      <c r="AP4">
+        <v>4.2</v>
+      </c>
+      <c r="AQ4">
+        <v>980</v>
+      </c>
+      <c r="AR4">
+        <v>3.85</v>
+      </c>
+      <c r="AS4">
+        <v>980</v>
+      </c>
+      <c r="AT4">
+        <v>3.8</v>
+      </c>
+      <c r="AU4">
+        <v>980</v>
+      </c>
+      <c r="AV4">
         <v>4</v>
       </c>
-      <c r="Y4">
-        <v>980</v>
-      </c>
-      <c r="Z4">
-        <v>4.2</v>
-      </c>
-      <c r="AA4">
-        <v>1000</v>
-      </c>
-      <c r="AB4">
-        <v>3.1</v>
-      </c>
-      <c r="AC4">
-        <v>980</v>
-      </c>
-      <c r="AD4">
-        <v>3.1</v>
-      </c>
-      <c r="AE4">
-        <v>980</v>
-      </c>
-      <c r="AF4">
-        <v>3.65</v>
-      </c>
-      <c r="AG4">
-        <v>980</v>
-      </c>
-      <c r="AH4">
-        <v>4.1</v>
-      </c>
-      <c r="AI4">
-        <v>1000</v>
-      </c>
-      <c r="AJ4">
-        <v>9.4</v>
-      </c>
-      <c r="AK4">
-        <v>980</v>
-      </c>
-      <c r="AL4">
-        <v>3.15</v>
-      </c>
-      <c r="AM4">
-        <v>980</v>
-      </c>
-      <c r="AN4">
-        <v>3.95</v>
-      </c>
-      <c r="AO4">
-        <v>980</v>
-      </c>
-      <c r="AP4">
-        <v>4.1</v>
-      </c>
-      <c r="AQ4">
-        <v>1000</v>
-      </c>
-      <c r="AR4">
-        <v>3.6</v>
-      </c>
-      <c r="AS4">
-        <v>980</v>
-      </c>
-      <c r="AT4">
-        <v>3.85</v>
-      </c>
-      <c r="AU4">
-        <v>980</v>
-      </c>
-      <c r="AV4">
-        <v>3.95</v>
-      </c>
       <c r="AW4">
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AY4">
         <v>1000</v>
@@ -1558,16 +1558,16 @@
         <v>3.2</v>
       </c>
       <c r="BA4">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="BB4">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BC4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1614,10 +1614,10 @@
         <v>120</v>
       </c>
       <c r="F5">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G5">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H5">
         <v>7.8</v>
@@ -1629,52 +1629,52 @@
         <v>5.2</v>
       </c>
       <c r="K5">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L5">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="M5">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="N5">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O5">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P5">
+        <v>1.94</v>
+      </c>
+      <c r="Q5">
+        <v>2.06</v>
+      </c>
+      <c r="R5">
         <v>1.95</v>
       </c>
-      <c r="Q5">
-        <v>2.14</v>
-      </c>
-      <c r="R5">
-        <v>1.88</v>
-      </c>
       <c r="S5">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T5">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U5">
         <v>25</v>
       </c>
       <c r="V5">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="W5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X5">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="Y5">
         <v>95</v>
       </c>
       <c r="Z5">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="AA5">
         <v>980</v>
@@ -1683,88 +1683,88 @@
         <v>7.8</v>
       </c>
       <c r="AC5">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD5">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE5">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF5">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="AG5">
         <v>40</v>
       </c>
       <c r="AH5">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="AI5">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AJ5">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AK5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL5">
         <v>8.6</v>
       </c>
       <c r="AM5">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN5">
         <v>21</v>
       </c>
       <c r="AO5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP5">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="AQ5">
         <v>140</v>
       </c>
       <c r="AR5">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AS5">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AT5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU5">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AV5">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="AW5">
         <v>44</v>
       </c>
       <c r="AX5">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="AY5">
         <v>980</v>
       </c>
       <c r="AZ5">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="BA5">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="BB5">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="BC5">
         <v>980</v>
       </c>
       <c r="BD5">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1817,43 +1817,43 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H6">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I6">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K6">
         <v>5.2</v>
       </c>
       <c r="L6">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="N6">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>2.04</v>
       </c>
       <c r="Q6">
-        <v>2.94</v>
+        <v>2.22</v>
       </c>
       <c r="R6">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S6">
         <v>1.96</v>
       </c>
       <c r="T6">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>980</v>
@@ -1862,13 +1862,13 @@
         <v>7.2</v>
       </c>
       <c r="W6">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <v>7.4</v>
       </c>
       <c r="Y6">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6">
         <v>10.5</v>
@@ -1877,7 +1877,7 @@
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC6">
         <v>980</v>
@@ -1892,76 +1892,76 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG6">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AI6">
         <v>980</v>
       </c>
       <c r="AJ6">
-        <v>1.33</v>
+        <v>6.4</v>
       </c>
       <c r="AK6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6">
-        <v>2.88</v>
+        <v>5.8</v>
       </c>
       <c r="AM6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN6">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO6">
         <v>980</v>
       </c>
       <c r="AP6">
-        <v>1.55</v>
+        <v>6</v>
       </c>
       <c r="AQ6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR6">
-        <v>1.32</v>
+        <v>6.8</v>
       </c>
       <c r="AS6">
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="AU6">
         <v>1000</v>
       </c>
       <c r="AV6">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AW6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX6">
-        <v>1.33</v>
+        <v>6.6</v>
       </c>
       <c r="AY6">
         <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>1.19</v>
+        <v>6.6</v>
       </c>
       <c r="BA6">
         <v>1000</v>
       </c>
       <c r="BB6">
-        <v>1.99</v>
+        <v>3.75</v>
       </c>
       <c r="BC6">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD6">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2062,13 +2062,13 @@
         <v>980</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y7">
         <v>1000</v>
       </c>
       <c r="Z7">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="AA7">
         <v>1000</v>
@@ -2086,13 +2086,13 @@
         <v>980</v>
       </c>
       <c r="AF7">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="AG7">
         <v>980</v>
       </c>
       <c r="AH7">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="AI7">
         <v>1000</v>
@@ -2110,37 +2110,37 @@
         <v>980</v>
       </c>
       <c r="AN7">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="AO7">
         <v>980</v>
       </c>
       <c r="AP7">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
       </c>
       <c r="AR7">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="AS7">
         <v>1000</v>
       </c>
       <c r="AT7">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="AU7">
         <v>1000</v>
       </c>
       <c r="AV7">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AW7">
         <v>1000</v>
       </c>
       <c r="AX7">
-        <v>15.5</v>
+        <v>1.03</v>
       </c>
       <c r="AY7">
         <v>1000</v>
@@ -2205,16 +2205,16 @@
         <v>123</v>
       </c>
       <c r="F8">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G8">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I8">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J8">
         <v>3.6</v>
@@ -2235,7 +2235,7 @@
         <v>1.88</v>
       </c>
       <c r="P8">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q8">
         <v>1.79</v>
@@ -2244,37 +2244,37 @@
         <v>2.28</v>
       </c>
       <c r="S8">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="T8">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V8">
         <v>12.5</v>
       </c>
       <c r="W8">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="X8">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AA8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB8">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC8">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD8">
         <v>7.6</v>
@@ -2283,7 +2283,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF8">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG8">
         <v>13</v>
@@ -2295,10 +2295,10 @@
         <v>32</v>
       </c>
       <c r="AJ8">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK8">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AL8">
         <v>10.5</v>
@@ -2310,34 +2310,34 @@
         <v>15</v>
       </c>
       <c r="AO8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AQ8">
         <v>40</v>
       </c>
       <c r="AR8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AS8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT8">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AU8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AV8">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="AW8">
         <v>34</v>
       </c>
       <c r="AX8">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AY8">
         <v>75</v>
@@ -2346,19 +2346,19 @@
         <v>15.5</v>
       </c>
       <c r="BA8">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BB8">
         <v>21</v>
       </c>
       <c r="BC8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD8">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="BE8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF8">
         <v>33111892</v>
@@ -2402,10 +2402,10 @@
         <v>124</v>
       </c>
       <c r="F9">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G9">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H9">
         <v>2.02</v>
@@ -2432,31 +2432,31 @@
         <v>2.22</v>
       </c>
       <c r="P9">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q9">
+        <v>1.99</v>
+      </c>
+      <c r="R9">
         <v>2.02</v>
       </c>
-      <c r="R9">
-        <v>1.99</v>
-      </c>
       <c r="S9">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U9">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V9">
         <v>8</v>
       </c>
       <c r="W9">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -2465,7 +2465,7 @@
         <v>21</v>
       </c>
       <c r="AA9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB9">
         <v>13</v>
@@ -2474,7 +2474,7 @@
         <v>14.5</v>
       </c>
       <c r="AD9">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE9">
         <v>7.8</v>
@@ -2489,16 +2489,16 @@
         <v>20</v>
       </c>
       <c r="AI9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ9">
         <v>26</v>
       </c>
       <c r="AK9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL9">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM9">
         <v>17.5</v>
@@ -2507,40 +2507,40 @@
         <v>18.5</v>
       </c>
       <c r="AO9">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP9">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AQ9">
         <v>42</v>
       </c>
       <c r="AR9">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AS9">
         <v>95</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU9">
         <v>60</v>
       </c>
       <c r="AV9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW9">
         <v>70</v>
       </c>
       <c r="AX9">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AY9">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AZ9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>65</v>
@@ -2552,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="BD9">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2602,43 +2602,43 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="I10">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="J10">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K10">
         <v>5.6</v>
       </c>
       <c r="L10">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="M10">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="N10">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="O10">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R10">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T10">
         <v>10.5</v>
@@ -2659,13 +2659,13 @@
         <v>980</v>
       </c>
       <c r="Z10">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AA10">
         <v>980</v>
       </c>
       <c r="AB10">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AC10">
         <v>980</v>
@@ -2677,7 +2677,7 @@
         <v>980</v>
       </c>
       <c r="AF10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AG10">
         <v>980</v>
@@ -2695,13 +2695,13 @@
         <v>980</v>
       </c>
       <c r="AL10">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AM10">
         <v>980</v>
       </c>
       <c r="AN10">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO10">
         <v>980</v>
@@ -2796,16 +2796,16 @@
         <v>126</v>
       </c>
       <c r="F11">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G11">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="H11">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>3.6</v>
@@ -2814,7 +2814,7 @@
         <v>4.8</v>
       </c>
       <c r="L11">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="M11">
         <v>2.18</v>
@@ -2823,40 +2823,40 @@
         <v>1.84</v>
       </c>
       <c r="O11">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="P11">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q11">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R11">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="S11">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T11">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="U11">
         <v>980</v>
       </c>
       <c r="V11">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="W11">
         <v>980</v>
       </c>
       <c r="X11">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y11">
         <v>980</v>
       </c>
       <c r="Z11">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="AA11">
         <v>1000</v>
@@ -2868,31 +2868,31 @@
         <v>980</v>
       </c>
       <c r="AD11">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE11">
         <v>980</v>
       </c>
       <c r="AF11">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG11">
         <v>980</v>
       </c>
       <c r="AH11">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="AI11">
         <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK11">
         <v>980</v>
       </c>
       <c r="AL11">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AM11">
         <v>980</v>
@@ -2904,13 +2904,13 @@
         <v>980</v>
       </c>
       <c r="AP11">
-        <v>2.38</v>
+        <v>6.2</v>
       </c>
       <c r="AQ11">
         <v>1000</v>
       </c>
       <c r="AR11">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AS11">
         <v>980</v>
@@ -2928,25 +2928,25 @@
         <v>980</v>
       </c>
       <c r="AX11">
-        <v>2.44</v>
+        <v>6.4</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
+        <v>4.2</v>
+      </c>
+      <c r="BA11">
+        <v>980</v>
+      </c>
+      <c r="BB11">
+        <v>4.2</v>
+      </c>
+      <c r="BC11">
+        <v>1000</v>
+      </c>
+      <c r="BD11">
         <v>4.3</v>
-      </c>
-      <c r="BA11">
-        <v>980</v>
-      </c>
-      <c r="BB11">
-        <v>1.68</v>
-      </c>
-      <c r="BC11">
-        <v>1000</v>
-      </c>
-      <c r="BD11">
-        <v>3.1</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2993,34 +2993,34 @@
         <v>127</v>
       </c>
       <c r="F12">
+        <v>2.72</v>
+      </c>
+      <c r="G12">
+        <v>4.2</v>
+      </c>
+      <c r="H12">
         <v>2.24</v>
       </c>
-      <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="H12">
-        <v>1.94</v>
-      </c>
       <c r="I12">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="J12">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L12">
-        <v>1.21</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="P12">
         <v>1.14</v>
@@ -3065,13 +3065,13 @@
         <v>1000</v>
       </c>
       <c r="AD12">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AE12">
         <v>1000</v>
       </c>
       <c r="AF12">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG12">
         <v>1000</v>
@@ -3089,7 +3089,7 @@
         <v>1000</v>
       </c>
       <c r="AL12">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AM12">
         <v>1000</v>
@@ -3190,34 +3190,34 @@
         <v>128</v>
       </c>
       <c r="F13">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="H13">
-        <v>2.92</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="J13">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K13">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>3.8</v>
       </c>
       <c r="N13">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>2.16</v>
       </c>
       <c r="P13">
         <v>1.14</v>
@@ -3298,7 +3298,7 @@
         <v>980</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
@@ -3310,19 +3310,19 @@
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="AU13">
         <v>1000</v>
       </c>
       <c r="AV13">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AY13">
         <v>1000</v>
@@ -3387,46 +3387,46 @@
         <v>129</v>
       </c>
       <c r="F14">
+        <v>1.87</v>
+      </c>
+      <c r="G14">
         <v>1.88</v>
       </c>
-      <c r="G14">
-        <v>1.89</v>
-      </c>
       <c r="H14">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I14">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K14">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>2.12</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N14">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O14">
         <v>1.89</v>
       </c>
       <c r="P14">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q14">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R14">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S14">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T14">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         <v>36</v>
       </c>
       <c r="Z14">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA14">
         <v>100</v>
@@ -3519,7 +3519,7 @@
         <v>30</v>
       </c>
       <c r="AX14">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AY14">
         <v>90</v>
@@ -3537,7 +3537,7 @@
         <v>50</v>
       </c>
       <c r="BD14">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BE14">
         <v>980</v>
@@ -3584,19 +3584,19 @@
         <v>130</v>
       </c>
       <c r="F15">
+        <v>1.45</v>
+      </c>
+      <c r="G15">
         <v>1.46</v>
       </c>
-      <c r="G15">
-        <v>1.47</v>
-      </c>
       <c r="H15">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J15">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K15">
         <v>5.3</v>
@@ -3605,28 +3605,28 @@
         <v>2.38</v>
       </c>
       <c r="M15">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="N15">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O15">
         <v>1.72</v>
       </c>
       <c r="P15">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q15">
         <v>1.93</v>
       </c>
       <c r="R15">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S15">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T15">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="U15">
         <v>21</v>
@@ -3635,28 +3635,28 @@
         <v>27</v>
       </c>
       <c r="W15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X15">
         <v>60</v>
       </c>
       <c r="Y15">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z15">
         <v>48</v>
       </c>
       <c r="AA15">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB15">
         <v>9.199999999999999</v>
       </c>
       <c r="AC15">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE15">
         <v>11.5</v>
@@ -3668,16 +3668,16 @@
         <v>29</v>
       </c>
       <c r="AH15">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI15">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ15">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK15">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL15">
         <v>9.4</v>
@@ -3692,7 +3692,7 @@
         <v>23</v>
       </c>
       <c r="AP15">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AQ15">
         <v>95</v>
@@ -3710,7 +3710,7 @@
         <v>14</v>
       </c>
       <c r="AV15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW15">
         <v>30</v>
@@ -3722,22 +3722,22 @@
         <v>120</v>
       </c>
       <c r="AZ15">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BA15">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="BB15">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BC15">
         <v>120</v>
       </c>
       <c r="BD15">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="BE15">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="BF15">
         <v>33111920</v>
@@ -3781,22 +3781,22 @@
         <v>131</v>
       </c>
       <c r="F16">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G16">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H16">
+        <v>9.6</v>
+      </c>
+      <c r="I16">
         <v>9.800000000000001</v>
       </c>
-      <c r="I16">
-        <v>10.5</v>
-      </c>
       <c r="J16">
+        <v>6.2</v>
+      </c>
+      <c r="K16">
         <v>6.4</v>
-      </c>
-      <c r="K16">
-        <v>6.6</v>
       </c>
       <c r="L16">
         <v>3.05</v>
@@ -3811,31 +3811,31 @@
         <v>1.48</v>
       </c>
       <c r="P16">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q16">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R16">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S16">
         <v>2.28</v>
       </c>
       <c r="T16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V16">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W16">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X16">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y16">
         <v>100</v>
@@ -3844,7 +3844,7 @@
         <v>55</v>
       </c>
       <c r="AA16">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB16">
         <v>12</v>
@@ -3862,22 +3862,22 @@
         <v>32</v>
       </c>
       <c r="AG16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH16">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AI16">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ16">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK16">
         <v>10</v>
       </c>
       <c r="AL16">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM16">
         <v>10.5</v>
@@ -3889,7 +3889,7 @@
         <v>25</v>
       </c>
       <c r="AP16">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AQ16">
         <v>95</v>
@@ -3901,7 +3901,7 @@
         <v>11.5</v>
       </c>
       <c r="AT16">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AU16">
         <v>12</v>
@@ -3919,19 +3919,19 @@
         <v>100</v>
       </c>
       <c r="AZ16">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BA16">
         <v>4.2</v>
       </c>
       <c r="BB16">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="BC16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD16">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BE16">
         <v>980</v>
@@ -3978,16 +3978,16 @@
         <v>132</v>
       </c>
       <c r="F17">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G17">
         <v>1.81</v>
       </c>
       <c r="H17">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I17">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J17">
         <v>3.9</v>
@@ -3996,13 +3996,13 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="M17">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="N17">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O17">
         <v>1.95</v>
@@ -4011,10 +4011,10 @@
         <v>1.85</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="S17">
         <v>2.18</v>
@@ -4023,25 +4023,25 @@
         <v>14</v>
       </c>
       <c r="U17">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V17">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="W17">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y17">
         <v>38</v>
       </c>
       <c r="Z17">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA17">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AB17">
         <v>8.6</v>
@@ -4056,22 +4056,22 @@
         <v>9</v>
       </c>
       <c r="AF17">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG17">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI17">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ17">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK17">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL17">
         <v>9.199999999999999</v>
@@ -4083,16 +4083,16 @@
         <v>17.5</v>
       </c>
       <c r="AO17">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AP17">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ17">
         <v>70</v>
       </c>
       <c r="AR17">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AS17">
         <v>18.5</v>
@@ -4101,7 +4101,7 @@
         <v>16.5</v>
       </c>
       <c r="AU17">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AV17">
         <v>30</v>
@@ -4110,7 +4110,7 @@
         <v>32</v>
       </c>
       <c r="AX17">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY17">
         <v>110</v>
@@ -4125,10 +4125,10 @@
         <v>14</v>
       </c>
       <c r="BC17">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BD17">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4175,16 +4175,16 @@
         <v>133</v>
       </c>
       <c r="F18">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G18">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H18">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J18">
         <v>4.3</v>
@@ -4199,22 +4199,22 @@
         <v>2.26</v>
       </c>
       <c r="N18">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
         <v>1.82</v>
       </c>
       <c r="P18">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q18">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R18">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S18">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T18">
         <v>15.5</v>
@@ -4223,19 +4223,19 @@
         <v>17</v>
       </c>
       <c r="V18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X18">
         <v>40</v>
       </c>
       <c r="Y18">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Z18">
-        <v>6.2</v>
+        <v>17.5</v>
       </c>
       <c r="AA18">
         <v>160</v>
@@ -4244,10 +4244,10 @@
         <v>8.6</v>
       </c>
       <c r="AC18">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD18">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE18">
         <v>9.6</v>
@@ -4259,7 +4259,7 @@
         <v>22</v>
       </c>
       <c r="AH18">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AI18">
         <v>75</v>
@@ -4271,22 +4271,22 @@
         <v>10.5</v>
       </c>
       <c r="AL18">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM18">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AN18">
         <v>18.5</v>
       </c>
       <c r="AO18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP18">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AQ18">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR18">
         <v>15</v>
@@ -4307,7 +4307,7 @@
         <v>30</v>
       </c>
       <c r="AX18">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY18">
         <v>100</v>
@@ -4316,16 +4316,16 @@
         <v>7.2</v>
       </c>
       <c r="BA18">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB18">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BC18">
         <v>75</v>
       </c>
       <c r="BD18">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="BE18">
         <v>1000</v>
@@ -4390,7 +4390,7 @@
         <v>3.7</v>
       </c>
       <c r="L19">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="M19">
         <v>1.8</v>
@@ -4411,16 +4411,16 @@
         <v>1.87</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="U19">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V19">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="W19">
         <v>16</v>
@@ -4438,19 +4438,19 @@
         <v>130</v>
       </c>
       <c r="AB19">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC19">
         <v>7.6</v>
       </c>
       <c r="AD19">
+        <v>7.8</v>
+      </c>
+      <c r="AE19">
         <v>8</v>
       </c>
-      <c r="AE19">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AF19">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG19">
         <v>20</v>
@@ -4462,13 +4462,13 @@
         <v>80</v>
       </c>
       <c r="AJ19">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK19">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AL19">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM19">
         <v>10.5</v>
@@ -4498,7 +4498,7 @@
         <v>21</v>
       </c>
       <c r="AV19">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AW19">
         <v>44</v>
@@ -4507,13 +4507,13 @@
         <v>44</v>
       </c>
       <c r="AY19">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AZ19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA19">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BB19">
         <v>38</v>
@@ -4569,25 +4569,25 @@
         <v>135</v>
       </c>
       <c r="F20">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G20">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H20">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I20">
         <v>6.8</v>
       </c>
       <c r="J20">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K20">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L20">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="M20">
         <v>2.32</v>
@@ -4596,40 +4596,40 @@
         <v>1.76</v>
       </c>
       <c r="O20">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="P20">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q20">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R20">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="S20">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T20">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="U20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V20">
         <v>17</v>
       </c>
       <c r="W20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X20">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="Y20">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z20">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AA20">
         <v>980</v>
@@ -4638,88 +4638,88 @@
         <v>8.4</v>
       </c>
       <c r="AC20">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD20">
         <v>9.199999999999999</v>
       </c>
       <c r="AE20">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG20">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AH20">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AI20">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ20">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AK20">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL20">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AM20">
         <v>12.5</v>
       </c>
       <c r="AN20">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AO20">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AP20">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AQ20">
         <v>980</v>
       </c>
       <c r="AR20">
+        <v>13</v>
+      </c>
+      <c r="AS20">
+        <v>18.5</v>
+      </c>
+      <c r="AT20">
         <v>14</v>
       </c>
-      <c r="AS20">
-        <v>980</v>
-      </c>
-      <c r="AT20">
-        <v>11.5</v>
-      </c>
       <c r="AU20">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AV20">
-        <v>4.7</v>
+        <v>26</v>
       </c>
       <c r="AW20">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AX20">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="AY20">
         <v>980</v>
       </c>
       <c r="AZ20">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="BA20">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BB20">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="BC20">
         <v>980</v>
       </c>
       <c r="BD20">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -4766,22 +4766,22 @@
         <v>136</v>
       </c>
       <c r="F21">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G21">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H21">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I21">
         <v>5.7</v>
       </c>
       <c r="J21">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21">
         <v>1.98</v>
@@ -4796,85 +4796,85 @@
         <v>2.02</v>
       </c>
       <c r="P21">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Q21">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R21">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S21">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T21">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U21">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="V21">
+        <v>16</v>
+      </c>
+      <c r="W21">
+        <v>22</v>
+      </c>
+      <c r="X21">
         <v>6</v>
       </c>
-      <c r="W21">
-        <v>21</v>
-      </c>
-      <c r="X21">
-        <v>7</v>
-      </c>
       <c r="Y21">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z21">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AA21">
         <v>980</v>
       </c>
       <c r="AB21">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC21">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD21">
         <v>8</v>
       </c>
       <c r="AE21">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AF21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG21">
+        <v>24</v>
+      </c>
+      <c r="AH21">
+        <v>6.2</v>
+      </c>
+      <c r="AI21">
+        <v>980</v>
+      </c>
+      <c r="AJ21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK21">
+        <v>12</v>
+      </c>
+      <c r="AL21">
+        <v>9</v>
+      </c>
+      <c r="AM21">
+        <v>11</v>
+      </c>
+      <c r="AN21">
+        <v>17</v>
+      </c>
+      <c r="AO21">
         <v>22</v>
       </c>
-      <c r="AH21">
-        <v>7.6</v>
-      </c>
-      <c r="AI21">
-        <v>980</v>
-      </c>
-      <c r="AJ21">
-        <v>4.9</v>
-      </c>
-      <c r="AK21">
-        <v>980</v>
-      </c>
-      <c r="AL21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM21">
-        <v>980</v>
-      </c>
-      <c r="AN21">
-        <v>17.5</v>
-      </c>
-      <c r="AO21">
-        <v>980</v>
-      </c>
       <c r="AP21">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ21">
         <v>980</v>
@@ -4883,40 +4883,40 @@
         <v>16</v>
       </c>
       <c r="AS21">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AT21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU21">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AV21">
-        <v>26</v>
+        <v>5.8</v>
       </c>
       <c r="AW21">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AX21">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AY21">
         <v>980</v>
       </c>
       <c r="AZ21">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="BA21">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="BB21">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="BC21">
         <v>980</v>
       </c>
       <c r="BD21">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -4963,52 +4963,52 @@
         <v>137</v>
       </c>
       <c r="F22">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G22">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H22">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="I22">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="J22">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K22">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L22">
         <v>1.72</v>
       </c>
       <c r="M22">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N22">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O22">
         <v>2.4</v>
       </c>
       <c r="P22">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q22">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R22">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S22">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="U22">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="V22">
         <v>6.4</v>
@@ -5017,103 +5017,103 @@
         <v>8.6</v>
       </c>
       <c r="X22">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="Y22">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z22">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="AA22">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB22">
         <v>11.5</v>
       </c>
       <c r="AC22">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AD22">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE22">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF22">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG22">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH22">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI22">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ22">
         <v>23</v>
       </c>
       <c r="AK22">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL22">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM22">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AN22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO22">
         <v>27</v>
       </c>
       <c r="AP22">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ22">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AR22">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT22">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AU22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV22">
-        <v>1.41</v>
+        <v>4.5</v>
       </c>
       <c r="AW22">
         <v>980</v>
       </c>
       <c r="AX22">
-        <v>1.43</v>
+        <v>4.6</v>
       </c>
       <c r="AY22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ22">
-        <v>1.38</v>
+        <v>4.5</v>
       </c>
       <c r="BA22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB22">
-        <v>1.38</v>
+        <v>3.9</v>
       </c>
       <c r="BC22">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="BD22">
-        <v>1.38</v>
+        <v>4.7</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5166,16 +5166,16 @@
         <v>1.28</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K23">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="L23">
         <v>2.08</v>
@@ -5196,7 +5196,7 @@
         <v>2.8</v>
       </c>
       <c r="R23">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S23">
         <v>1.64</v>
@@ -5211,13 +5211,13 @@
         <v>1.69</v>
       </c>
       <c r="W23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X23">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Y23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z23">
         <v>1.75</v>
@@ -5232,19 +5232,19 @@
         <v>7.6</v>
       </c>
       <c r="AD23">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="AE23">
         <v>980</v>
       </c>
       <c r="AF23">
-        <v>1.72</v>
+        <v>6.6</v>
       </c>
       <c r="AG23">
         <v>980</v>
       </c>
       <c r="AH23">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AI23">
         <v>980</v>
@@ -5256,10 +5256,10 @@
         <v>980</v>
       </c>
       <c r="AL23">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AM23">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN23">
         <v>1.71</v>
@@ -5268,7 +5268,7 @@
         <v>980</v>
       </c>
       <c r="AP23">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>980</v>
@@ -5283,7 +5283,7 @@
         <v>5.3</v>
       </c>
       <c r="AU23">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AV23">
         <v>1.72</v>
@@ -5292,13 +5292,13 @@
         <v>980</v>
       </c>
       <c r="AX23">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AY23">
         <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="BA23">
         <v>980</v>
@@ -5310,7 +5310,7 @@
         <v>1000</v>
       </c>
       <c r="BD23">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5360,154 +5360,154 @@
         <v>1.28</v>
       </c>
       <c r="G24">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="J24">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>1.76</v>
+      </c>
+      <c r="M24">
+        <v>2.02</v>
+      </c>
+      <c r="N24">
+        <v>1.98</v>
+      </c>
+      <c r="O24">
+        <v>2.32</v>
+      </c>
+      <c r="P24">
+        <v>2.58</v>
+      </c>
+      <c r="Q24">
+        <v>3.2</v>
+      </c>
+      <c r="R24">
+        <v>1.46</v>
+      </c>
+      <c r="S24">
+        <v>1.63</v>
+      </c>
+      <c r="T24">
+        <v>10.5</v>
+      </c>
+      <c r="U24">
+        <v>16</v>
+      </c>
+      <c r="V24">
+        <v>5.1</v>
+      </c>
+      <c r="W24">
+        <v>980</v>
+      </c>
+      <c r="X24">
+        <v>5.6</v>
+      </c>
+      <c r="Y24">
+        <v>980</v>
+      </c>
+      <c r="Z24">
+        <v>5.8</v>
+      </c>
+      <c r="AA24">
+        <v>1000</v>
+      </c>
+      <c r="AB24">
+        <v>5.2</v>
+      </c>
+      <c r="AC24">
+        <v>6.4</v>
+      </c>
+      <c r="AD24">
+        <v>10.5</v>
+      </c>
+      <c r="AE24">
+        <v>16</v>
+      </c>
+      <c r="AF24">
+        <v>5.4</v>
+      </c>
+      <c r="AG24">
+        <v>980</v>
+      </c>
+      <c r="AH24">
+        <v>5.7</v>
+      </c>
+      <c r="AI24">
+        <v>1000</v>
+      </c>
+      <c r="AJ24">
+        <v>5.3</v>
+      </c>
+      <c r="AK24">
         <v>7</v>
       </c>
-      <c r="L24">
-        <v>1.73</v>
-      </c>
-      <c r="M24">
-        <v>2.14</v>
-      </c>
-      <c r="N24">
-        <v>1.89</v>
-      </c>
-      <c r="O24">
-        <v>4.6</v>
-      </c>
-      <c r="P24">
-        <v>2.66</v>
-      </c>
-      <c r="Q24">
-        <v>3.25</v>
-      </c>
-      <c r="R24">
-        <v>1.45</v>
-      </c>
-      <c r="S24">
-        <v>1.6</v>
-      </c>
-      <c r="T24">
-        <v>3.85</v>
-      </c>
-      <c r="U24">
-        <v>980</v>
-      </c>
-      <c r="V24">
-        <v>4.5</v>
-      </c>
-      <c r="W24">
-        <v>980</v>
-      </c>
-      <c r="X24">
-        <v>2.16</v>
-      </c>
-      <c r="Y24">
-        <v>1000</v>
-      </c>
-      <c r="Z24">
-        <v>2.18</v>
-      </c>
-      <c r="AA24">
-        <v>1000</v>
-      </c>
-      <c r="AB24">
-        <v>4.7</v>
-      </c>
-      <c r="AC24">
-        <v>980</v>
-      </c>
-      <c r="AD24">
-        <v>3.85</v>
-      </c>
-      <c r="AE24">
-        <v>980</v>
-      </c>
-      <c r="AF24">
-        <v>2.14</v>
-      </c>
-      <c r="AG24">
-        <v>980</v>
-      </c>
-      <c r="AH24">
-        <v>2.18</v>
-      </c>
-      <c r="AI24">
-        <v>1000</v>
-      </c>
-      <c r="AJ24">
-        <v>4.8</v>
-      </c>
-      <c r="AK24">
-        <v>7.4</v>
-      </c>
       <c r="AL24">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AM24">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN24">
-        <v>2.18</v>
+        <v>5.3</v>
       </c>
       <c r="AO24">
         <v>980</v>
       </c>
       <c r="AP24">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="AQ24">
         <v>1000</v>
       </c>
       <c r="AR24">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AS24">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AT24">
-        <v>4.1</v>
+        <v>14.5</v>
       </c>
       <c r="AU24">
         <v>980</v>
       </c>
       <c r="AV24">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="AW24">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX24">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="AY24">
         <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="BA24">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB24">
-        <v>2.18</v>
+        <v>5.8</v>
       </c>
       <c r="BC24">
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>2.18</v>
+        <v>5.8</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5554,13 +5554,13 @@
         <v>140</v>
       </c>
       <c r="F25">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G25">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H25">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -5572,7 +5572,7 @@
         <v>5.5</v>
       </c>
       <c r="L25">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="M25">
         <v>2.22</v>
@@ -5581,64 +5581,64 @@
         <v>1.82</v>
       </c>
       <c r="O25">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="P25">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q25">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R25">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="S25">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="U25">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="V25">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="W25">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="X25">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z25">
-        <v>1.44</v>
+        <v>7</v>
       </c>
       <c r="AA25">
         <v>980</v>
       </c>
       <c r="AB25">
+        <v>6.4</v>
+      </c>
+      <c r="AC25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD25">
+        <v>10.5</v>
+      </c>
+      <c r="AE25">
+        <v>13</v>
+      </c>
+      <c r="AF25">
         <v>6</v>
       </c>
-      <c r="AC25">
-        <v>980</v>
-      </c>
-      <c r="AD25">
-        <v>9.4</v>
-      </c>
-      <c r="AE25">
-        <v>980</v>
-      </c>
-      <c r="AF25">
-        <v>3.55</v>
-      </c>
       <c r="AG25">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AH25">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI25">
         <v>980</v>
@@ -5650,61 +5650,61 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AL25">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM25">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AN25">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO25">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AP25">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AQ25">
         <v>980</v>
       </c>
       <c r="AR25">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS25">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AT25">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AU25">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AV25">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AW25">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX25">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ25">
-        <v>1.23</v>
+        <v>3.7</v>
       </c>
       <c r="BA25">
         <v>7.8</v>
       </c>
       <c r="BB25">
-        <v>1.37</v>
+        <v>6.8</v>
       </c>
       <c r="BC25">
         <v>980</v>
       </c>
       <c r="BD25">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -5751,16 +5751,16 @@
         <v>141</v>
       </c>
       <c r="F26">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G26">
         <v>1.2</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J26">
         <v>7.4</v>
@@ -5772,25 +5772,25 @@
         <v>2.2</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="N26">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O26">
         <v>1.84</v>
       </c>
       <c r="P26">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="Q26">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R26">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S26">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="T26">
         <v>16</v>
@@ -5799,28 +5799,28 @@
         <v>25</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="W26">
         <v>75</v>
       </c>
       <c r="X26">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y26">
         <v>980</v>
       </c>
       <c r="Z26">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AA26">
         <v>1000</v>
       </c>
       <c r="AB26">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC26">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26">
         <v>15.5</v>
@@ -5829,19 +5829,19 @@
         <v>24</v>
       </c>
       <c r="AF26">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AG26">
         <v>980</v>
       </c>
       <c r="AH26">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AI26">
         <v>1000</v>
       </c>
       <c r="AJ26">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="AK26">
         <v>7.4</v>
@@ -5853,13 +5853,13 @@
         <v>16.5</v>
       </c>
       <c r="AN26">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO26">
         <v>85</v>
       </c>
       <c r="AP26">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AQ26">
         <v>980</v>
@@ -5877,31 +5877,31 @@
         <v>21</v>
       </c>
       <c r="AV26">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AW26">
         <v>980</v>
       </c>
       <c r="AX26">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AY26">
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="BA26">
         <v>4.7</v>
       </c>
       <c r="BB26">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BC26">
         <v>1000</v>
       </c>
       <c r="BD26">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -5948,157 +5948,157 @@
         <v>142</v>
       </c>
       <c r="F27">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H27">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I27">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
         <v>1.62</v>
       </c>
       <c r="M27">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N27">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="O27">
         <v>2.6</v>
       </c>
       <c r="P27">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q27">
         <v>2.26</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S27">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T27">
         <v>7.6</v>
       </c>
       <c r="U27">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="V27">
-        <v>3.35</v>
+        <v>9.4</v>
       </c>
       <c r="W27">
         <v>980</v>
       </c>
       <c r="X27">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="Y27">
         <v>980</v>
       </c>
       <c r="Z27">
-        <v>2.54</v>
+        <v>4.8</v>
       </c>
       <c r="AA27">
         <v>980</v>
       </c>
       <c r="AB27">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AC27">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE27">
         <v>980</v>
       </c>
       <c r="AF27">
-        <v>3.55</v>
+        <v>13</v>
       </c>
       <c r="AG27">
         <v>980</v>
       </c>
       <c r="AH27">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="AI27">
         <v>980</v>
       </c>
       <c r="AJ27">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK27">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL27">
-        <v>3.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM27">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AN27">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AO27">
         <v>980</v>
       </c>
       <c r="AP27">
-        <v>2.52</v>
+        <v>4.7</v>
       </c>
       <c r="AQ27">
         <v>980</v>
       </c>
       <c r="AR27">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="AS27">
         <v>980</v>
       </c>
       <c r="AT27">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="AU27">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV27">
-        <v>2.58</v>
+        <v>4.6</v>
       </c>
       <c r="AW27">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX27">
-        <v>2.56</v>
+        <v>4.9</v>
       </c>
       <c r="AY27">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ27">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="BA27">
         <v>980</v>
       </c>
       <c r="BB27">
-        <v>2.52</v>
+        <v>4.7</v>
       </c>
       <c r="BC27">
         <v>980</v>
       </c>
       <c r="BD27">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6148,64 +6148,64 @@
         <v>3.05</v>
       </c>
       <c r="G28">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H28">
         <v>2.58</v>
       </c>
       <c r="I28">
+        <v>2.8</v>
+      </c>
+      <c r="J28">
+        <v>3.05</v>
+      </c>
+      <c r="K28">
+        <v>3.2</v>
+      </c>
+      <c r="L28">
+        <v>1.55</v>
+      </c>
+      <c r="M28">
+        <v>1.68</v>
+      </c>
+      <c r="N28">
+        <v>2.46</v>
+      </c>
+      <c r="O28">
         <v>2.82</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>3.3</v>
-      </c>
-      <c r="L28">
-        <v>1.56</v>
-      </c>
-      <c r="M28">
-        <v>1.82</v>
-      </c>
-      <c r="N28">
-        <v>2.22</v>
-      </c>
-      <c r="O28">
-        <v>2.78</v>
-      </c>
       <c r="P28">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q28">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R28">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S28">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T28">
         <v>8</v>
       </c>
       <c r="U28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V28">
         <v>7.6</v>
       </c>
       <c r="W28">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="X28">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y28">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z28">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AA28">
         <v>55</v>
@@ -6214,13 +6214,13 @@
         <v>8.6</v>
       </c>
       <c r="AC28">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD28">
         <v>6.4</v>
       </c>
       <c r="AE28">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AF28">
         <v>11.5</v>
@@ -6229,7 +6229,7 @@
         <v>16</v>
       </c>
       <c r="AH28">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="AI28">
         <v>46</v>
@@ -6238,7 +6238,7 @@
         <v>15</v>
       </c>
       <c r="AK28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL28">
         <v>11.5</v>
@@ -6247,55 +6247,55 @@
         <v>18</v>
       </c>
       <c r="AN28">
-        <v>3.7</v>
+        <v>18.5</v>
       </c>
       <c r="AO28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP28">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AQ28">
         <v>980</v>
       </c>
       <c r="AR28">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AS28">
         <v>980</v>
       </c>
       <c r="AT28">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AU28">
         <v>60</v>
       </c>
       <c r="AV28">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AW28">
         <v>980</v>
       </c>
       <c r="AX28">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AY28">
         <v>980</v>
       </c>
       <c r="AZ28">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BA28">
         <v>980</v>
       </c>
       <c r="BB28">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="BC28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BD28">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="BE28">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
@@ -1023,157 +1023,157 @@
         <v>117</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>410</v>
+        <v>6.6</v>
       </c>
       <c r="H2">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="I2">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="J2">
         <v>4.5</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L2">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="N2">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="P2">
-        <v>1.14</v>
+        <v>1.84</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="R2">
-        <v>1.14</v>
+        <v>2.02</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.42</v>
+        <v>3.75</v>
       </c>
       <c r="U2">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="V2">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="W2">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="X2">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="Y2">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z2">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AA2">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB2">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AC2">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AD2">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AE2">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF2">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AG2">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AI2">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AJ2">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AK2">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL2">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AM2">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AN2">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AO2">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AP2">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ2">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AR2">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AS2">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AT2">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AU2">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AV2">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AW2">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AX2">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AY2">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BA2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="BB2">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="BC2">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1220,157 +1220,157 @@
         <v>118</v>
       </c>
       <c r="F3">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="G3">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H3">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="I3">
-        <v>980</v>
+        <v>2.9</v>
       </c>
       <c r="J3">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>950</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="M3">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="N3">
+        <v>2.38</v>
+      </c>
+      <c r="O3">
+        <v>2.72</v>
+      </c>
+      <c r="P3">
+        <v>2.02</v>
+      </c>
+      <c r="Q3">
+        <v>2.16</v>
+      </c>
+      <c r="R3">
+        <v>1.86</v>
+      </c>
+      <c r="S3">
         <v>1.98</v>
       </c>
-      <c r="O3">
-        <v>3.95</v>
-      </c>
-      <c r="P3">
-        <v>1.7</v>
-      </c>
-      <c r="Q3">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R3">
-        <v>1.53</v>
-      </c>
-      <c r="S3">
-        <v>2.44</v>
-      </c>
       <c r="T3">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="U3">
         <v>980</v>
       </c>
       <c r="V3">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="W3">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X3">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="Y3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AA3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB3">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="AC3">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD3">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="AE3">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AF3">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="AG3">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH3">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AK3">
         <v>980</v>
       </c>
       <c r="AL3">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="AM3">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AN3">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="AO3">
         <v>980</v>
       </c>
       <c r="AP3">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AQ3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR3">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AS3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT3">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV3">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX3">
+        <v>8.4</v>
+      </c>
+      <c r="AY3">
+        <v>980</v>
+      </c>
+      <c r="AZ3">
+        <v>7.4</v>
+      </c>
+      <c r="BA3">
+        <v>980</v>
+      </c>
+      <c r="BB3">
         <v>7.2</v>
       </c>
-      <c r="AY3">
-        <v>1000</v>
-      </c>
-      <c r="AZ3">
-        <v>1.1</v>
-      </c>
-      <c r="BA3">
-        <v>1000</v>
-      </c>
-      <c r="BB3">
-        <v>1.1</v>
-      </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD3">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1417,40 +1417,40 @@
         <v>119</v>
       </c>
       <c r="F4">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G4">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H4">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I4">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K4">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="M4">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N4">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O4">
         <v>2.02</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -1459,25 +1459,25 @@
         <v>2.18</v>
       </c>
       <c r="T4">
-        <v>3.7</v>
+        <v>12.5</v>
       </c>
       <c r="U4">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>3.85</v>
+        <v>15.5</v>
       </c>
       <c r="W4">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="X4">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>980</v>
       </c>
       <c r="Z4">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AA4">
         <v>980</v>
@@ -1492,16 +1492,16 @@
         <v>7.8</v>
       </c>
       <c r="AE4">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="AG4">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AH4">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AI4">
         <v>980</v>
@@ -1519,55 +1519,55 @@
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>3.9</v>
+        <v>16.5</v>
       </c>
       <c r="AO4">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP4">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AQ4">
         <v>980</v>
       </c>
       <c r="AR4">
+        <v>15.5</v>
+      </c>
+      <c r="AS4">
+        <v>22</v>
+      </c>
+      <c r="AT4">
+        <v>15</v>
+      </c>
+      <c r="AU4">
+        <v>22</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+      <c r="AW4">
+        <v>980</v>
+      </c>
+      <c r="AX4">
+        <v>5.4</v>
+      </c>
+      <c r="AY4">
+        <v>980</v>
+      </c>
+      <c r="AZ4">
         <v>3.85</v>
       </c>
-      <c r="AS4">
-        <v>980</v>
-      </c>
-      <c r="AT4">
-        <v>3.8</v>
-      </c>
-      <c r="AU4">
-        <v>980</v>
-      </c>
-      <c r="AV4">
-        <v>4</v>
-      </c>
-      <c r="AW4">
-        <v>980</v>
-      </c>
-      <c r="AX4">
-        <v>4.3</v>
-      </c>
-      <c r="AY4">
-        <v>1000</v>
-      </c>
-      <c r="AZ4">
-        <v>3.2</v>
-      </c>
       <c r="BA4">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BB4">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="BC4">
         <v>980</v>
       </c>
       <c r="BD4">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1614,157 +1614,157 @@
         <v>120</v>
       </c>
       <c r="F5">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J5">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K5">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L5">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="M5">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="N5">
         <v>1.69</v>
       </c>
       <c r="O5">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="P5">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="Q5">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S5">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T5">
         <v>16.5</v>
       </c>
       <c r="U5">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="V5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W5">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="X5">
-        <v>4.1</v>
+        <v>46</v>
       </c>
       <c r="Y5">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="Z5">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="AA5">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AB5">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC5">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF5">
-        <v>4.6</v>
+        <v>23</v>
       </c>
       <c r="AG5">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH5">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="AI5">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ5">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AK5">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AL5">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AM5">
+        <v>9.6</v>
+      </c>
+      <c r="AN5">
+        <v>20</v>
+      </c>
+      <c r="AO5">
+        <v>23</v>
+      </c>
+      <c r="AP5">
+        <v>12</v>
+      </c>
+      <c r="AQ5">
+        <v>100</v>
+      </c>
+      <c r="AR5">
         <v>12.5</v>
       </c>
-      <c r="AN5">
-        <v>21</v>
-      </c>
-      <c r="AO5">
-        <v>32</v>
-      </c>
-      <c r="AP5">
-        <v>4.2</v>
-      </c>
-      <c r="AQ5">
-        <v>140</v>
-      </c>
-      <c r="AR5">
-        <v>10</v>
-      </c>
       <c r="AS5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT5">
+        <v>13.5</v>
+      </c>
+      <c r="AU5">
+        <v>15.5</v>
+      </c>
+      <c r="AV5">
+        <v>28</v>
+      </c>
+      <c r="AW5">
+        <v>34</v>
+      </c>
+      <c r="AX5">
         <v>12</v>
       </c>
-      <c r="AU5">
-        <v>18</v>
-      </c>
-      <c r="AV5">
-        <v>4.7</v>
-      </c>
-      <c r="AW5">
-        <v>44</v>
-      </c>
-      <c r="AX5">
-        <v>4.2</v>
-      </c>
       <c r="AY5">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AZ5">
-        <v>2.74</v>
+        <v>5.5</v>
       </c>
       <c r="BA5">
         <v>7.4</v>
       </c>
       <c r="BB5">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="BC5">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BD5">
-        <v>4.3</v>
+        <v>32</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1811,64 +1811,64 @@
         <v>121</v>
       </c>
       <c r="F6">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H6">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I6">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="J6">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K6">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="M6">
+        <v>2.28</v>
+      </c>
+      <c r="N6">
+        <v>1.79</v>
+      </c>
+      <c r="O6">
+        <v>1.98</v>
+      </c>
+      <c r="P6">
+        <v>2.06</v>
+      </c>
+      <c r="Q6">
         <v>2.26</v>
       </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>2.04</v>
-      </c>
-      <c r="Q6">
-        <v>2.22</v>
-      </c>
       <c r="R6">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="S6">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U6">
         <v>980</v>
       </c>
       <c r="V6">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X6">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6">
         <v>10.5</v>
@@ -1877,7 +1877,7 @@
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AC6">
         <v>980</v>
@@ -1892,76 +1892,76 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG6">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AI6">
         <v>980</v>
       </c>
       <c r="AJ6">
+        <v>7</v>
+      </c>
+      <c r="AK6">
+        <v>980</v>
+      </c>
+      <c r="AL6">
         <v>6.4</v>
       </c>
-      <c r="AK6">
-        <v>980</v>
-      </c>
-      <c r="AL6">
-        <v>5.8</v>
-      </c>
       <c r="AM6">
         <v>980</v>
       </c>
       <c r="AN6">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AO6">
         <v>980</v>
       </c>
       <c r="AP6">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ6">
         <v>980</v>
       </c>
       <c r="AR6">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AS6">
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AU6">
         <v>1000</v>
       </c>
       <c r="AV6">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AW6">
         <v>980</v>
       </c>
       <c r="AX6">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AY6">
         <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="BA6">
         <v>1000</v>
       </c>
       <c r="BB6">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="BC6">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="BD6">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2008,40 +2008,40 @@
         <v>122</v>
       </c>
       <c r="F7">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="G7">
-        <v>520</v>
+        <v>1.99</v>
       </c>
       <c r="H7">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="I7">
         <v>990</v>
       </c>
       <c r="J7">
-        <v>1.21</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="O7">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="P7">
         <v>1.14</v>
       </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="R7">
         <v>1.14</v>
@@ -2050,7 +2050,7 @@
         <v>9.4</v>
       </c>
       <c r="T7">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="U7">
         <v>980</v>
@@ -2068,7 +2068,7 @@
         <v>1000</v>
       </c>
       <c r="Z7">
-        <v>1.03</v>
+        <v>2.94</v>
       </c>
       <c r="AA7">
         <v>1000</v>
@@ -2092,7 +2092,7 @@
         <v>980</v>
       </c>
       <c r="AH7">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AI7">
         <v>1000</v>
@@ -2110,13 +2110,13 @@
         <v>980</v>
       </c>
       <c r="AN7">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO7">
         <v>980</v>
       </c>
       <c r="AP7">
-        <v>1.03</v>
+        <v>7.8</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
@@ -2128,19 +2128,19 @@
         <v>1000</v>
       </c>
       <c r="AT7">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="AU7">
         <v>1000</v>
       </c>
       <c r="AV7">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AW7">
         <v>1000</v>
       </c>
       <c r="AX7">
-        <v>1.03</v>
+        <v>20</v>
       </c>
       <c r="AY7">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         <v>1000</v>
       </c>
       <c r="BB7">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BC7">
         <v>1000</v>
@@ -2205,22 +2205,22 @@
         <v>123</v>
       </c>
       <c r="F8">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="G8">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="H8">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="I8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>3.6</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2229,25 +2229,25 @@
         <v>2.18</v>
       </c>
       <c r="N8">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O8">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="P8">
         <v>1.68</v>
       </c>
       <c r="Q8">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R8">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="S8">
         <v>2.48</v>
       </c>
       <c r="T8">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="U8">
         <v>15.5</v>
@@ -2256,25 +2256,25 @@
         <v>12.5</v>
       </c>
       <c r="W8">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="X8">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y8">
         <v>21</v>
       </c>
       <c r="Z8">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB8">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC8">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD8">
         <v>7.6</v>
@@ -2289,22 +2289,22 @@
         <v>13</v>
       </c>
       <c r="AH8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ8">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL8">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM8">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN8">
         <v>15</v>
@@ -2313,52 +2313,52 @@
         <v>16</v>
       </c>
       <c r="AP8">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AQ8">
         <v>40</v>
       </c>
       <c r="AR8">
+        <v>32</v>
+      </c>
+      <c r="AS8">
+        <v>38</v>
+      </c>
+      <c r="AT8">
+        <v>23</v>
+      </c>
+      <c r="AU8">
         <v>26</v>
       </c>
-      <c r="AS8">
+      <c r="AV8">
+        <v>29</v>
+      </c>
+      <c r="AW8">
         <v>36</v>
       </c>
-      <c r="AT8">
-        <v>11.5</v>
-      </c>
-      <c r="AU8">
-        <v>29</v>
-      </c>
-      <c r="AV8">
-        <v>6.4</v>
-      </c>
-      <c r="AW8">
-        <v>34</v>
-      </c>
       <c r="AX8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AY8">
         <v>75</v>
       </c>
       <c r="AZ8">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BA8">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BB8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD8">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="BE8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF8">
         <v>33111892</v>
@@ -2402,28 +2402,28 @@
         <v>124</v>
       </c>
       <c r="F9">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G9">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H9">
         <v>2.02</v>
       </c>
       <c r="I9">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J9">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K9">
         <v>3.65</v>
       </c>
       <c r="L9">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M9">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N9">
         <v>2.12</v>
@@ -2432,7 +2432,7 @@
         <v>2.22</v>
       </c>
       <c r="P9">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q9">
         <v>1.99</v>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="W9">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X9">
         <v>10.5</v>
@@ -2471,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="AC9">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD9">
         <v>7.2</v>
@@ -2492,10 +2492,10 @@
         <v>22</v>
       </c>
       <c r="AJ9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL9">
         <v>16</v>
@@ -2507,43 +2507,43 @@
         <v>18.5</v>
       </c>
       <c r="AO9">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP9">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AQ9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR9">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS9">
         <v>95</v>
       </c>
       <c r="AT9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AU9">
         <v>60</v>
       </c>
       <c r="AV9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW9">
         <v>70</v>
       </c>
       <c r="AX9">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AY9">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AZ9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB9">
         <v>14.5</v>
@@ -2552,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="BD9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2599,157 +2599,157 @@
         <v>125</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I10">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="J10">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="M10">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="N10">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="O10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q10">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R10">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S10">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T10">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U10">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="V10">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="W10">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="X10">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y10">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z10">
-        <v>3.45</v>
+        <v>12</v>
       </c>
       <c r="AA10">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AB10">
-        <v>3.95</v>
+        <v>18</v>
       </c>
       <c r="AC10">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AD10">
         <v>8.4</v>
       </c>
       <c r="AE10">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AF10">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH10">
-        <v>3.9</v>
+        <v>15</v>
       </c>
       <c r="AI10">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AJ10">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AK10">
         <v>980</v>
       </c>
       <c r="AL10">
-        <v>3.95</v>
+        <v>23</v>
       </c>
       <c r="AM10">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AN10">
-        <v>3.9</v>
+        <v>21</v>
       </c>
       <c r="AO10">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AP10">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AQ10">
         <v>980</v>
       </c>
       <c r="AR10">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AS10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT10">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AU10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV10">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AW10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX10">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AY10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ10">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="BA10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB10">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BC10">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="BD10">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -2796,58 +2796,58 @@
         <v>126</v>
       </c>
       <c r="F11">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="H11">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="M11">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>2.18</v>
       </c>
       <c r="P11">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="Q11">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="R11">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T11">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U11">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V11">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="W11">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="X11">
         <v>6</v>
@@ -2856,97 +2856,97 @@
         <v>980</v>
       </c>
       <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>980</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>9.4</v>
+      </c>
+      <c r="AD11">
+        <v>7.4</v>
+      </c>
+      <c r="AE11">
+        <v>9</v>
+      </c>
+      <c r="AF11">
+        <v>14.5</v>
+      </c>
+      <c r="AG11">
+        <v>19.5</v>
+      </c>
+      <c r="AH11">
+        <v>6.6</v>
+      </c>
+      <c r="AI11">
+        <v>980</v>
+      </c>
+      <c r="AJ11">
+        <v>9.6</v>
+      </c>
+      <c r="AK11">
+        <v>13</v>
+      </c>
+      <c r="AL11">
+        <v>9</v>
+      </c>
+      <c r="AM11">
+        <v>11.5</v>
+      </c>
+      <c r="AN11">
+        <v>15.5</v>
+      </c>
+      <c r="AO11">
+        <v>980</v>
+      </c>
+      <c r="AP11">
+        <v>6.8</v>
+      </c>
+      <c r="AQ11">
+        <v>980</v>
+      </c>
+      <c r="AR11">
+        <v>18.5</v>
+      </c>
+      <c r="AS11">
+        <v>980</v>
+      </c>
+      <c r="AT11">
+        <v>6</v>
+      </c>
+      <c r="AU11">
+        <v>980</v>
+      </c>
+      <c r="AV11">
         <v>6.4</v>
       </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>6.8</v>
-      </c>
-      <c r="AC11">
-        <v>980</v>
-      </c>
-      <c r="AD11">
-        <v>7.8</v>
-      </c>
-      <c r="AE11">
-        <v>980</v>
-      </c>
-      <c r="AF11">
-        <v>5.7</v>
-      </c>
-      <c r="AG11">
-        <v>980</v>
-      </c>
-      <c r="AH11">
-        <v>6.2</v>
-      </c>
-      <c r="AI11">
-        <v>1000</v>
-      </c>
-      <c r="AJ11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK11">
-        <v>980</v>
-      </c>
-      <c r="AL11">
-        <v>8.6</v>
-      </c>
-      <c r="AM11">
-        <v>980</v>
-      </c>
-      <c r="AN11">
-        <v>5.4</v>
-      </c>
-      <c r="AO11">
-        <v>980</v>
-      </c>
-      <c r="AP11">
-        <v>6.2</v>
-      </c>
-      <c r="AQ11">
-        <v>1000</v>
-      </c>
-      <c r="AR11">
+      <c r="AW11">
+        <v>980</v>
+      </c>
+      <c r="AX11">
+        <v>7</v>
+      </c>
+      <c r="AY11">
+        <v>980</v>
+      </c>
+      <c r="AZ11">
         <v>5.2</v>
       </c>
-      <c r="AS11">
-        <v>980</v>
-      </c>
-      <c r="AT11">
-        <v>5.1</v>
-      </c>
-      <c r="AU11">
-        <v>980</v>
-      </c>
-      <c r="AV11">
-        <v>5.8</v>
-      </c>
-      <c r="AW11">
-        <v>980</v>
-      </c>
-      <c r="AX11">
-        <v>6.4</v>
-      </c>
-      <c r="AY11">
-        <v>1000</v>
-      </c>
-      <c r="AZ11">
-        <v>4.2</v>
-      </c>
       <c r="BA11">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="BB11">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="BC11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD11">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2993,157 +2993,157 @@
         <v>127</v>
       </c>
       <c r="F12">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="G12">
+        <v>3.35</v>
+      </c>
+      <c r="H12">
+        <v>2.06</v>
+      </c>
+      <c r="I12">
+        <v>2.28</v>
+      </c>
+      <c r="J12">
+        <v>4.1</v>
+      </c>
+      <c r="K12">
+        <v>4.8</v>
+      </c>
+      <c r="L12">
+        <v>2.8</v>
+      </c>
+      <c r="M12">
+        <v>3.3</v>
+      </c>
+      <c r="N12">
+        <v>1.43</v>
+      </c>
+      <c r="O12">
+        <v>1.56</v>
+      </c>
+      <c r="P12">
+        <v>1.43</v>
+      </c>
+      <c r="Q12">
+        <v>1.57</v>
+      </c>
+      <c r="R12">
+        <v>2.76</v>
+      </c>
+      <c r="S12">
+        <v>3.3</v>
+      </c>
+      <c r="T12">
+        <v>3.05</v>
+      </c>
+      <c r="U12">
+        <v>980</v>
+      </c>
+      <c r="V12">
+        <v>3.85</v>
+      </c>
+      <c r="W12">
+        <v>980</v>
+      </c>
+      <c r="X12">
+        <v>3.85</v>
+      </c>
+      <c r="Y12">
+        <v>980</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>980</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>980</v>
+      </c>
+      <c r="AD12">
+        <v>3.55</v>
+      </c>
+      <c r="AE12">
+        <v>980</v>
+      </c>
+      <c r="AF12">
+        <v>9.6</v>
+      </c>
+      <c r="AG12">
+        <v>980</v>
+      </c>
+      <c r="AH12">
+        <v>3.9</v>
+      </c>
+      <c r="AI12">
+        <v>980</v>
+      </c>
+      <c r="AJ12">
         <v>4.2</v>
       </c>
-      <c r="H12">
-        <v>2.24</v>
-      </c>
-      <c r="I12">
-        <v>3.2</v>
-      </c>
-      <c r="J12">
-        <v>3.15</v>
-      </c>
-      <c r="K12">
-        <v>5.4</v>
-      </c>
-      <c r="L12">
-        <v>1.8</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>1.1</v>
-      </c>
-      <c r="O12">
-        <v>2.26</v>
-      </c>
-      <c r="P12">
-        <v>1.14</v>
-      </c>
-      <c r="Q12">
-        <v>1000</v>
-      </c>
-      <c r="R12">
-        <v>1.14</v>
-      </c>
-      <c r="S12">
-        <v>1000</v>
-      </c>
-      <c r="T12">
-        <v>1.01</v>
-      </c>
-      <c r="U12">
-        <v>1000</v>
-      </c>
-      <c r="V12">
-        <v>1.01</v>
-      </c>
-      <c r="W12">
-        <v>1000</v>
-      </c>
-      <c r="X12">
-        <v>1.01</v>
-      </c>
-      <c r="Y12">
-        <v>1000</v>
-      </c>
-      <c r="Z12">
-        <v>1.01</v>
-      </c>
-      <c r="AA12">
-        <v>1000</v>
-      </c>
-      <c r="AB12">
-        <v>1.01</v>
-      </c>
-      <c r="AC12">
-        <v>1000</v>
-      </c>
-      <c r="AD12">
-        <v>9</v>
-      </c>
-      <c r="AE12">
-        <v>1000</v>
-      </c>
-      <c r="AF12">
-        <v>1.02</v>
-      </c>
-      <c r="AG12">
-        <v>1000</v>
-      </c>
-      <c r="AH12">
-        <v>1.01</v>
-      </c>
-      <c r="AI12">
-        <v>1000</v>
-      </c>
-      <c r="AJ12">
-        <v>1.01</v>
-      </c>
       <c r="AK12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL12">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="AM12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN12">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="AO12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP12">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR12">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AS12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT12">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AU12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV12">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AW12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX12">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AY12">
         <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="BA12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="BC12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD12">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3190,157 +3190,157 @@
         <v>128</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="G13">
         <v>2.62</v>
       </c>
       <c r="H13">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="I13">
+        <v>2.96</v>
+      </c>
+      <c r="J13">
+        <v>3.75</v>
+      </c>
+      <c r="K13">
+        <v>4.3</v>
+      </c>
+      <c r="L13">
+        <v>2.36</v>
+      </c>
+      <c r="M13">
+        <v>2.7</v>
+      </c>
+      <c r="N13">
+        <v>1.59</v>
+      </c>
+      <c r="O13">
+        <v>1.73</v>
+      </c>
+      <c r="P13">
+        <v>1.55</v>
+      </c>
+      <c r="Q13">
+        <v>1.65</v>
+      </c>
+      <c r="R13">
+        <v>2.54</v>
+      </c>
+      <c r="S13">
+        <v>2.82</v>
+      </c>
+      <c r="T13">
+        <v>3.8</v>
+      </c>
+      <c r="U13">
+        <v>980</v>
+      </c>
+      <c r="V13">
+        <v>3.6</v>
+      </c>
+      <c r="W13">
+        <v>980</v>
+      </c>
+      <c r="X13">
+        <v>3.8</v>
+      </c>
+      <c r="Y13">
+        <v>980</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>980</v>
+      </c>
+      <c r="AB13">
+        <v>3.55</v>
+      </c>
+      <c r="AC13">
+        <v>980</v>
+      </c>
+      <c r="AD13">
+        <v>3.3</v>
+      </c>
+      <c r="AE13">
+        <v>11.5</v>
+      </c>
+      <c r="AF13">
+        <v>3.65</v>
+      </c>
+      <c r="AG13">
+        <v>980</v>
+      </c>
+      <c r="AH13">
+        <v>3.9</v>
+      </c>
+      <c r="AI13">
+        <v>980</v>
+      </c>
+      <c r="AJ13">
+        <v>3.65</v>
+      </c>
+      <c r="AK13">
+        <v>980</v>
+      </c>
+      <c r="AL13">
+        <v>3.6</v>
+      </c>
+      <c r="AM13">
+        <v>15</v>
+      </c>
+      <c r="AN13">
+        <v>3.65</v>
+      </c>
+      <c r="AO13">
+        <v>980</v>
+      </c>
+      <c r="AP13">
+        <v>3.9</v>
+      </c>
+      <c r="AQ13">
+        <v>980</v>
+      </c>
+      <c r="AR13">
+        <v>3.95</v>
+      </c>
+      <c r="AS13">
+        <v>980</v>
+      </c>
+      <c r="AT13">
+        <v>3.8</v>
+      </c>
+      <c r="AU13">
+        <v>980</v>
+      </c>
+      <c r="AV13">
+        <v>3.95</v>
+      </c>
+      <c r="AW13">
+        <v>980</v>
+      </c>
+      <c r="AX13">
+        <v>4.2</v>
+      </c>
+      <c r="AY13">
+        <v>980</v>
+      </c>
+      <c r="AZ13">
         <v>3.4</v>
       </c>
-      <c r="J13">
-        <v>3.1</v>
-      </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>1.87</v>
-      </c>
-      <c r="M13">
-        <v>3.8</v>
-      </c>
-      <c r="N13">
-        <v>1.36</v>
-      </c>
-      <c r="O13">
-        <v>2.16</v>
-      </c>
-      <c r="P13">
-        <v>1.14</v>
-      </c>
-      <c r="Q13">
-        <v>1000</v>
-      </c>
-      <c r="R13">
-        <v>1.14</v>
-      </c>
-      <c r="S13">
-        <v>1000</v>
-      </c>
-      <c r="T13">
-        <v>1.48</v>
-      </c>
-      <c r="U13">
-        <v>980</v>
-      </c>
-      <c r="V13">
-        <v>1.1</v>
-      </c>
-      <c r="W13">
-        <v>980</v>
-      </c>
-      <c r="X13">
-        <v>1.1</v>
-      </c>
-      <c r="Y13">
-        <v>1000</v>
-      </c>
-      <c r="Z13">
-        <v>1.1</v>
-      </c>
-      <c r="AA13">
-        <v>1000</v>
-      </c>
-      <c r="AB13">
-        <v>1.1</v>
-      </c>
-      <c r="AC13">
-        <v>980</v>
-      </c>
-      <c r="AD13">
-        <v>1.1</v>
-      </c>
-      <c r="AE13">
-        <v>980</v>
-      </c>
-      <c r="AF13">
-        <v>1.1</v>
-      </c>
-      <c r="AG13">
-        <v>980</v>
-      </c>
-      <c r="AH13">
-        <v>1.1</v>
-      </c>
-      <c r="AI13">
-        <v>1000</v>
-      </c>
-      <c r="AJ13">
-        <v>1.1</v>
-      </c>
-      <c r="AK13">
-        <v>1000</v>
-      </c>
-      <c r="AL13">
-        <v>1.1</v>
-      </c>
-      <c r="AM13">
-        <v>980</v>
-      </c>
-      <c r="AN13">
-        <v>1.1</v>
-      </c>
-      <c r="AO13">
-        <v>980</v>
-      </c>
-      <c r="AP13">
-        <v>6.4</v>
-      </c>
-      <c r="AQ13">
-        <v>1000</v>
-      </c>
-      <c r="AR13">
-        <v>1.1</v>
-      </c>
-      <c r="AS13">
-        <v>1000</v>
-      </c>
-      <c r="AT13">
+      <c r="BA13">
+        <v>980</v>
+      </c>
+      <c r="BB13">
+        <v>3.6</v>
+      </c>
+      <c r="BC13">
+        <v>980</v>
+      </c>
+      <c r="BD13">
         <v>4.3</v>
-      </c>
-      <c r="AU13">
-        <v>1000</v>
-      </c>
-      <c r="AV13">
-        <v>10.5</v>
-      </c>
-      <c r="AW13">
-        <v>1000</v>
-      </c>
-      <c r="AX13">
-        <v>10.5</v>
-      </c>
-      <c r="AY13">
-        <v>1000</v>
-      </c>
-      <c r="AZ13">
-        <v>1.01</v>
-      </c>
-      <c r="BA13">
-        <v>1000</v>
-      </c>
-      <c r="BB13">
-        <v>1.01</v>
-      </c>
-      <c r="BC13">
-        <v>1000</v>
-      </c>
-      <c r="BD13">
-        <v>1.1</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3405,25 +3405,25 @@
         <v>4</v>
       </c>
       <c r="L14">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M14">
+        <v>2.3</v>
+      </c>
+      <c r="N14">
+        <v>1.77</v>
+      </c>
+      <c r="O14">
+        <v>1.87</v>
+      </c>
+      <c r="P14">
+        <v>1.73</v>
+      </c>
+      <c r="Q14">
+        <v>1.79</v>
+      </c>
+      <c r="R14">
         <v>2.28</v>
-      </c>
-      <c r="N14">
-        <v>1.79</v>
-      </c>
-      <c r="O14">
-        <v>1.89</v>
-      </c>
-      <c r="P14">
-        <v>1.74</v>
-      </c>
-      <c r="Q14">
-        <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>2.26</v>
       </c>
       <c r="S14">
         <v>2.36</v>
@@ -3453,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="AB14">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14">
         <v>10.5</v>
@@ -3471,7 +3471,7 @@
         <v>18</v>
       </c>
       <c r="AH14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI14">
         <v>55</v>
@@ -3489,13 +3489,13 @@
         <v>10</v>
       </c>
       <c r="AN14">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO14">
         <v>18.5</v>
       </c>
       <c r="AP14">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ14">
         <v>60</v>
@@ -3510,7 +3510,7 @@
         <v>16.5</v>
       </c>
       <c r="AU14">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AV14">
         <v>28</v>
@@ -3531,7 +3531,7 @@
         <v>11</v>
       </c>
       <c r="BB14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BC14">
         <v>50</v>
@@ -3584,16 +3584,16 @@
         <v>130</v>
       </c>
       <c r="F15">
+        <v>1.44</v>
+      </c>
+      <c r="G15">
         <v>1.45</v>
       </c>
-      <c r="G15">
-        <v>1.46</v>
-      </c>
       <c r="H15">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I15">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J15">
         <v>5.2</v>
@@ -3602,58 +3602,58 @@
         <v>5.3</v>
       </c>
       <c r="L15">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="M15">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="N15">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O15">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="P15">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q15">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R15">
         <v>2.06</v>
       </c>
       <c r="S15">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T15">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="U15">
         <v>21</v>
       </c>
       <c r="V15">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X15">
         <v>60</v>
       </c>
       <c r="Y15">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z15">
         <v>48</v>
       </c>
       <c r="AA15">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AB15">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC15">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD15">
         <v>10.5</v>
@@ -3662,28 +3662,28 @@
         <v>11.5</v>
       </c>
       <c r="AF15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH15">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI15">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ15">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK15">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL15">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM15">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AN15">
         <v>21</v>
@@ -3692,16 +3692,16 @@
         <v>23</v>
       </c>
       <c r="AP15">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ15">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AR15">
         <v>11.5</v>
       </c>
       <c r="AS15">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AT15">
         <v>13</v>
@@ -3716,7 +3716,7 @@
         <v>30</v>
       </c>
       <c r="AX15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AY15">
         <v>120</v>
@@ -3725,7 +3725,7 @@
         <v>5.6</v>
       </c>
       <c r="BA15">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="BB15">
         <v>90</v>
@@ -3734,7 +3734,7 @@
         <v>120</v>
       </c>
       <c r="BD15">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -3781,37 +3781,37 @@
         <v>131</v>
       </c>
       <c r="F16">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G16">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H16">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J16">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K16">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L16">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
         <v>1.46</v>
       </c>
       <c r="O16">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P16">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q16">
         <v>1.84</v>
@@ -3820,7 +3820,7 @@
         <v>2.2</v>
       </c>
       <c r="S16">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T16">
         <v>30</v>
@@ -3832,19 +3832,19 @@
         <v>40</v>
       </c>
       <c r="W16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X16">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y16">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z16">
         <v>55</v>
       </c>
       <c r="AA16">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="AB16">
         <v>12</v>
@@ -3853,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="AD16">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE16">
         <v>14.5</v>
@@ -3862,19 +3862,19 @@
         <v>32</v>
       </c>
       <c r="AG16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH16">
         <v>100</v>
       </c>
       <c r="AI16">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ16">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK16">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL16">
         <v>10</v>
@@ -3895,7 +3895,7 @@
         <v>95</v>
       </c>
       <c r="AR16">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AS16">
         <v>11.5</v>
@@ -3907,31 +3907,31 @@
         <v>12</v>
       </c>
       <c r="AV16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX16">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AY16">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AZ16">
+        <v>3.9</v>
+      </c>
+      <c r="BA16">
         <v>4</v>
       </c>
-      <c r="BA16">
-        <v>4.2</v>
-      </c>
       <c r="BB16">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="BC16">
         <v>100</v>
       </c>
       <c r="BD16">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="BE16">
         <v>980</v>
@@ -3978,37 +3978,37 @@
         <v>132</v>
       </c>
       <c r="F17">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G17">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="H17">
+        <v>4.9</v>
+      </c>
+      <c r="I17">
         <v>5.1</v>
       </c>
-      <c r="I17">
-        <v>5.3</v>
-      </c>
       <c r="J17">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L17">
         <v>2.06</v>
       </c>
       <c r="M17">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="N17">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O17">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="P17">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q17">
         <v>1.9</v>
@@ -4017,7 +4017,7 @@
         <v>2.12</v>
       </c>
       <c r="S17">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T17">
         <v>14</v>
@@ -4026,22 +4026,22 @@
         <v>16</v>
       </c>
       <c r="V17">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="W17">
         <v>19</v>
       </c>
       <c r="X17">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Y17">
         <v>38</v>
       </c>
       <c r="Z17">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA17">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB17">
         <v>8.6</v>
@@ -4053,28 +4053,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AE17">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AF17">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG17">
         <v>19.5</v>
       </c>
       <c r="AH17">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AI17">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ17">
         <v>10</v>
       </c>
       <c r="AK17">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AL17">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM17">
         <v>10</v>
@@ -4083,19 +4083,19 @@
         <v>17.5</v>
       </c>
       <c r="AO17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AP17">
         <v>14</v>
       </c>
       <c r="AQ17">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR17">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AS17">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AT17">
         <v>16.5</v>
@@ -4107,19 +4107,19 @@
         <v>30</v>
       </c>
       <c r="AW17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX17">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AY17">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AZ17">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BA17">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BB17">
         <v>14</v>
@@ -4128,7 +4128,7 @@
         <v>65</v>
       </c>
       <c r="BD17">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4175,37 +4175,37 @@
         <v>133</v>
       </c>
       <c r="F18">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G18">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="H18">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I18">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J18">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K18">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="M18">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="N18">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O18">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="P18">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18">
         <v>1.89</v>
@@ -4214,31 +4214,31 @@
         <v>2.12</v>
       </c>
       <c r="S18">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T18">
         <v>15.5</v>
       </c>
       <c r="U18">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V18">
+        <v>18.5</v>
+      </c>
+      <c r="W18">
         <v>20</v>
       </c>
-      <c r="W18">
-        <v>22</v>
-      </c>
       <c r="X18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z18">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA18">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB18">
         <v>8.6</v>
@@ -4247,28 +4247,28 @@
         <v>9.6</v>
       </c>
       <c r="AD18">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE18">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF18">
+        <v>18.5</v>
+      </c>
+      <c r="AG18">
         <v>20</v>
       </c>
-      <c r="AG18">
-        <v>22</v>
-      </c>
       <c r="AH18">
+        <v>55</v>
+      </c>
+      <c r="AI18">
         <v>65</v>
       </c>
-      <c r="AI18">
-        <v>75</v>
-      </c>
       <c r="AJ18">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AK18">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AL18">
         <v>9.4</v>
@@ -4277,55 +4277,55 @@
         <v>9.6</v>
       </c>
       <c r="AN18">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO18">
         <v>20</v>
       </c>
       <c r="AP18">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ18">
         <v>70</v>
       </c>
       <c r="AR18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS18">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AT18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU18">
         <v>17</v>
       </c>
       <c r="AV18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AX18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AY18">
         <v>100</v>
       </c>
       <c r="AZ18">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BA18">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB18">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BC18">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BD18">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="BE18">
         <v>1000</v>
@@ -4372,16 +4372,16 @@
         <v>134</v>
       </c>
       <c r="F19">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G19">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H19">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J19">
         <v>3.65</v>
@@ -4390,28 +4390,28 @@
         <v>3.7</v>
       </c>
       <c r="L19">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N19">
         <v>2.24</v>
       </c>
       <c r="O19">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="P19">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q19">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R19">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S19">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T19">
         <v>10.5</v>
@@ -4420,16 +4420,16 @@
         <v>11.5</v>
       </c>
       <c r="V19">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W19">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19">
         <v>40</v>
@@ -4444,13 +4444,13 @@
         <v>7.6</v>
       </c>
       <c r="AD19">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE19">
         <v>8</v>
       </c>
       <c r="AF19">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG19">
         <v>20</v>
@@ -4459,13 +4459,13 @@
         <v>65</v>
       </c>
       <c r="AI19">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ19">
         <v>9.199999999999999</v>
       </c>
       <c r="AK19">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AL19">
         <v>10</v>
@@ -4483,13 +4483,13 @@
         <v>36</v>
       </c>
       <c r="AQ19">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AR19">
         <v>18</v>
       </c>
       <c r="AS19">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AT19">
         <v>19.5</v>
@@ -4510,16 +4510,16 @@
         <v>150</v>
       </c>
       <c r="AZ19">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA19">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BB19">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="BC19">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD19">
         <v>26</v>
@@ -4569,67 +4569,67 @@
         <v>135</v>
       </c>
       <c r="F20">
+        <v>1.51</v>
+      </c>
+      <c r="G20">
         <v>1.57</v>
       </c>
-      <c r="G20">
-        <v>1.62</v>
-      </c>
       <c r="H20">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I20">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J20">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K20">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>2.18</v>
       </c>
       <c r="M20">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="N20">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="O20">
         <v>1.84</v>
       </c>
       <c r="P20">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q20">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V20">
-        <v>17</v>
+        <v>6.2</v>
       </c>
       <c r="W20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y20">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z20">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA20">
         <v>980</v>
@@ -4638,88 +4638,88 @@
         <v>8.4</v>
       </c>
       <c r="AC20">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD20">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE20">
+        <v>11</v>
+      </c>
+      <c r="AF20">
+        <v>22</v>
+      </c>
+      <c r="AG20">
+        <v>32</v>
+      </c>
+      <c r="AH20">
+        <v>7.4</v>
+      </c>
+      <c r="AI20">
+        <v>120</v>
+      </c>
+      <c r="AJ20">
+        <v>8.4</v>
+      </c>
+      <c r="AK20">
+        <v>9.6</v>
+      </c>
+      <c r="AL20">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM20">
+        <v>10.5</v>
+      </c>
+      <c r="AN20">
+        <v>20</v>
+      </c>
+      <c r="AO20">
+        <v>28</v>
+      </c>
+      <c r="AP20">
+        <v>7.2</v>
+      </c>
+      <c r="AQ20">
+        <v>110</v>
+      </c>
+      <c r="AR20">
         <v>12.5</v>
       </c>
-      <c r="AF20">
-        <v>21</v>
-      </c>
-      <c r="AG20">
-        <v>30</v>
-      </c>
-      <c r="AH20">
-        <v>4.1</v>
-      </c>
-      <c r="AI20">
-        <v>110</v>
-      </c>
-      <c r="AJ20">
-        <v>8.6</v>
-      </c>
-      <c r="AK20">
-        <v>12</v>
-      </c>
-      <c r="AL20">
-        <v>9</v>
-      </c>
-      <c r="AM20">
-        <v>12.5</v>
-      </c>
-      <c r="AN20">
-        <v>19.5</v>
-      </c>
-      <c r="AO20">
-        <v>27</v>
-      </c>
-      <c r="AP20">
-        <v>4.1</v>
-      </c>
-      <c r="AQ20">
-        <v>980</v>
-      </c>
-      <c r="AR20">
-        <v>13</v>
-      </c>
       <c r="AS20">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AT20">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AU20">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AV20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW20">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX20">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="AY20">
         <v>980</v>
       </c>
       <c r="AZ20">
-        <v>2.96</v>
+        <v>3.75</v>
       </c>
       <c r="BA20">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="BB20">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="BC20">
         <v>980</v>
       </c>
       <c r="BD20">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -4766,46 +4766,46 @@
         <v>136</v>
       </c>
       <c r="F21">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="G21">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="H21">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="J21">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K21">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2.18</v>
+      </c>
+      <c r="N21">
+        <v>1.85</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1.86</v>
+      </c>
+      <c r="Q21">
         <v>1.98</v>
       </c>
-      <c r="M21">
-        <v>2.22</v>
-      </c>
-      <c r="N21">
-        <v>1.82</v>
-      </c>
-      <c r="O21">
+      <c r="R21">
         <v>2.02</v>
       </c>
-      <c r="P21">
-        <v>1.81</v>
-      </c>
-      <c r="Q21">
-        <v>1.93</v>
-      </c>
-      <c r="R21">
-        <v>2.08</v>
-      </c>
       <c r="S21">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T21">
         <v>14</v>
@@ -4814,43 +4814,43 @@
         <v>17.5</v>
       </c>
       <c r="V21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X21">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="Y21">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z21">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA21">
         <v>980</v>
       </c>
       <c r="AB21">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC21">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21">
         <v>8</v>
       </c>
       <c r="AE21">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF21">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH21">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="AI21">
         <v>980</v>
@@ -4859,64 +4859,64 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK21">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AL21">
         <v>9</v>
       </c>
       <c r="AM21">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP21">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="AQ21">
         <v>980</v>
       </c>
       <c r="AR21">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AS21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV21">
-        <v>5.8</v>
+        <v>27</v>
       </c>
       <c r="AW21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AX21">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AY21">
         <v>980</v>
       </c>
       <c r="AZ21">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BA21">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="BB21">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="BC21">
         <v>980</v>
       </c>
       <c r="BD21">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -4963,25 +4963,25 @@
         <v>137</v>
       </c>
       <c r="F22">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G22">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H22">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I22">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="J22">
         <v>3.4</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L22">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M22">
         <v>1.85</v>
@@ -4990,130 +4990,130 @@
         <v>2.18</v>
       </c>
       <c r="O22">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="P22">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R22">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S22">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>9.4</v>
       </c>
       <c r="U22">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="V22">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="W22">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y22">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z22">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AA22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB22">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC22">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD22">
         <v>6.8</v>
       </c>
       <c r="AE22">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF22">
         <v>9.4</v>
       </c>
       <c r="AG22">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH22">
         <v>19.5</v>
       </c>
       <c r="AI22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ22">
-        <v>23</v>
+        <v>5.7</v>
       </c>
       <c r="AK22">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL22">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM22">
         <v>24</v>
       </c>
       <c r="AN22">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AO22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP22">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="AQ22">
         <v>60</v>
       </c>
       <c r="AR22">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="AS22">
         <v>980</v>
       </c>
       <c r="AT22">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AU22">
         <v>980</v>
       </c>
       <c r="AV22">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="AW22">
         <v>980</v>
       </c>
       <c r="AX22">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="AY22">
         <v>980</v>
       </c>
       <c r="AZ22">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="BA22">
         <v>980</v>
       </c>
       <c r="BB22">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="BC22">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BD22">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5160,115 +5160,115 @@
         <v>138</v>
       </c>
       <c r="F23">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="G23">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="H23">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="I23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J23">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="K23">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="M23">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="N23">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O23">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="P23">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="Q23">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="R23">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S23">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="T23">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="U23">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="V23">
-        <v>1.69</v>
+        <v>7.2</v>
       </c>
       <c r="W23">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X23">
-        <v>1.74</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>980</v>
       </c>
       <c r="Z23">
-        <v>1.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA23">
         <v>1000</v>
       </c>
       <c r="AB23">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC23">
+        <v>8</v>
+      </c>
+      <c r="AD23">
+        <v>15.5</v>
+      </c>
+      <c r="AE23">
+        <v>22</v>
+      </c>
+      <c r="AF23">
         <v>7.6</v>
       </c>
-      <c r="AD23">
+      <c r="AG23">
+        <v>85</v>
+      </c>
+      <c r="AH23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AI23">
+        <v>980</v>
+      </c>
+      <c r="AJ23">
+        <v>5.7</v>
+      </c>
+      <c r="AK23">
+        <v>6.6</v>
+      </c>
+      <c r="AL23">
         <v>11</v>
       </c>
-      <c r="AE23">
-        <v>980</v>
-      </c>
-      <c r="AF23">
-        <v>6.6</v>
-      </c>
-      <c r="AG23">
-        <v>980</v>
-      </c>
-      <c r="AH23">
-        <v>1.75</v>
-      </c>
-      <c r="AI23">
-        <v>980</v>
-      </c>
-      <c r="AJ23">
-        <v>5.5</v>
-      </c>
-      <c r="AK23">
-        <v>980</v>
-      </c>
-      <c r="AL23">
-        <v>10.5</v>
-      </c>
       <c r="AM23">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN23">
-        <v>1.71</v>
+        <v>7.4</v>
       </c>
       <c r="AO23">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ23">
         <v>980</v>
@@ -5277,40 +5277,40 @@
         <v>7.2</v>
       </c>
       <c r="AS23">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT23">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="AU23">
         <v>19.5</v>
       </c>
       <c r="AV23">
-        <v>1.72</v>
+        <v>7.4</v>
       </c>
       <c r="AW23">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AX23">
-        <v>1.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ23">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="BA23">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="BB23">
-        <v>1.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC23">
         <v>1000</v>
       </c>
       <c r="BD23">
-        <v>1.76</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5357,73 +5357,73 @@
         <v>139</v>
       </c>
       <c r="F24">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G24">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H24">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="J24">
+        <v>5.2</v>
+      </c>
+      <c r="K24">
+        <v>5.8</v>
+      </c>
+      <c r="L24">
+        <v>1.78</v>
+      </c>
+      <c r="M24">
+        <v>1.99</v>
+      </c>
+      <c r="N24">
+        <v>2.02</v>
+      </c>
+      <c r="O24">
+        <v>2.3</v>
+      </c>
+      <c r="P24">
+        <v>2.62</v>
+      </c>
+      <c r="Q24">
+        <v>3.1</v>
+      </c>
+      <c r="R24">
+        <v>1.48</v>
+      </c>
+      <c r="S24">
+        <v>1.62</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <v>16.5</v>
+      </c>
+      <c r="V24">
         <v>4.7</v>
       </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>1.76</v>
-      </c>
-      <c r="M24">
-        <v>2.02</v>
-      </c>
-      <c r="N24">
-        <v>1.98</v>
-      </c>
-      <c r="O24">
-        <v>2.32</v>
-      </c>
-      <c r="P24">
-        <v>2.58</v>
-      </c>
-      <c r="Q24">
-        <v>3.2</v>
-      </c>
-      <c r="R24">
-        <v>1.46</v>
-      </c>
-      <c r="S24">
-        <v>1.63</v>
-      </c>
-      <c r="T24">
-        <v>10.5</v>
-      </c>
-      <c r="U24">
-        <v>16</v>
-      </c>
-      <c r="V24">
+      <c r="W24">
+        <v>42</v>
+      </c>
+      <c r="X24">
         <v>5.1</v>
       </c>
-      <c r="W24">
-        <v>980</v>
-      </c>
-      <c r="X24">
-        <v>5.6</v>
-      </c>
       <c r="Y24">
         <v>980</v>
       </c>
       <c r="Z24">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA24">
         <v>1000</v>
       </c>
       <c r="AB24">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AC24">
         <v>6.4</v>
@@ -5435,79 +5435,79 @@
         <v>16</v>
       </c>
       <c r="AF24">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AG24">
         <v>980</v>
       </c>
       <c r="AH24">
+        <v>5.2</v>
+      </c>
+      <c r="AI24">
+        <v>980</v>
+      </c>
+      <c r="AJ24">
         <v>5.7</v>
-      </c>
-      <c r="AI24">
-        <v>1000</v>
-      </c>
-      <c r="AJ24">
-        <v>5.3</v>
       </c>
       <c r="AK24">
         <v>7</v>
       </c>
       <c r="AL24">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM24">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN24">
+        <v>4.9</v>
+      </c>
+      <c r="AO24">
+        <v>60</v>
+      </c>
+      <c r="AP24">
+        <v>5.2</v>
+      </c>
+      <c r="AQ24">
+        <v>980</v>
+      </c>
+      <c r="AR24">
+        <v>8.6</v>
+      </c>
+      <c r="AS24">
+        <v>12</v>
+      </c>
+      <c r="AT24">
+        <v>15</v>
+      </c>
+      <c r="AU24">
+        <v>22</v>
+      </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
+      <c r="AW24">
+        <v>85</v>
+      </c>
+      <c r="AX24">
+        <v>5.2</v>
+      </c>
+      <c r="AY24">
+        <v>980</v>
+      </c>
+      <c r="AZ24">
+        <v>3.35</v>
+      </c>
+      <c r="BA24">
+        <v>9</v>
+      </c>
+      <c r="BB24">
         <v>5.3</v>
-      </c>
-      <c r="AO24">
-        <v>980</v>
-      </c>
-      <c r="AP24">
-        <v>5.7</v>
-      </c>
-      <c r="AQ24">
-        <v>1000</v>
-      </c>
-      <c r="AR24">
-        <v>8</v>
-      </c>
-      <c r="AS24">
-        <v>11</v>
-      </c>
-      <c r="AT24">
-        <v>14.5</v>
-      </c>
-      <c r="AU24">
-        <v>980</v>
-      </c>
-      <c r="AV24">
-        <v>5.4</v>
-      </c>
-      <c r="AW24">
-        <v>980</v>
-      </c>
-      <c r="AX24">
-        <v>5.7</v>
-      </c>
-      <c r="AY24">
-        <v>1000</v>
-      </c>
-      <c r="AZ24">
-        <v>3.4</v>
-      </c>
-      <c r="BA24">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BB24">
-        <v>5.8</v>
       </c>
       <c r="BC24">
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5554,46 +5554,46 @@
         <v>140</v>
       </c>
       <c r="F25">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G25">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H25">
         <v>9.800000000000001</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J25">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K25">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L25">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="M25">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="N25">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="O25">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="P25">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q25">
         <v>2.52</v>
       </c>
       <c r="R25">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -5602,19 +5602,19 @@
         <v>17</v>
       </c>
       <c r="V25">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="W25">
         <v>32</v>
       </c>
       <c r="X25">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y25">
         <v>980</v>
       </c>
       <c r="Z25">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA25">
         <v>980</v>
@@ -5629,16 +5629,16 @@
         <v>10.5</v>
       </c>
       <c r="AE25">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF25">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG25">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH25">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI25">
         <v>980</v>
@@ -5650,25 +5650,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AL25">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AM25">
         <v>11.5</v>
       </c>
       <c r="AN25">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO25">
         <v>36</v>
       </c>
       <c r="AP25">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AQ25">
         <v>980</v>
       </c>
       <c r="AR25">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AS25">
         <v>12.5</v>
@@ -5680,31 +5680,31 @@
         <v>18</v>
       </c>
       <c r="AV25">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AW25">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX25">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AY25">
         <v>980</v>
       </c>
       <c r="AZ25">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BA25">
         <v>7.8</v>
       </c>
       <c r="BB25">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BC25">
         <v>980</v>
       </c>
       <c r="BD25">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -5751,115 +5751,115 @@
         <v>141</v>
       </c>
       <c r="F26">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G26">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J26">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K26">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L26">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="M26">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="N26">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="P26">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="Q26">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R26">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S26">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="T26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V26">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="W26">
         <v>75</v>
       </c>
       <c r="X26">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y26">
         <v>980</v>
       </c>
       <c r="Z26">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AA26">
         <v>1000</v>
       </c>
       <c r="AB26">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC26">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD26">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE26">
         <v>24</v>
       </c>
       <c r="AF26">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG26">
         <v>980</v>
       </c>
       <c r="AH26">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI26">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ26">
         <v>5.7</v>
       </c>
       <c r="AK26">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AL26">
         <v>11</v>
       </c>
       <c r="AM26">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN26">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AO26">
         <v>85</v>
       </c>
       <c r="AP26">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AQ26">
         <v>980</v>
@@ -5868,7 +5868,7 @@
         <v>6.8</v>
       </c>
       <c r="AS26">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AT26">
         <v>14</v>
@@ -5877,31 +5877,31 @@
         <v>21</v>
       </c>
       <c r="AV26">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AW26">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AX26">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY26">
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="BA26">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="BB26">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="BC26">
         <v>1000</v>
       </c>
       <c r="BD26">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -5957,7 +5957,7 @@
         <v>3.8</v>
       </c>
       <c r="I27">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J27">
         <v>3.2</v>
@@ -5969,10 +5969,10 @@
         <v>1.62</v>
       </c>
       <c r="M27">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="N27">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="O27">
         <v>2.6</v>
@@ -5990,25 +5990,25 @@
         <v>2.08</v>
       </c>
       <c r="T27">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="U27">
         <v>12.5</v>
       </c>
       <c r="V27">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="W27">
         <v>980</v>
       </c>
       <c r="X27">
+        <v>4.1</v>
+      </c>
+      <c r="Y27">
+        <v>980</v>
+      </c>
+      <c r="Z27">
         <v>4.4</v>
-      </c>
-      <c r="Y27">
-        <v>980</v>
-      </c>
-      <c r="Z27">
-        <v>4.8</v>
       </c>
       <c r="AA27">
         <v>980</v>
@@ -6020,85 +6020,85 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD27">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE27">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AF27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG27">
         <v>980</v>
       </c>
       <c r="AH27">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AI27">
         <v>980</v>
       </c>
       <c r="AJ27">
-        <v>8.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="AK27">
         <v>14.5</v>
       </c>
       <c r="AL27">
-        <v>8.199999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="AM27">
         <v>13.5</v>
       </c>
       <c r="AN27">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AO27">
         <v>980</v>
       </c>
       <c r="AP27">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AQ27">
         <v>980</v>
       </c>
       <c r="AR27">
+        <v>4</v>
+      </c>
+      <c r="AS27">
+        <v>980</v>
+      </c>
+      <c r="AT27">
+        <v>4</v>
+      </c>
+      <c r="AU27">
+        <v>980</v>
+      </c>
+      <c r="AV27">
         <v>4.3</v>
       </c>
-      <c r="AS27">
-        <v>980</v>
-      </c>
-      <c r="AT27">
-        <v>4.3</v>
-      </c>
-      <c r="AU27">
-        <v>980</v>
-      </c>
-      <c r="AV27">
+      <c r="AW27">
+        <v>980</v>
+      </c>
+      <c r="AX27">
+        <v>4.5</v>
+      </c>
+      <c r="AY27">
+        <v>980</v>
+      </c>
+      <c r="AZ27">
+        <v>3.9</v>
+      </c>
+      <c r="BA27">
+        <v>980</v>
+      </c>
+      <c r="BB27">
+        <v>4.4</v>
+      </c>
+      <c r="BC27">
+        <v>980</v>
+      </c>
+      <c r="BD27">
         <v>4.6</v>
-      </c>
-      <c r="AW27">
-        <v>980</v>
-      </c>
-      <c r="AX27">
-        <v>4.9</v>
-      </c>
-      <c r="AY27">
-        <v>980</v>
-      </c>
-      <c r="AZ27">
-        <v>4.1</v>
-      </c>
-      <c r="BA27">
-        <v>980</v>
-      </c>
-      <c r="BB27">
-        <v>4.7</v>
-      </c>
-      <c r="BC27">
-        <v>980</v>
-      </c>
-      <c r="BD27">
-        <v>5</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6145,19 +6145,19 @@
         <v>143</v>
       </c>
       <c r="F28">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="G28">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H28">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I28">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J28">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K28">
         <v>3.2</v>
@@ -6166,10 +6166,10 @@
         <v>1.55</v>
       </c>
       <c r="M28">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="N28">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="O28">
         <v>2.82</v>
@@ -6178,43 +6178,43 @@
         <v>2.06</v>
       </c>
       <c r="Q28">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R28">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S28">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T28">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U28">
         <v>9</v>
       </c>
       <c r="V28">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="W28">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X28">
         <v>13.5</v>
       </c>
       <c r="Y28">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z28">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="AA28">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB28">
         <v>8.6</v>
       </c>
       <c r="AC28">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD28">
         <v>6.4</v>
@@ -6226,22 +6226,22 @@
         <v>11.5</v>
       </c>
       <c r="AG28">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH28">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI28">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ28">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL28">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AM28">
         <v>18</v>
@@ -6250,52 +6250,52 @@
         <v>18.5</v>
       </c>
       <c r="AO28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP28">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AQ28">
         <v>980</v>
       </c>
       <c r="AR28">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AS28">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AT28">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AU28">
         <v>60</v>
       </c>
       <c r="AV28">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AW28">
         <v>980</v>
       </c>
       <c r="AX28">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AY28">
         <v>980</v>
       </c>
       <c r="AZ28">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BA28">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="BB28">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="BC28">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD28">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="BE28">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
   <si>
     <t>League</t>
   </si>
@@ -244,6 +244,9 @@
     <t>CONMEBOL Copa Sudamericana</t>
   </si>
   <si>
+    <t>Bolivian Liga de Futbol Profesional</t>
+  </si>
+  <si>
     <t>2024-04-11</t>
   </si>
   <si>
@@ -280,6 +283,9 @@
     <t>19:00:00</t>
   </si>
   <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
@@ -352,6 +358,9 @@
     <t>Lanus</t>
   </si>
   <si>
+    <t>Club Real Santa Cruz</t>
+  </si>
+  <si>
     <t>Cruzeiro MG</t>
   </si>
   <si>
@@ -431,6 +440,9 @@
   </si>
   <si>
     <t>Deportivo Garcilaso</t>
+  </si>
+  <si>
+    <t>The Strongest</t>
   </si>
   <si>
     <t>Alianza Petrolera</t>
@@ -803,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM28"/>
+  <dimension ref="A1:BM29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,16 +1023,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1208,16 +1220,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>2.88</v>
@@ -1405,16 +1417,16 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>1.72</v>
@@ -1602,16 +1614,16 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>1.5</v>
@@ -1799,16 +1811,16 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1996,16 +2008,16 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F7">
         <v>1.32</v>
@@ -2193,16 +2205,16 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <v>2.56</v>
@@ -2390,16 +2402,16 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>4.3</v>
@@ -2587,16 +2599,16 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F10">
         <v>6.8</v>
@@ -2784,16 +2796,16 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2981,172 +2993,172 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G12">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H12">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I12">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J12">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K12">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L12">
+        <v>2.58</v>
+      </c>
+      <c r="M12">
+        <v>2.82</v>
+      </c>
+      <c r="N12">
+        <v>1.56</v>
+      </c>
+      <c r="O12">
+        <v>1.63</v>
+      </c>
+      <c r="P12">
+        <v>1.55</v>
+      </c>
+      <c r="Q12">
+        <v>1.65</v>
+      </c>
+      <c r="R12">
+        <v>2.52</v>
+      </c>
+      <c r="S12">
         <v>2.8</v>
       </c>
-      <c r="M12">
-        <v>3.3</v>
-      </c>
-      <c r="N12">
-        <v>1.43</v>
-      </c>
-      <c r="O12">
-        <v>1.56</v>
-      </c>
-      <c r="P12">
-        <v>1.43</v>
-      </c>
-      <c r="Q12">
-        <v>1.57</v>
-      </c>
-      <c r="R12">
-        <v>2.76</v>
-      </c>
-      <c r="S12">
-        <v>3.3</v>
-      </c>
       <c r="T12">
-        <v>3.05</v>
+        <v>17</v>
       </c>
       <c r="U12">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="V12">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="W12">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="X12">
-        <v>3.85</v>
+        <v>14</v>
       </c>
       <c r="Y12">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z12">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AA12">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="AC12">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AD12">
-        <v>3.55</v>
+        <v>8.6</v>
       </c>
       <c r="AE12">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AF12">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG12">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH12">
-        <v>3.9</v>
+        <v>16</v>
       </c>
       <c r="AI12">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AJ12">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AK12">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL12">
         <v>12</v>
       </c>
       <c r="AM12">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AN12">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AO12">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AP12">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AQ12">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AR12">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="AS12">
         <v>980</v>
       </c>
       <c r="AT12">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="AU12">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AV12">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="AW12">
         <v>980</v>
       </c>
       <c r="AX12">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="AY12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ12">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="BA12">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="BB12">
-        <v>2.54</v>
+        <v>3.7</v>
       </c>
       <c r="BC12">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="BD12">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BE12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF12">
         <v>33149958</v>
@@ -3178,172 +3190,172 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13">
+        <v>2.3</v>
+      </c>
+      <c r="G13">
+        <v>2.48</v>
+      </c>
+      <c r="H13">
+        <v>2.92</v>
+      </c>
+      <c r="I13">
+        <v>3.2</v>
+      </c>
+      <c r="J13">
+        <v>3.8</v>
+      </c>
+      <c r="K13">
+        <v>3.95</v>
+      </c>
+      <c r="L13">
+        <v>2.28</v>
+      </c>
+      <c r="M13">
+        <v>2.46</v>
+      </c>
+      <c r="N13">
+        <v>1.69</v>
+      </c>
+      <c r="O13">
+        <v>1.78</v>
+      </c>
+      <c r="P13">
+        <v>1.66</v>
+      </c>
+      <c r="Q13">
+        <v>1.72</v>
+      </c>
+      <c r="R13">
         <v>2.38</v>
       </c>
-      <c r="G13">
-        <v>2.62</v>
-      </c>
-      <c r="H13">
-        <v>2.7</v>
-      </c>
-      <c r="I13">
-        <v>2.96</v>
-      </c>
-      <c r="J13">
-        <v>3.75</v>
-      </c>
-      <c r="K13">
-        <v>4.3</v>
-      </c>
-      <c r="L13">
-        <v>2.36</v>
-      </c>
-      <c r="M13">
-        <v>2.7</v>
-      </c>
-      <c r="N13">
-        <v>1.59</v>
-      </c>
-      <c r="O13">
-        <v>1.73</v>
-      </c>
-      <c r="P13">
-        <v>1.55</v>
-      </c>
-      <c r="Q13">
-        <v>1.65</v>
-      </c>
-      <c r="R13">
-        <v>2.54</v>
-      </c>
       <c r="S13">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>3.8</v>
+        <v>16.5</v>
       </c>
       <c r="U13">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="V13">
-        <v>3.6</v>
+        <v>14.5</v>
       </c>
       <c r="W13">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="X13">
-        <v>3.8</v>
+        <v>20</v>
       </c>
       <c r="Y13">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z13">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="AA13">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB13">
-        <v>3.55</v>
+        <v>12</v>
       </c>
       <c r="AC13">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD13">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE13">
+        <v>9</v>
+      </c>
+      <c r="AF13">
+        <v>12</v>
+      </c>
+      <c r="AG13">
+        <v>14</v>
+      </c>
+      <c r="AH13">
+        <v>26</v>
+      </c>
+      <c r="AI13">
+        <v>32</v>
+      </c>
+      <c r="AJ13">
+        <v>15.5</v>
+      </c>
+      <c r="AK13">
+        <v>980</v>
+      </c>
+      <c r="AL13">
+        <v>10.5</v>
+      </c>
+      <c r="AM13">
         <v>11.5</v>
       </c>
-      <c r="AF13">
-        <v>3.65</v>
-      </c>
-      <c r="AG13">
-        <v>980</v>
-      </c>
-      <c r="AH13">
-        <v>3.9</v>
-      </c>
-      <c r="AI13">
-        <v>980</v>
-      </c>
-      <c r="AJ13">
-        <v>3.65</v>
-      </c>
-      <c r="AK13">
-        <v>980</v>
-      </c>
-      <c r="AL13">
-        <v>3.6</v>
-      </c>
-      <c r="AM13">
-        <v>15</v>
-      </c>
       <c r="AN13">
-        <v>3.65</v>
+        <v>14</v>
       </c>
       <c r="AO13">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AP13">
-        <v>3.9</v>
+        <v>30</v>
       </c>
       <c r="AQ13">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AR13">
-        <v>3.95</v>
+        <v>28</v>
       </c>
       <c r="AS13">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AT13">
-        <v>3.8</v>
+        <v>20</v>
       </c>
       <c r="AU13">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AV13">
-        <v>3.95</v>
+        <v>27</v>
       </c>
       <c r="AW13">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AX13">
-        <v>4.2</v>
+        <v>14.5</v>
       </c>
       <c r="AY13">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AZ13">
-        <v>3.4</v>
+        <v>12.5</v>
       </c>
       <c r="BA13">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="BB13">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC13">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="BD13">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="BE13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF13">
         <v>33171651</v>
@@ -3375,85 +3387,85 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F14">
+        <v>1.86</v>
+      </c>
+      <c r="G14">
         <v>1.87</v>
       </c>
-      <c r="G14">
-        <v>1.88</v>
-      </c>
       <c r="H14">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I14">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L14">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="M14">
         <v>2.3</v>
       </c>
       <c r="N14">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O14">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="P14">
+        <v>1.7</v>
+      </c>
+      <c r="Q14">
         <v>1.73</v>
       </c>
-      <c r="Q14">
-        <v>1.79</v>
-      </c>
       <c r="R14">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="S14">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T14">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="U14">
         <v>17</v>
       </c>
       <c r="V14">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="W14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y14">
         <v>36</v>
       </c>
       <c r="Z14">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA14">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB14">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC14">
         <v>10.5</v>
@@ -3462,85 +3474,85 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AE14">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF14">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG14">
         <v>18</v>
       </c>
       <c r="AH14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI14">
         <v>55</v>
       </c>
       <c r="AJ14">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK14">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL14">
         <v>9.4</v>
       </c>
       <c r="AM14">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AN14">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO14">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AP14">
         <v>48</v>
       </c>
       <c r="AQ14">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR14">
         <v>18.5</v>
       </c>
       <c r="AS14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT14">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AU14">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AV14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AY14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ14">
         <v>9.6</v>
       </c>
       <c r="BA14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB14">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="BC14">
         <v>50</v>
       </c>
       <c r="BD14">
-        <v>19.5</v>
+        <v>240</v>
       </c>
       <c r="BE14">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="BF14">
         <v>33111923</v>
@@ -3572,37 +3584,37 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F15">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="G15">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="H15">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="J15">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K15">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L15">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="M15">
         <v>2.54</v>
@@ -3611,130 +3623,130 @@
         <v>1.65</v>
       </c>
       <c r="O15">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="P15">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q15">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R15">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S15">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V15">
+        <v>34</v>
+      </c>
+      <c r="W15">
+        <v>36</v>
+      </c>
+      <c r="X15">
+        <v>65</v>
+      </c>
+      <c r="Y15">
+        <v>75</v>
+      </c>
+      <c r="Z15">
+        <v>100</v>
+      </c>
+      <c r="AA15">
+        <v>980</v>
+      </c>
+      <c r="AB15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC15">
+        <v>9.6</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+      <c r="AE15">
+        <v>13</v>
+      </c>
+      <c r="AF15">
         <v>30</v>
       </c>
-      <c r="W15">
+      <c r="AG15">
         <v>32</v>
       </c>
-      <c r="X15">
-        <v>60</v>
-      </c>
-      <c r="Y15">
-        <v>70</v>
-      </c>
-      <c r="Z15">
-        <v>48</v>
-      </c>
-      <c r="AA15">
-        <v>980</v>
-      </c>
-      <c r="AB15">
-        <v>9.4</v>
-      </c>
-      <c r="AC15">
-        <v>10</v>
-      </c>
-      <c r="AD15">
-        <v>10.5</v>
-      </c>
-      <c r="AE15">
-        <v>11.5</v>
-      </c>
-      <c r="AF15">
-        <v>27</v>
-      </c>
-      <c r="AG15">
-        <v>30</v>
-      </c>
       <c r="AH15">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI15">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ15">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK15">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AL15">
         <v>9.6</v>
       </c>
       <c r="AM15">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP15">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AQ15">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR15">
+        <v>11</v>
+      </c>
+      <c r="AS15">
         <v>11.5</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>12.5</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>13</v>
       </c>
-      <c r="AU15">
-        <v>14</v>
-      </c>
       <c r="AV15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AX15">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AY15">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ15">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="BA15">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="BB15">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BC15">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BD15">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -3769,55 +3781,55 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F16">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="G16">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I16">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J16">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K16">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
         <v>3.1</v>
       </c>
-      <c r="M16">
-        <v>3.2</v>
-      </c>
       <c r="N16">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="O16">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P16">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q16">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R16">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S16">
         <v>2.26</v>
@@ -3829,46 +3841,46 @@
         <v>32</v>
       </c>
       <c r="V16">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W16">
         <v>44</v>
       </c>
       <c r="X16">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z16">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA16">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AB16">
         <v>12</v>
       </c>
       <c r="AC16">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD16">
         <v>13.5</v>
       </c>
       <c r="AE16">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF16">
         <v>32</v>
       </c>
       <c r="AG16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH16">
         <v>100</v>
       </c>
       <c r="AI16">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ16">
         <v>9.4</v>
@@ -3877,31 +3889,31 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AL16">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AM16">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN16">
         <v>22</v>
       </c>
       <c r="AO16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AQ16">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AR16">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AS16">
         <v>11.5</v>
       </c>
       <c r="AT16">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AU16">
         <v>12</v>
@@ -3910,31 +3922,31 @@
         <v>25</v>
       </c>
       <c r="AW16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX16">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AY16">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AZ16">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BA16">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BB16">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="BC16">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BD16">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="BE16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF16">
         <v>33111902</v>
@@ -3966,142 +3978,142 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F17">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="G17">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="H17">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="I17">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J17">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K17">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L17">
         <v>2.06</v>
       </c>
       <c r="M17">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="N17">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O17">
         <v>1.94</v>
       </c>
       <c r="P17">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="Q17">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R17">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="S17">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T17">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U17">
+        <v>14.5</v>
+      </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <v>16.5</v>
+      </c>
+      <c r="X17">
+        <v>28</v>
+      </c>
+      <c r="Y17">
+        <v>32</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>85</v>
+      </c>
+      <c r="AB17">
+        <v>9.4</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>7.4</v>
+      </c>
+      <c r="AE17">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF17">
+        <v>15.5</v>
+      </c>
+      <c r="AG17">
+        <v>17.5</v>
+      </c>
+      <c r="AH17">
+        <v>36</v>
+      </c>
+      <c r="AI17">
+        <v>50</v>
+      </c>
+      <c r="AJ17">
+        <v>11.5</v>
+      </c>
+      <c r="AK17">
+        <v>12.5</v>
+      </c>
+      <c r="AL17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM17">
+        <v>10.5</v>
+      </c>
+      <c r="AN17">
         <v>16</v>
       </c>
-      <c r="V17">
-        <v>16.5</v>
-      </c>
-      <c r="W17">
-        <v>19</v>
-      </c>
-      <c r="X17">
-        <v>12</v>
-      </c>
-      <c r="Y17">
-        <v>38</v>
-      </c>
-      <c r="Z17">
-        <v>15.5</v>
-      </c>
-      <c r="AA17">
-        <v>120</v>
-      </c>
-      <c r="AB17">
-        <v>8.6</v>
-      </c>
-      <c r="AC17">
-        <v>9.4</v>
-      </c>
-      <c r="AD17">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE17">
-        <v>8.6</v>
-      </c>
-      <c r="AF17">
-        <v>17.5</v>
-      </c>
-      <c r="AG17">
-        <v>19.5</v>
-      </c>
-      <c r="AH17">
-        <v>50</v>
-      </c>
-      <c r="AI17">
-        <v>65</v>
-      </c>
-      <c r="AJ17">
-        <v>10</v>
-      </c>
-      <c r="AK17">
-        <v>11.5</v>
-      </c>
-      <c r="AL17">
-        <v>9.4</v>
-      </c>
-      <c r="AM17">
-        <v>10</v>
-      </c>
-      <c r="AN17">
-        <v>17.5</v>
-      </c>
       <c r="AO17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP17">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AQ17">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR17">
+        <v>21</v>
+      </c>
+      <c r="AS17">
+        <v>23</v>
+      </c>
+      <c r="AT17">
         <v>18</v>
       </c>
-      <c r="AS17">
-        <v>19.5</v>
-      </c>
-      <c r="AT17">
-        <v>16.5</v>
-      </c>
       <c r="AU17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV17">
         <v>30</v>
@@ -4110,28 +4122,28 @@
         <v>34</v>
       </c>
       <c r="AX17">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AY17">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA17">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BB17">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BC17">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="BD17">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="BE17">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="BF17">
         <v>33111891</v>
@@ -4163,103 +4175,103 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F18">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G18">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H18">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I18">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
         <v>4.1</v>
-      </c>
-      <c r="K18">
-        <v>4.2</v>
       </c>
       <c r="L18">
         <v>2.16</v>
       </c>
       <c r="M18">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="N18">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="O18">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q18">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="R18">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S18">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T18">
         <v>15.5</v>
       </c>
       <c r="U18">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="V18">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="W18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X18">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y18">
+        <v>48</v>
+      </c>
+      <c r="Z18">
+        <v>120</v>
+      </c>
+      <c r="AA18">
+        <v>980</v>
+      </c>
+      <c r="AB18">
+        <v>9.4</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>8.6</v>
+      </c>
+      <c r="AE18">
+        <v>9</v>
+      </c>
+      <c r="AF18">
+        <v>19</v>
+      </c>
+      <c r="AG18">
+        <v>21</v>
+      </c>
+      <c r="AH18">
         <v>50</v>
-      </c>
-      <c r="Z18">
-        <v>18</v>
-      </c>
-      <c r="AA18">
-        <v>130</v>
-      </c>
-      <c r="AB18">
-        <v>8.6</v>
-      </c>
-      <c r="AC18">
-        <v>9.6</v>
-      </c>
-      <c r="AD18">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE18">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF18">
-        <v>18.5</v>
-      </c>
-      <c r="AG18">
-        <v>20</v>
-      </c>
-      <c r="AH18">
-        <v>55</v>
       </c>
       <c r="AI18">
         <v>65</v>
@@ -4271,28 +4283,28 @@
         <v>11</v>
       </c>
       <c r="AL18">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM18">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AN18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ18">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AR18">
         <v>16</v>
       </c>
       <c r="AS18">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AT18">
         <v>16</v>
@@ -4301,34 +4313,34 @@
         <v>17</v>
       </c>
       <c r="AV18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AW18">
         <v>32</v>
       </c>
       <c r="AX18">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AY18">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AZ18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA18">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BB18">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="BC18">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="BD18">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="BE18">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF18">
         <v>33111899</v>
@@ -4360,169 +4372,169 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F19">
+        <v>1.83</v>
+      </c>
+      <c r="G19">
+        <v>1.85</v>
+      </c>
+      <c r="H19">
+        <v>5.1</v>
+      </c>
+      <c r="I19">
+        <v>5.2</v>
+      </c>
+      <c r="J19">
+        <v>3.75</v>
+      </c>
+      <c r="K19">
+        <v>3.8</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2.04</v>
+      </c>
+      <c r="N19">
+        <v>1.97</v>
+      </c>
+      <c r="O19">
+        <v>1.99</v>
+      </c>
+      <c r="P19">
+        <v>1.86</v>
+      </c>
+      <c r="Q19">
         <v>1.89</v>
       </c>
-      <c r="G19">
-        <v>1.9</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>5.1</v>
-      </c>
-      <c r="J19">
-        <v>3.65</v>
-      </c>
-      <c r="K19">
-        <v>3.7</v>
-      </c>
-      <c r="L19">
-        <v>1.76</v>
-      </c>
-      <c r="M19">
-        <v>1.81</v>
-      </c>
-      <c r="N19">
-        <v>2.24</v>
-      </c>
-      <c r="O19">
-        <v>2.3</v>
-      </c>
-      <c r="P19">
-        <v>2.08</v>
-      </c>
-      <c r="Q19">
+      <c r="R19">
+        <v>2.12</v>
+      </c>
+      <c r="S19">
         <v>2.18</v>
       </c>
-      <c r="R19">
-        <v>1.86</v>
-      </c>
-      <c r="S19">
-        <v>1.93</v>
-      </c>
       <c r="T19">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="U19">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="V19">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="W19">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="X19">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y19">
         <v>36</v>
       </c>
       <c r="Z19">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AA19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AE19">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AF19">
+        <v>18</v>
+      </c>
+      <c r="AG19">
+        <v>19</v>
+      </c>
+      <c r="AH19">
+        <v>55</v>
+      </c>
+      <c r="AI19">
+        <v>65</v>
+      </c>
+      <c r="AJ19">
+        <v>10</v>
+      </c>
+      <c r="AK19">
+        <v>10.5</v>
+      </c>
+      <c r="AL19">
+        <v>9.6</v>
+      </c>
+      <c r="AM19">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AN19">
+        <v>17.5</v>
+      </c>
+      <c r="AO19">
         <v>18.5</v>
       </c>
-      <c r="AG19">
-        <v>20</v>
-      </c>
-      <c r="AH19">
+      <c r="AP19">
+        <v>60</v>
+      </c>
+      <c r="AQ19">
+        <v>70</v>
+      </c>
+      <c r="AR19">
+        <v>16.5</v>
+      </c>
+      <c r="AS19">
+        <v>17.5</v>
+      </c>
+      <c r="AT19">
+        <v>17.5</v>
+      </c>
+      <c r="AU19">
+        <v>18</v>
+      </c>
+      <c r="AV19">
+        <v>32</v>
+      </c>
+      <c r="AW19">
+        <v>36</v>
+      </c>
+      <c r="AX19">
+        <v>90</v>
+      </c>
+      <c r="AY19">
+        <v>100</v>
+      </c>
+      <c r="AZ19">
+        <v>11</v>
+      </c>
+      <c r="BA19">
+        <v>11.5</v>
+      </c>
+      <c r="BB19">
         <v>65</v>
       </c>
-      <c r="AI19">
+      <c r="BC19">
         <v>75</v>
       </c>
-      <c r="AJ19">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK19">
-        <v>10</v>
-      </c>
-      <c r="AL19">
-        <v>10</v>
-      </c>
-      <c r="AM19">
-        <v>10.5</v>
-      </c>
-      <c r="AN19">
-        <v>21</v>
-      </c>
-      <c r="AO19">
-        <v>23</v>
-      </c>
-      <c r="AP19">
-        <v>36</v>
-      </c>
-      <c r="AQ19">
-        <v>130</v>
-      </c>
-      <c r="AR19">
-        <v>18</v>
-      </c>
-      <c r="AS19">
-        <v>20</v>
-      </c>
-      <c r="AT19">
-        <v>19.5</v>
-      </c>
-      <c r="AU19">
-        <v>21</v>
-      </c>
-      <c r="AV19">
-        <v>38</v>
-      </c>
-      <c r="AW19">
-        <v>44</v>
-      </c>
-      <c r="AX19">
-        <v>44</v>
-      </c>
-      <c r="AY19">
-        <v>150</v>
-      </c>
-      <c r="AZ19">
-        <v>13.5</v>
-      </c>
-      <c r="BA19">
-        <v>15</v>
-      </c>
-      <c r="BB19">
-        <v>80</v>
-      </c>
-      <c r="BC19">
-        <v>100</v>
-      </c>
       <c r="BD19">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -4557,91 +4569,91 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="G20">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H20">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I20">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>4.5</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L20">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="M20">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="O20">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="P20">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S20">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T20">
         <v>17</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V20">
-        <v>6.2</v>
+        <v>22</v>
       </c>
       <c r="W20">
         <v>30</v>
       </c>
       <c r="X20">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y20">
         <v>70</v>
       </c>
       <c r="Z20">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA20">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="AB20">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC20">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE20">
         <v>11</v>
@@ -4653,16 +4665,16 @@
         <v>32</v>
       </c>
       <c r="AH20">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AI20">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ20">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK20">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AL20">
         <v>8.800000000000001</v>
@@ -4671,55 +4683,55 @@
         <v>10.5</v>
       </c>
       <c r="AN20">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP20">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AQ20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR20">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT20">
         <v>13.5</v>
       </c>
       <c r="AU20">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AV20">
-        <v>25</v>
+        <v>6.6</v>
       </c>
       <c r="AW20">
         <v>40</v>
       </c>
       <c r="AX20">
+        <v>7</v>
+      </c>
+      <c r="AY20">
+        <v>140</v>
+      </c>
+      <c r="AZ20">
+        <v>5.6</v>
+      </c>
+      <c r="BA20">
         <v>7.4</v>
       </c>
-      <c r="AY20">
-        <v>980</v>
-      </c>
-      <c r="AZ20">
-        <v>3.75</v>
-      </c>
-      <c r="BA20">
-        <v>7.2</v>
-      </c>
       <c r="BB20">
-        <v>7.4</v>
+        <v>18.5</v>
       </c>
       <c r="BC20">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BD20">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -4754,169 +4766,169 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F21">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="G21">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I21">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J21">
         <v>3.85</v>
       </c>
       <c r="K21">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L21">
+        <v>2.04</v>
+      </c>
+      <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="N21">
+        <v>1.92</v>
+      </c>
+      <c r="O21">
+        <v>1.97</v>
+      </c>
+      <c r="P21">
+        <v>1.89</v>
+      </c>
+      <c r="Q21">
+        <v>1.99</v>
+      </c>
+      <c r="R21">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>2.18</v>
-      </c>
-      <c r="N21">
-        <v>1.85</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>1.86</v>
-      </c>
-      <c r="Q21">
-        <v>1.98</v>
-      </c>
-      <c r="R21">
-        <v>2.02</v>
-      </c>
       <c r="S21">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T21">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U21">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="V21">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="W21">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X21">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="Y21">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z21">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AA21">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AB21">
         <v>8</v>
       </c>
       <c r="AC21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD21">
+        <v>8.4</v>
+      </c>
+      <c r="AE21">
+        <v>9</v>
+      </c>
+      <c r="AF21">
+        <v>21</v>
+      </c>
+      <c r="AG21">
+        <v>24</v>
+      </c>
+      <c r="AH21">
+        <v>18</v>
+      </c>
+      <c r="AI21">
+        <v>85</v>
+      </c>
+      <c r="AJ21">
+        <v>9</v>
+      </c>
+      <c r="AK21">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AL21">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>19</v>
+      </c>
+      <c r="AO21">
+        <v>21</v>
+      </c>
+      <c r="AP21">
+        <v>55</v>
+      </c>
+      <c r="AQ21">
+        <v>95</v>
+      </c>
+      <c r="AR21">
+        <v>15</v>
+      </c>
+      <c r="AS21">
+        <v>16.5</v>
+      </c>
+      <c r="AT21">
+        <v>15.5</v>
+      </c>
+      <c r="AU21">
+        <v>17</v>
+      </c>
+      <c r="AV21">
+        <v>32</v>
+      </c>
+      <c r="AW21">
+        <v>36</v>
+      </c>
+      <c r="AX21">
+        <v>80</v>
+      </c>
+      <c r="AY21">
+        <v>120</v>
+      </c>
+      <c r="AZ21">
         <v>8</v>
       </c>
-      <c r="AE21">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF21">
-        <v>18.5</v>
-      </c>
-      <c r="AG21">
-        <v>26</v>
-      </c>
-      <c r="AH21">
-        <v>8.4</v>
-      </c>
-      <c r="AI21">
-        <v>980</v>
-      </c>
-      <c r="AJ21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK21">
+      <c r="BA21">
         <v>10.5</v>
       </c>
-      <c r="AL21">
-        <v>9</v>
-      </c>
-      <c r="AM21">
-        <v>10.5</v>
-      </c>
-      <c r="AN21">
-        <v>18</v>
-      </c>
-      <c r="AO21">
-        <v>23</v>
-      </c>
-      <c r="AP21">
-        <v>8.4</v>
-      </c>
-      <c r="AQ21">
-        <v>980</v>
-      </c>
-      <c r="AR21">
-        <v>14.5</v>
-      </c>
-      <c r="AS21">
-        <v>18</v>
-      </c>
-      <c r="AT21">
-        <v>15</v>
-      </c>
-      <c r="AU21">
-        <v>19</v>
-      </c>
-      <c r="AV21">
-        <v>27</v>
-      </c>
-      <c r="AW21">
-        <v>40</v>
-      </c>
-      <c r="AX21">
-        <v>8.6</v>
-      </c>
-      <c r="AY21">
-        <v>980</v>
-      </c>
-      <c r="AZ21">
-        <v>4.6</v>
-      </c>
-      <c r="BA21">
-        <v>9.4</v>
-      </c>
       <c r="BB21">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="BC21">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="BD21">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -4951,49 +4963,49 @@
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G22">
         <v>5.1</v>
       </c>
       <c r="H22">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I22">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="J22">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K22">
         <v>3.7</v>
       </c>
       <c r="L22">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="N22">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="O22">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q22">
         <v>2.22</v>
@@ -5002,118 +5014,118 @@
         <v>1.82</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T22">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="U22">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="V22">
         <v>6.6</v>
       </c>
       <c r="W22">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X22">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y22">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z22">
-        <v>5.2</v>
+        <v>18</v>
       </c>
       <c r="AA22">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB22">
         <v>12</v>
       </c>
       <c r="AC22">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD22">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE22">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF22">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH22">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI22">
         <v>28</v>
       </c>
       <c r="AJ22">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AK22">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL22">
         <v>16.5</v>
       </c>
       <c r="AM22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN22">
         <v>19.5</v>
       </c>
       <c r="AO22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP22">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AQ22">
         <v>60</v>
       </c>
       <c r="AR22">
+        <v>6.6</v>
+      </c>
+      <c r="AS22">
+        <v>160</v>
+      </c>
+      <c r="AT22">
+        <v>6.4</v>
+      </c>
+      <c r="AU22">
+        <v>100</v>
+      </c>
+      <c r="AV22">
+        <v>6.4</v>
+      </c>
+      <c r="AW22">
+        <v>120</v>
+      </c>
+      <c r="AX22">
+        <v>6.8</v>
+      </c>
+      <c r="AY22">
+        <v>980</v>
+      </c>
+      <c r="AZ22">
+        <v>7</v>
+      </c>
+      <c r="BA22">
+        <v>140</v>
+      </c>
+      <c r="BB22">
         <v>6.2</v>
       </c>
-      <c r="AS22">
-        <v>980</v>
-      </c>
-      <c r="AT22">
-        <v>6</v>
-      </c>
-      <c r="AU22">
-        <v>980</v>
-      </c>
-      <c r="AV22">
-        <v>6.2</v>
-      </c>
-      <c r="AW22">
-        <v>980</v>
-      </c>
-      <c r="AX22">
-        <v>6.2</v>
-      </c>
-      <c r="AY22">
-        <v>980</v>
-      </c>
-      <c r="AZ22">
-        <v>6.2</v>
-      </c>
-      <c r="BA22">
-        <v>980</v>
-      </c>
-      <c r="BB22">
-        <v>4.8</v>
-      </c>
       <c r="BC22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD22">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5148,88 +5160,88 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F23">
         <v>1.21</v>
       </c>
       <c r="G23">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H23">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L23">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="M23">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="O23">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="P23">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="Q23">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="R23">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="S23">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="T23">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="U23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V23">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="W23">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X23">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="Y23">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="Z23">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AA23">
         <v>1000</v>
       </c>
       <c r="AB23">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC23">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23">
         <v>15.5</v>
@@ -5238,61 +5250,61 @@
         <v>22</v>
       </c>
       <c r="AF23">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AG23">
         <v>85</v>
       </c>
       <c r="AH23">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AI23">
         <v>980</v>
       </c>
       <c r="AJ23">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AK23">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AL23">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM23">
+        <v>12.5</v>
+      </c>
+      <c r="AN23">
+        <v>8.6</v>
+      </c>
+      <c r="AO23">
+        <v>65</v>
+      </c>
+      <c r="AP23">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ23">
+        <v>360</v>
+      </c>
+      <c r="AR23">
+        <v>7.4</v>
+      </c>
+      <c r="AS23">
+        <v>8.6</v>
+      </c>
+      <c r="AT23">
+        <v>13.5</v>
+      </c>
+      <c r="AU23">
         <v>15.5</v>
       </c>
-      <c r="AN23">
-        <v>7.4</v>
-      </c>
-      <c r="AO23">
+      <c r="AV23">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AW23">
         <v>70</v>
       </c>
-      <c r="AP23">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AQ23">
-        <v>980</v>
-      </c>
-      <c r="AR23">
-        <v>7.2</v>
-      </c>
-      <c r="AS23">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AT23">
-        <v>14</v>
-      </c>
-      <c r="AU23">
-        <v>19.5</v>
-      </c>
-      <c r="AV23">
-        <v>7.4</v>
-      </c>
-      <c r="AW23">
-        <v>80</v>
-      </c>
       <c r="AX23">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="AY23">
         <v>980</v>
@@ -5301,16 +5313,16 @@
         <v>3</v>
       </c>
       <c r="BA23">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="BB23">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="BC23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD23">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5342,396 +5354,396 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>1.35</v>
+        <v>5.6</v>
       </c>
       <c r="H24">
+        <v>1.67</v>
+      </c>
+      <c r="I24">
+        <v>1.73</v>
+      </c>
+      <c r="J24">
+        <v>4.1</v>
+      </c>
+      <c r="K24">
+        <v>4.7</v>
+      </c>
+      <c r="L24">
+        <v>2.28</v>
+      </c>
+      <c r="M24">
+        <v>2.42</v>
+      </c>
+      <c r="N24">
+        <v>1.7</v>
+      </c>
+      <c r="O24">
+        <v>1.77</v>
+      </c>
+      <c r="P24">
+        <v>1.67</v>
+      </c>
+      <c r="Q24">
+        <v>1.92</v>
+      </c>
+      <c r="R24">
+        <v>2.08</v>
+      </c>
+      <c r="S24">
+        <v>2.5</v>
+      </c>
+      <c r="T24">
+        <v>14</v>
+      </c>
+      <c r="U24">
+        <v>24</v>
+      </c>
+      <c r="V24">
+        <v>7.8</v>
+      </c>
+      <c r="W24">
+        <v>11.5</v>
+      </c>
+      <c r="X24">
+        <v>8.4</v>
+      </c>
+      <c r="Y24">
+        <v>14</v>
+      </c>
+      <c r="Z24">
         <v>13</v>
       </c>
-      <c r="I24">
-        <v>16.5</v>
-      </c>
-      <c r="J24">
-        <v>5.2</v>
-      </c>
-      <c r="K24">
-        <v>5.8</v>
-      </c>
-      <c r="L24">
-        <v>1.78</v>
-      </c>
-      <c r="M24">
-        <v>1.99</v>
-      </c>
-      <c r="N24">
-        <v>2.02</v>
-      </c>
-      <c r="O24">
-        <v>2.3</v>
-      </c>
-      <c r="P24">
-        <v>2.62</v>
-      </c>
-      <c r="Q24">
-        <v>3.1</v>
-      </c>
-      <c r="R24">
-        <v>1.48</v>
-      </c>
-      <c r="S24">
-        <v>1.62</v>
-      </c>
-      <c r="T24">
+      <c r="AA24">
+        <v>22</v>
+      </c>
+      <c r="AB24">
+        <v>15.5</v>
+      </c>
+      <c r="AC24">
+        <v>26</v>
+      </c>
+      <c r="AD24">
+        <v>8.4</v>
+      </c>
+      <c r="AE24">
+        <v>12</v>
+      </c>
+      <c r="AF24">
+        <v>7.4</v>
+      </c>
+      <c r="AG24">
         <v>11</v>
       </c>
-      <c r="U24">
-        <v>16.5</v>
-      </c>
-      <c r="V24">
+      <c r="AH24">
+        <v>13.5</v>
+      </c>
+      <c r="AI24">
+        <v>20</v>
+      </c>
+      <c r="AJ24">
+        <v>4.6</v>
+      </c>
+      <c r="AK24">
+        <v>55</v>
+      </c>
+      <c r="AL24">
+        <v>14.5</v>
+      </c>
+      <c r="AM24">
+        <v>25</v>
+      </c>
+      <c r="AN24">
+        <v>15.5</v>
+      </c>
+      <c r="AO24">
+        <v>24</v>
+      </c>
+      <c r="AP24">
+        <v>4.5</v>
+      </c>
+      <c r="AQ24">
+        <v>38</v>
+      </c>
+      <c r="AR24">
         <v>4.7</v>
       </c>
-      <c r="W24">
-        <v>42</v>
-      </c>
-      <c r="X24">
-        <v>5.1</v>
-      </c>
-      <c r="Y24">
-        <v>980</v>
-      </c>
-      <c r="Z24">
-        <v>5.3</v>
-      </c>
-      <c r="AA24">
-        <v>1000</v>
-      </c>
-      <c r="AB24">
-        <v>5.6</v>
-      </c>
-      <c r="AC24">
-        <v>6.4</v>
-      </c>
-      <c r="AD24">
-        <v>10.5</v>
-      </c>
-      <c r="AE24">
-        <v>16</v>
-      </c>
-      <c r="AF24">
+      <c r="AS24">
+        <v>980</v>
+      </c>
+      <c r="AT24">
+        <v>4.6</v>
+      </c>
+      <c r="AU24">
+        <v>980</v>
+      </c>
+      <c r="AV24">
+        <v>4.6</v>
+      </c>
+      <c r="AW24">
+        <v>980</v>
+      </c>
+      <c r="AX24">
+        <v>4.7</v>
+      </c>
+      <c r="AY24">
+        <v>980</v>
+      </c>
+      <c r="AZ24">
+        <v>4.6</v>
+      </c>
+      <c r="BA24">
+        <v>980</v>
+      </c>
+      <c r="BB24">
+        <v>3.25</v>
+      </c>
+      <c r="BC24">
+        <v>9.4</v>
+      </c>
+      <c r="BD24">
         <v>4.9</v>
-      </c>
-      <c r="AG24">
-        <v>980</v>
-      </c>
-      <c r="AH24">
-        <v>5.2</v>
-      </c>
-      <c r="AI24">
-        <v>980</v>
-      </c>
-      <c r="AJ24">
-        <v>5.7</v>
-      </c>
-      <c r="AK24">
-        <v>7</v>
-      </c>
-      <c r="AL24">
-        <v>9.6</v>
-      </c>
-      <c r="AM24">
-        <v>14</v>
-      </c>
-      <c r="AN24">
-        <v>4.9</v>
-      </c>
-      <c r="AO24">
-        <v>60</v>
-      </c>
-      <c r="AP24">
-        <v>5.2</v>
-      </c>
-      <c r="AQ24">
-        <v>980</v>
-      </c>
-      <c r="AR24">
-        <v>8.6</v>
-      </c>
-      <c r="AS24">
-        <v>12</v>
-      </c>
-      <c r="AT24">
-        <v>15</v>
-      </c>
-      <c r="AU24">
-        <v>22</v>
-      </c>
-      <c r="AV24">
-        <v>5</v>
-      </c>
-      <c r="AW24">
-        <v>85</v>
-      </c>
-      <c r="AX24">
-        <v>5.2</v>
-      </c>
-      <c r="AY24">
-        <v>980</v>
-      </c>
-      <c r="AZ24">
-        <v>3.35</v>
-      </c>
-      <c r="BA24">
-        <v>9</v>
-      </c>
-      <c r="BB24">
-        <v>5.3</v>
-      </c>
-      <c r="BC24">
-        <v>1000</v>
-      </c>
-      <c r="BD24">
-        <v>5.3</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24">
-        <v>33174323</v>
+        <v>33146345</v>
       </c>
       <c r="BG24">
-        <v>10901767</v>
+        <v>25226893</v>
       </c>
       <c r="BH24">
-        <v>5615116</v>
+        <v>328205</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24">
-        <v>1.227300806</v>
+        <v>1.226799299</v>
       </c>
       <c r="BK24">
-        <v>1.227300816</v>
+        <v>1.226799344</v>
       </c>
       <c r="BL24">
-        <v>1.227300805</v>
+        <v>1.226799383</v>
       </c>
       <c r="BM24">
-        <v>1.227300815</v>
+        <v>1.226799308</v>
       </c>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F25">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="G25">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>5.1</v>
+      </c>
+      <c r="K25">
+        <v>5.8</v>
+      </c>
+      <c r="L25">
+        <v>1.82</v>
+      </c>
+      <c r="M25">
+        <v>1.92</v>
+      </c>
+      <c r="N25">
+        <v>2.08</v>
+      </c>
+      <c r="O25">
+        <v>2.22</v>
+      </c>
+      <c r="P25">
+        <v>2.64</v>
+      </c>
+      <c r="Q25">
+        <v>3.1</v>
+      </c>
+      <c r="R25">
+        <v>1.48</v>
+      </c>
+      <c r="S25">
+        <v>1.61</v>
+      </c>
+      <c r="T25">
         <v>9.800000000000001</v>
       </c>
-      <c r="I25">
+      <c r="U25">
+        <v>16</v>
+      </c>
+      <c r="V25">
+        <v>27</v>
+      </c>
+      <c r="W25">
+        <v>42</v>
+      </c>
+      <c r="X25">
+        <v>5.7</v>
+      </c>
+      <c r="Y25">
+        <v>180</v>
+      </c>
+      <c r="Z25">
+        <v>5.8</v>
+      </c>
+      <c r="AA25">
+        <v>1000</v>
+      </c>
+      <c r="AB25">
+        <v>5.5</v>
+      </c>
+      <c r="AC25">
+        <v>6.2</v>
+      </c>
+      <c r="AD25">
+        <v>12</v>
+      </c>
+      <c r="AE25">
+        <v>16</v>
+      </c>
+      <c r="AF25">
+        <v>5.4</v>
+      </c>
+      <c r="AG25">
+        <v>75</v>
+      </c>
+      <c r="AH25">
+        <v>5.8</v>
+      </c>
+      <c r="AI25">
+        <v>980</v>
+      </c>
+      <c r="AJ25">
+        <v>5.5</v>
+      </c>
+      <c r="AK25">
+        <v>6.8</v>
+      </c>
+      <c r="AL25">
+        <v>10</v>
+      </c>
+      <c r="AM25">
+        <v>14</v>
+      </c>
+      <c r="AN25">
+        <v>5.4</v>
+      </c>
+      <c r="AO25">
+        <v>60</v>
+      </c>
+      <c r="AP25">
+        <v>5.8</v>
+      </c>
+      <c r="AQ25">
+        <v>980</v>
+      </c>
+      <c r="AR25">
+        <v>8.4</v>
+      </c>
+      <c r="AS25">
         <v>11.5</v>
       </c>
-      <c r="J25">
-        <v>4.8</v>
-      </c>
-      <c r="K25">
-        <v>5.2</v>
-      </c>
-      <c r="L25">
-        <v>1.99</v>
-      </c>
-      <c r="M25">
-        <v>2.18</v>
-      </c>
-      <c r="N25">
-        <v>1.84</v>
-      </c>
-      <c r="O25">
-        <v>2.02</v>
-      </c>
-      <c r="P25">
-        <v>2.26</v>
-      </c>
-      <c r="Q25">
-        <v>2.52</v>
-      </c>
-      <c r="R25">
-        <v>1.65</v>
-      </c>
-      <c r="S25">
-        <v>1.8</v>
-      </c>
-      <c r="T25">
-        <v>14</v>
-      </c>
-      <c r="U25">
-        <v>17</v>
-      </c>
-      <c r="V25">
-        <v>6</v>
-      </c>
-      <c r="W25">
-        <v>32</v>
-      </c>
-      <c r="X25">
-        <v>6.8</v>
-      </c>
-      <c r="Y25">
-        <v>980</v>
-      </c>
-      <c r="Z25">
-        <v>7.2</v>
-      </c>
-      <c r="AA25">
-        <v>980</v>
-      </c>
-      <c r="AB25">
-        <v>6.4</v>
-      </c>
-      <c r="AC25">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD25">
-        <v>10.5</v>
-      </c>
-      <c r="AE25">
-        <v>12.5</v>
-      </c>
-      <c r="AF25">
-        <v>6.2</v>
-      </c>
-      <c r="AG25">
-        <v>42</v>
-      </c>
-      <c r="AH25">
-        <v>7.2</v>
-      </c>
-      <c r="AI25">
-        <v>980</v>
-      </c>
-      <c r="AJ25">
-        <v>6.2</v>
-      </c>
-      <c r="AK25">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AL25">
-        <v>9</v>
-      </c>
-      <c r="AM25">
-        <v>11.5</v>
-      </c>
-      <c r="AN25">
-        <v>6.2</v>
-      </c>
-      <c r="AO25">
-        <v>36</v>
-      </c>
-      <c r="AP25">
-        <v>7.2</v>
-      </c>
-      <c r="AQ25">
-        <v>980</v>
-      </c>
-      <c r="AR25">
-        <v>9.4</v>
-      </c>
-      <c r="AS25">
-        <v>12.5</v>
-      </c>
       <c r="AT25">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AU25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AV25">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AW25">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AX25">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="AY25">
         <v>980</v>
       </c>
       <c r="AZ25">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BA25">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB25">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="BC25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD25">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25">
-        <v>33167481</v>
+        <v>33174323</v>
       </c>
       <c r="BG25">
-        <v>194515</v>
+        <v>10901767</v>
       </c>
       <c r="BH25">
-        <v>504780</v>
+        <v>5615116</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25">
-        <v>1.227164936</v>
+        <v>1.227300806</v>
       </c>
       <c r="BK25">
-        <v>1.227164946</v>
+        <v>1.227300816</v>
       </c>
       <c r="BL25">
-        <v>1.227164935</v>
+        <v>1.227300805</v>
       </c>
       <c r="BM25">
-        <v>1.227164945</v>
+        <v>1.227300815</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -5739,393 +5751,393 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="G26">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J26">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="K26">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="L26">
-        <v>2.26</v>
+        <v>1.99</v>
       </c>
       <c r="M26">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="O26">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="P26">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="Q26">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R26">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="S26">
-        <v>1.49</v>
+        <v>1.86</v>
       </c>
       <c r="T26">
+        <v>14</v>
+      </c>
+      <c r="U26">
         <v>17</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>26</v>
       </c>
-      <c r="V26">
-        <v>6</v>
-      </c>
       <c r="W26">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X26">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y26">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>980</v>
+      </c>
+      <c r="AB26">
         <v>6.6</v>
-      </c>
-      <c r="AA26">
-        <v>1000</v>
-      </c>
-      <c r="AB26">
-        <v>6.8</v>
       </c>
       <c r="AC26">
         <v>8</v>
       </c>
       <c r="AD26">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AE26">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AF26">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG26">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AH26">
+        <v>6.8</v>
+      </c>
+      <c r="AI26">
+        <v>980</v>
+      </c>
+      <c r="AJ26">
         <v>6.6</v>
       </c>
-      <c r="AI26">
-        <v>990</v>
-      </c>
-      <c r="AJ26">
-        <v>5.7</v>
-      </c>
       <c r="AK26">
+        <v>8</v>
+      </c>
+      <c r="AL26">
+        <v>9.6</v>
+      </c>
+      <c r="AM26">
+        <v>11.5</v>
+      </c>
+      <c r="AN26">
+        <v>6.6</v>
+      </c>
+      <c r="AO26">
+        <v>38</v>
+      </c>
+      <c r="AP26">
         <v>6.8</v>
       </c>
-      <c r="AL26">
-        <v>11</v>
-      </c>
-      <c r="AM26">
-        <v>17</v>
-      </c>
-      <c r="AN26">
-        <v>6</v>
-      </c>
-      <c r="AO26">
-        <v>85</v>
-      </c>
-      <c r="AP26">
-        <v>6.6</v>
-      </c>
       <c r="AQ26">
         <v>980</v>
       </c>
       <c r="AR26">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="AS26">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AT26">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AU26">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV26">
         <v>6.2</v>
       </c>
       <c r="AW26">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AX26">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY26">
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>2.68</v>
+        <v>3.75</v>
       </c>
       <c r="BA26">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="BB26">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BC26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26">
-        <v>33167029</v>
+        <v>33167481</v>
       </c>
       <c r="BG26">
-        <v>22498185</v>
+        <v>194515</v>
       </c>
       <c r="BH26">
-        <v>5789820</v>
+        <v>504780</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26">
-        <v>1.227153412</v>
+        <v>1.227164936</v>
       </c>
       <c r="BK26">
-        <v>1.227153422</v>
+        <v>1.227164946</v>
       </c>
       <c r="BL26">
-        <v>1.227153411</v>
+        <v>1.227164935</v>
       </c>
       <c r="BM26">
-        <v>1.227153421</v>
+        <v>1.227164945</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="G27">
-        <v>2.24</v>
+        <v>1.17</v>
       </c>
       <c r="H27">
-        <v>3.8</v>
+        <v>30</v>
       </c>
       <c r="I27">
-        <v>4.8</v>
+        <v>38</v>
       </c>
       <c r="J27">
+        <v>8.4</v>
+      </c>
+      <c r="K27">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L27">
+        <v>2.3</v>
+      </c>
+      <c r="M27">
+        <v>2.42</v>
+      </c>
+      <c r="N27">
+        <v>1.71</v>
+      </c>
+      <c r="O27">
+        <v>1.77</v>
+      </c>
+      <c r="P27">
         <v>3.2</v>
       </c>
-      <c r="K27">
-        <v>3.6</v>
-      </c>
-      <c r="L27">
-        <v>1.62</v>
-      </c>
-      <c r="M27">
-        <v>1.71</v>
-      </c>
-      <c r="N27">
-        <v>2.38</v>
-      </c>
-      <c r="O27">
-        <v>2.6</v>
-      </c>
-      <c r="P27">
-        <v>1.92</v>
-      </c>
       <c r="Q27">
-        <v>2.26</v>
+        <v>3.5</v>
       </c>
       <c r="R27">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="S27">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="T27">
-        <v>8.4</v>
+        <v>19.5</v>
       </c>
       <c r="U27">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="V27">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="W27">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="X27">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="Y27">
         <v>980</v>
       </c>
       <c r="Z27">
+        <v>6.8</v>
+      </c>
+      <c r="AA27">
+        <v>1000</v>
+      </c>
+      <c r="AB27">
+        <v>7</v>
+      </c>
+      <c r="AC27">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27">
+        <v>18.5</v>
+      </c>
+      <c r="AE27">
+        <v>27</v>
+      </c>
+      <c r="AF27">
+        <v>6.6</v>
+      </c>
+      <c r="AG27">
+        <v>150</v>
+      </c>
+      <c r="AH27">
+        <v>6.8</v>
+      </c>
+      <c r="AI27">
+        <v>1000</v>
+      </c>
+      <c r="AJ27">
+        <v>5.4</v>
+      </c>
+      <c r="AK27">
+        <v>6.4</v>
+      </c>
+      <c r="AL27">
+        <v>12</v>
+      </c>
+      <c r="AM27">
+        <v>18</v>
+      </c>
+      <c r="AN27">
+        <v>6.4</v>
+      </c>
+      <c r="AO27">
+        <v>100</v>
+      </c>
+      <c r="AP27">
+        <v>6.8</v>
+      </c>
+      <c r="AQ27">
+        <v>980</v>
+      </c>
+      <c r="AR27">
+        <v>6.4</v>
+      </c>
+      <c r="AS27">
+        <v>7.8</v>
+      </c>
+      <c r="AT27">
+        <v>14.5</v>
+      </c>
+      <c r="AU27">
+        <v>22</v>
+      </c>
+      <c r="AV27">
+        <v>6.4</v>
+      </c>
+      <c r="AW27">
+        <v>95</v>
+      </c>
+      <c r="AX27">
+        <v>6.8</v>
+      </c>
+      <c r="AY27">
+        <v>980</v>
+      </c>
+      <c r="AZ27">
+        <v>2.7</v>
+      </c>
+      <c r="BA27">
         <v>4.4</v>
       </c>
-      <c r="AA27">
-        <v>980</v>
-      </c>
-      <c r="AB27">
-        <v>6.6</v>
-      </c>
-      <c r="AC27">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD27">
-        <v>6.4</v>
-      </c>
-      <c r="AE27">
-        <v>9.4</v>
-      </c>
-      <c r="AF27">
-        <v>14</v>
-      </c>
-      <c r="AG27">
-        <v>980</v>
-      </c>
-      <c r="AH27">
-        <v>4.3</v>
-      </c>
-      <c r="AI27">
-        <v>980</v>
-      </c>
-      <c r="AJ27">
-        <v>3.5</v>
-      </c>
-      <c r="AK27">
-        <v>14.5</v>
-      </c>
-      <c r="AL27">
-        <v>3.45</v>
-      </c>
-      <c r="AM27">
-        <v>13.5</v>
-      </c>
-      <c r="AN27">
-        <v>3.95</v>
-      </c>
-      <c r="AO27">
-        <v>980</v>
-      </c>
-      <c r="AP27">
-        <v>4.4</v>
-      </c>
-      <c r="AQ27">
-        <v>980</v>
-      </c>
-      <c r="AR27">
-        <v>4</v>
-      </c>
-      <c r="AS27">
-        <v>980</v>
-      </c>
-      <c r="AT27">
-        <v>4</v>
-      </c>
-      <c r="AU27">
-        <v>980</v>
-      </c>
-      <c r="AV27">
-        <v>4.3</v>
-      </c>
-      <c r="AW27">
-        <v>980</v>
-      </c>
-      <c r="AX27">
-        <v>4.5</v>
-      </c>
-      <c r="AY27">
-        <v>980</v>
-      </c>
-      <c r="AZ27">
-        <v>3.9</v>
-      </c>
-      <c r="BA27">
-        <v>980</v>
-      </c>
       <c r="BB27">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC27">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD27">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27">
-        <v>33174682</v>
+        <v>33167029</v>
       </c>
       <c r="BG27">
-        <v>5800422</v>
+        <v>22498185</v>
       </c>
       <c r="BH27">
-        <v>2844791</v>
+        <v>5789820</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27">
-        <v>1.22730599</v>
+        <v>1.227153412</v>
       </c>
       <c r="BK27">
-        <v>1.227306</v>
+        <v>1.227153422</v>
       </c>
       <c r="BL27">
-        <v>1.227305989</v>
+        <v>1.227153411</v>
       </c>
       <c r="BM27">
-        <v>1.227305999</v>
+        <v>1.227153421</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6133,195 +6145,392 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F28">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="G28">
+        <v>2.16</v>
+      </c>
+      <c r="H28">
+        <v>4.1</v>
+      </c>
+      <c r="I28">
+        <v>4.5</v>
+      </c>
+      <c r="J28">
+        <v>3.3</v>
+      </c>
+      <c r="K28">
         <v>3.5</v>
       </c>
-      <c r="H28">
-        <v>2.56</v>
-      </c>
-      <c r="I28">
-        <v>2.72</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>3.2</v>
-      </c>
       <c r="L28">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="M28">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="N28">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="O28">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="P28">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="Q28">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R28">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="S28">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="T28">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V28">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="W28">
+        <v>15.5</v>
+      </c>
+      <c r="X28">
+        <v>22</v>
+      </c>
+      <c r="Y28">
+        <v>36</v>
+      </c>
+      <c r="Z28">
+        <v>4.9</v>
+      </c>
+      <c r="AA28">
+        <v>120</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+      <c r="AC28">
         <v>8.4</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28">
+        <v>8.6</v>
+      </c>
+      <c r="AF28">
+        <v>15</v>
+      </c>
+      <c r="AG28">
+        <v>22</v>
+      </c>
+      <c r="AH28">
+        <v>4.8</v>
+      </c>
+      <c r="AI28">
+        <v>80</v>
+      </c>
+      <c r="AJ28">
+        <v>10</v>
+      </c>
+      <c r="AK28">
+        <v>14.5</v>
+      </c>
+      <c r="AL28">
+        <v>9.6</v>
+      </c>
+      <c r="AM28">
         <v>13.5</v>
-      </c>
-      <c r="Y28">
-        <v>18.5</v>
-      </c>
-      <c r="Z28">
-        <v>5.9</v>
-      </c>
-      <c r="AA28">
-        <v>50</v>
-      </c>
-      <c r="AB28">
-        <v>8.6</v>
-      </c>
-      <c r="AC28">
-        <v>10.5</v>
-      </c>
-      <c r="AD28">
-        <v>6.4</v>
-      </c>
-      <c r="AE28">
-        <v>7.4</v>
-      </c>
-      <c r="AF28">
-        <v>11.5</v>
-      </c>
-      <c r="AG28">
-        <v>15.5</v>
-      </c>
-      <c r="AH28">
-        <v>5.8</v>
-      </c>
-      <c r="AI28">
-        <v>44</v>
-      </c>
-      <c r="AJ28">
-        <v>15.5</v>
-      </c>
-      <c r="AK28">
-        <v>25</v>
-      </c>
-      <c r="AL28">
-        <v>13</v>
-      </c>
-      <c r="AM28">
-        <v>18</v>
       </c>
       <c r="AN28">
         <v>18.5</v>
       </c>
       <c r="AO28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP28">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AQ28">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AR28">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AS28">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AT28">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AU28">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AV28">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="AW28">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX28">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="AY28">
         <v>980</v>
       </c>
       <c r="AZ28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="BA28">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="BB28">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="BC28">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="BD28">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28">
-        <v>33174684</v>
+        <v>33174682</v>
       </c>
       <c r="BG28">
-        <v>10778437</v>
+        <v>5800422</v>
       </c>
       <c r="BH28">
-        <v>1496989</v>
+        <v>2844791</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28">
+        <v>1.22730599</v>
+      </c>
+      <c r="BK28">
+        <v>1.227306</v>
+      </c>
+      <c r="BL28">
+        <v>1.227305989</v>
+      </c>
+      <c r="BM28">
+        <v>1.227305999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29">
+        <v>3.25</v>
+      </c>
+      <c r="G29">
+        <v>3.45</v>
+      </c>
+      <c r="H29">
+        <v>2.54</v>
+      </c>
+      <c r="I29">
+        <v>2.72</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3.25</v>
+      </c>
+      <c r="L29">
+        <v>1.55</v>
+      </c>
+      <c r="M29">
+        <v>1.63</v>
+      </c>
+      <c r="N29">
+        <v>2.58</v>
+      </c>
+      <c r="O29">
+        <v>2.82</v>
+      </c>
+      <c r="P29">
+        <v>2.1</v>
+      </c>
+      <c r="Q29">
+        <v>2.26</v>
+      </c>
+      <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
+        <v>1.91</v>
+      </c>
+      <c r="T29">
+        <v>7.8</v>
+      </c>
+      <c r="U29">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V29">
+        <v>7.2</v>
+      </c>
+      <c r="W29">
+        <v>8.4</v>
+      </c>
+      <c r="X29">
+        <v>13</v>
+      </c>
+      <c r="Y29">
+        <v>18</v>
+      </c>
+      <c r="Z29">
+        <v>6.2</v>
+      </c>
+      <c r="AA29">
+        <v>48</v>
+      </c>
+      <c r="AB29">
+        <v>8.6</v>
+      </c>
+      <c r="AC29">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD29">
+        <v>6.4</v>
+      </c>
+      <c r="AE29">
+        <v>7.4</v>
+      </c>
+      <c r="AF29">
+        <v>11.5</v>
+      </c>
+      <c r="AG29">
+        <v>15.5</v>
+      </c>
+      <c r="AH29">
+        <v>6.2</v>
+      </c>
+      <c r="AI29">
+        <v>44</v>
+      </c>
+      <c r="AJ29">
+        <v>18</v>
+      </c>
+      <c r="AK29">
+        <v>25</v>
+      </c>
+      <c r="AL29">
+        <v>13</v>
+      </c>
+      <c r="AM29">
+        <v>18.5</v>
+      </c>
+      <c r="AN29">
+        <v>19</v>
+      </c>
+      <c r="AO29">
+        <v>29</v>
+      </c>
+      <c r="AP29">
+        <v>6.4</v>
+      </c>
+      <c r="AQ29">
+        <v>75</v>
+      </c>
+      <c r="AR29">
+        <v>6.4</v>
+      </c>
+      <c r="AS29">
+        <v>75</v>
+      </c>
+      <c r="AT29">
+        <v>6.2</v>
+      </c>
+      <c r="AU29">
+        <v>60</v>
+      </c>
+      <c r="AV29">
+        <v>6.4</v>
+      </c>
+      <c r="AW29">
+        <v>90</v>
+      </c>
+      <c r="AX29">
+        <v>6.8</v>
+      </c>
+      <c r="AY29">
+        <v>980</v>
+      </c>
+      <c r="AZ29">
+        <v>6.4</v>
+      </c>
+      <c r="BA29">
+        <v>75</v>
+      </c>
+      <c r="BB29">
+        <v>6</v>
+      </c>
+      <c r="BC29">
+        <v>44</v>
+      </c>
+      <c r="BD29">
+        <v>6.8</v>
+      </c>
+      <c r="BE29">
+        <v>1000</v>
+      </c>
+      <c r="BF29">
+        <v>33174684</v>
+      </c>
+      <c r="BG29">
+        <v>10778437</v>
+      </c>
+      <c r="BH29">
+        <v>1496989</v>
+      </c>
+      <c r="BI29">
+        <v>58805</v>
+      </c>
+      <c r="BJ29">
         <v>1.227306098</v>
       </c>
-      <c r="BK28">
+      <c r="BK29">
         <v>1.227306108</v>
       </c>
-      <c r="BL28">
+      <c r="BL29">
         <v>1.227306097</v>
       </c>
-      <c r="BM28">
+      <c r="BM29">
         <v>1.227306107</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-11.xlsx
@@ -5369,25 +5369,25 @@
         <v>142</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G24">
         <v>5.6</v>
       </c>
       <c r="H24">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I24">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J24">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K24">
         <v>4.7</v>
       </c>
       <c r="L24">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="M24">
         <v>2.42</v>
@@ -5396,19 +5396,19 @@
         <v>1.7</v>
       </c>
       <c r="O24">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="P24">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q24">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R24">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S24">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="T24">
         <v>14</v>
@@ -5417,37 +5417,37 @@
         <v>24</v>
       </c>
       <c r="V24">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="W24">
         <v>11.5</v>
       </c>
       <c r="X24">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z24">
         <v>13</v>
       </c>
       <c r="AA24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB24">
         <v>15.5</v>
       </c>
       <c r="AC24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD24">
         <v>8.4</v>
       </c>
       <c r="AE24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF24">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG24">
         <v>11</v>
@@ -5456,10 +5456,10 @@
         <v>13.5</v>
       </c>
       <c r="AI24">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ24">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AK24">
         <v>55</v>
@@ -5477,49 +5477,49 @@
         <v>24</v>
       </c>
       <c r="AP24">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AQ24">
         <v>38</v>
       </c>
       <c r="AR24">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AS24">
         <v>980</v>
       </c>
       <c r="AT24">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AU24">
         <v>980</v>
       </c>
       <c r="AV24">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AW24">
         <v>980</v>
       </c>
       <c r="AX24">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AY24">
         <v>980</v>
       </c>
       <c r="AZ24">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BA24">
         <v>980</v>
       </c>
       <c r="BB24">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="BC24">
         <v>9.4</v>
       </c>
       <c r="BD24">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5566,157 +5566,157 @@
         <v>143</v>
       </c>
       <c r="F25">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G25">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J25">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K25">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L25">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="M25">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="N25">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="O25">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="P25">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="Q25">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R25">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S25">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="T25">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="U25">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="V25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W25">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="X25">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="Y25">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="Z25">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="AA25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB25">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC25">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD25">
         <v>12</v>
       </c>
       <c r="AE25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF25">
-        <v>5.4</v>
+        <v>44</v>
       </c>
       <c r="AG25">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AH25">
+        <v>10.5</v>
+      </c>
+      <c r="AI25">
+        <v>570</v>
+      </c>
+      <c r="AJ25">
         <v>5.8</v>
       </c>
-      <c r="AI25">
-        <v>980</v>
-      </c>
-      <c r="AJ25">
-        <v>5.5</v>
-      </c>
       <c r="AK25">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AL25">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN25">
-        <v>5.4</v>
+        <v>42</v>
       </c>
       <c r="AO25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP25">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="AQ25">
-        <v>980</v>
+        <v>510</v>
       </c>
       <c r="AR25">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AS25">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT25">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AU25">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AV25">
-        <v>5.5</v>
+        <v>48</v>
       </c>
       <c r="AW25">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AX25">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="AY25">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AZ25">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="BA25">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="BB25">
-        <v>5.8</v>
+        <v>36</v>
       </c>
       <c r="BC25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD25">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -5763,13 +5763,13 @@
         <v>144</v>
       </c>
       <c r="F26">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G26">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I26">
         <v>12</v>
@@ -5793,37 +5793,37 @@
         <v>2.02</v>
       </c>
       <c r="P26">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q26">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R26">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="S26">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="T26">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U26">
         <v>17</v>
       </c>
       <c r="V26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W26">
         <v>34</v>
       </c>
       <c r="X26">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Y26">
         <v>110</v>
       </c>
       <c r="Z26">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AA26">
         <v>980</v>
@@ -5835,19 +5835,19 @@
         <v>8</v>
       </c>
       <c r="AD26">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE26">
         <v>13</v>
       </c>
       <c r="AF26">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG26">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AH26">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AI26">
         <v>980</v>
@@ -5859,61 +5859,61 @@
         <v>8</v>
       </c>
       <c r="AL26">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AM26">
+        <v>11</v>
+      </c>
+      <c r="AN26">
+        <v>7.4</v>
+      </c>
+      <c r="AO26">
+        <v>36</v>
+      </c>
+      <c r="AP26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ26">
+        <v>300</v>
+      </c>
+      <c r="AR26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AS26">
         <v>11.5</v>
       </c>
-      <c r="AN26">
-        <v>6.6</v>
-      </c>
-      <c r="AO26">
-        <v>38</v>
-      </c>
-      <c r="AP26">
-        <v>6.8</v>
-      </c>
-      <c r="AQ26">
-        <v>980</v>
-      </c>
-      <c r="AR26">
-        <v>9.4</v>
-      </c>
-      <c r="AS26">
-        <v>12</v>
-      </c>
       <c r="AT26">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AU26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV26">
-        <v>6.2</v>
+        <v>36</v>
       </c>
       <c r="AW26">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AX26">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AY26">
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="BA26">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BB26">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BC26">
         <v>980</v>
       </c>
       <c r="BD26">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -5960,37 +5960,37 @@
         <v>145</v>
       </c>
       <c r="F27">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="G27">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H27">
         <v>30</v>
       </c>
       <c r="I27">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J27">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="K27">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L27">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="M27">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="N27">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="O27">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -5999,58 +5999,58 @@
         <v>1.4</v>
       </c>
       <c r="S27">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="T27">
         <v>19.5</v>
       </c>
       <c r="U27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V27">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="W27">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="X27">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>980</v>
       </c>
       <c r="Z27">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AA27">
         <v>1000</v>
       </c>
       <c r="AB27">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC27">
         <v>8.199999999999999</v>
       </c>
       <c r="AD27">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF27">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG27">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AH27">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AI27">
         <v>1000</v>
       </c>
       <c r="AJ27">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AK27">
         <v>6.4</v>
@@ -6059,16 +6059,16 @@
         <v>12</v>
       </c>
       <c r="AM27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AN27">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AO27">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP27">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AQ27">
         <v>980</v>
@@ -6077,40 +6077,40 @@
         <v>6.4</v>
       </c>
       <c r="AS27">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AT27">
         <v>14.5</v>
       </c>
       <c r="AU27">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AV27">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AW27">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AX27">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AY27">
         <v>980</v>
       </c>
       <c r="AZ27">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="BA27">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="BB27">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="BC27">
         <v>1000</v>
       </c>
       <c r="BD27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6157,22 +6157,22 @@
         <v>146</v>
       </c>
       <c r="F28">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G28">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H28">
         <v>4.1</v>
       </c>
       <c r="I28">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J28">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K28">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L28">
         <v>1.66</v>
@@ -6181,133 +6181,133 @@
         <v>1.75</v>
       </c>
       <c r="N28">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O28">
         <v>2.52</v>
       </c>
       <c r="P28">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="Q28">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R28">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V28">
         <v>11.5</v>
       </c>
       <c r="W28">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="X28">
         <v>22</v>
       </c>
       <c r="Y28">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z28">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="AA28">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB28">
         <v>7</v>
       </c>
       <c r="AC28">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD28">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE28">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF28">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH28">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI28">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ28">
         <v>10</v>
       </c>
       <c r="AK28">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL28">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM28">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN28">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO28">
+        <v>24</v>
+      </c>
+      <c r="AP28">
+        <v>8.4</v>
+      </c>
+      <c r="AQ28">
+        <v>110</v>
+      </c>
+      <c r="AR28">
+        <v>20</v>
+      </c>
+      <c r="AS28">
         <v>28</v>
       </c>
-      <c r="AP28">
-        <v>4.9</v>
-      </c>
-      <c r="AQ28">
-        <v>100</v>
-      </c>
-      <c r="AR28">
-        <v>21</v>
-      </c>
-      <c r="AS28">
-        <v>32</v>
-      </c>
       <c r="AT28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AV28">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="AW28">
         <v>65</v>
       </c>
       <c r="AX28">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="AY28">
         <v>980</v>
       </c>
       <c r="AZ28">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="BA28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB28">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC28">
         <v>110</v>
       </c>
       <c r="BD28">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6354,19 +6354,19 @@
         <v>147</v>
       </c>
       <c r="F29">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G29">
         <v>3.45</v>
       </c>
       <c r="H29">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I29">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K29">
         <v>3.25</v>
@@ -6396,13 +6396,13 @@
         <v>1.91</v>
       </c>
       <c r="T29">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="V29">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="W29">
         <v>8.4</v>
@@ -6414,13 +6414,13 @@
         <v>18</v>
       </c>
       <c r="Z29">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA29">
         <v>48</v>
       </c>
       <c r="AB29">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29">
         <v>9.800000000000001</v>
@@ -6438,7 +6438,7 @@
         <v>15.5</v>
       </c>
       <c r="AH29">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI29">
         <v>44</v>
@@ -6450,58 +6450,58 @@
         <v>25</v>
       </c>
       <c r="AL29">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM29">
         <v>18.5</v>
       </c>
       <c r="AN29">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO29">
         <v>29</v>
       </c>
       <c r="AP29">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AQ29">
         <v>75</v>
       </c>
       <c r="AR29">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AS29">
         <v>75</v>
       </c>
       <c r="AT29">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AU29">
         <v>60</v>
       </c>
       <c r="AV29">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AW29">
         <v>90</v>
       </c>
       <c r="AX29">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AY29">
         <v>980</v>
       </c>
       <c r="AZ29">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="BA29">
         <v>75</v>
       </c>
       <c r="BB29">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BC29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD29">
         <v>6.8</v>
